--- a/news_data/2021_11.xlsx
+++ b/news_data/2021_11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,90 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 쇠소깍 산물 관광농원 그곳에 가면...</t>
+  </si>
+  <si>
+    <t>(사)대한캠핑장협회, "캠핑관광, 제주도를 시작으로 전국을 선도한다"</t>
+  </si>
+  <si>
+    <t>제주도 대규모 관광사업장 고용 실적 ‘미미’</t>
+  </si>
+  <si>
+    <t>내국인 관광객 카지노 도입…제주도 “반대 입장 확고”</t>
+  </si>
+  <si>
+    <t>제주도, 크루즈 관광산업 재도약 방안 모색 ‘총력’</t>
+  </si>
+  <si>
+    <t>제주도사회협약위, 취약계층 관광 지원 사회협약 체결</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주관광인 한마음대회 성황리 개최</t>
+  </si>
+  <si>
+    <t>해외 관광객들 1년9개월 만에 '제주도 카지노' 찾았다</t>
+  </si>
+  <si>
+    <t>제주도의회, 의정자문위원회 문화관광체육분과 회의 개최</t>
+  </si>
+  <si>
+    <t>제주에 관광객 전용카지노 도입?…제주도 "현재까진 검토 안해"</t>
+  </si>
+  <si>
+    <t>제주도의회 "관광업계 안전한 노동환경 조성 촉구 결의"</t>
+  </si>
+  <si>
+    <t>"제주도내 관광개발사업 무더기 기간 연장, '먹튀' 우려"</t>
+  </si>
+  <si>
+    <t>'중화권 관광객' 다시 올까…제주도, 무비자 입국 재개 추진</t>
+  </si>
+  <si>
+    <t>민주당 제주도당 “도의회, 관광 근로자 고용보장 촉구 결의안 환영”</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 일상회복 관광객 맞이 캠페인 전개</t>
+  </si>
+  <si>
+    <t>제주도 관광객 전용 카지노 도입 검토 소식에 폐광지 발끈</t>
+  </si>
+  <si>
+    <t>아난티·한라홀딩스, '제주도 관광 플랫폼 조성 업무협약'</t>
+  </si>
+  <si>
+    <t>'관광객이 미분양 주택 투숙' 제주도, 불법 숙박업 근절 나선다</t>
+  </si>
+  <si>
+    <t>제주도내 주요 관광지 택시 호객행위 집중 단속</t>
+  </si>
+  <si>
+    <t>“위드 코로나에 제주 관광객 1,000만명 넘어섰다” 제주도 부동산에 쏠리는 ...</t>
+  </si>
+  <si>
+    <t>‘위드코로나’로 제주도 관광객 이번 주 1000만명 넘어선다</t>
+  </si>
+  <si>
+    <t>제주도·하와이, ‘탄소중립·관광·수자원관리’ 교류협력 강화</t>
+  </si>
+  <si>
+    <t>[전문] 제주도의회 예산안 심사 입장- 안창남 문화관광체육위원장</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 메가쇼 시즌2 참가</t>
+  </si>
+  <si>
+    <t>제주도의회, 관광 노동자 고용보장 촉구 결의안 채택</t>
+  </si>
+  <si>
+    <t>묘산봉관광지 개발사업 시행변경안 제주도에 제출</t>
+  </si>
+  <si>
+    <t>제주도 “밀접접촉자, 음성이면 집으로”···관광객에 격리시설 제공 안 하...</t>
+  </si>
+  <si>
+    <t>제주도, 코로나19 이후 섬 관광 대응 모색 국제정책 세미나 열어</t>
+  </si>
+  <si>
     <t>제주도개발심위 '심의 부결'...오라관광단지 사실상 '좌초'</t>
   </si>
   <si>
@@ -49,34 +133,112 @@
     <t>위드 코로나에 제주 관광객 1천만명 돌파… 제주도 부동산 관심집중</t>
   </si>
   <si>
-    <t>제주도개발심위 ‘심의 부결’...오라관광단지 사실상 ‘좌초’ &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 11:16 (화) 본문영역 이전 기사보기 다음 기사보기 제주도개발심위 ‘심의 부결’...오라관광단지 사실상 ‘좌초’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도개발심위 ‘심의 부결’...오라관광단지 사실상 ‘좌초’ 기자명 진순현 기자 입력 2021.11.03 10:33 수정 2021.11.03 10:58 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주 역대 최대규모 ‘지본 검증’ 문턱 못 넘어 제주미래비전 가치 실현 등 종합적으로 ‘부적합’ 오라관광단지 조감도 제주 역대 최대 규모의 오라관광단지 개발사업이 ‘자본검증’ 등의 문턱을 넘지 못하면서 사실상 좌초됐다. 제주특별자치도는 어제(2일) 열린 개발사업심의위원회서 '제주오라관광단지 조성 사업 개발사업'에 대해 심의를 부결했다고 3일 밝혔다. 심의위는 지난해 7월 위원회 요구에 따라 재수립된 사업계획이 기존 사업 내용과 크게 다르지 않다고 지적했다. 특히 △사업자의 투자 적격성 △투자계획 및 재원 확보의 적정성 △제주미래비전 가치 실현 등 종합적으로 부적합하다고 부결 이유를 밝혔다. 중국자본이 투자하는 오라관광단지 사업은 그 동안 대표적인 중산간 난개발 사업으로 환경단체 등의 반발이 거세게 일었다. 그러나 1999년부터 논의되어 온 오라관광단지 사업은 여러 차례 사업시행자가 변경되면서 지연돼 오다 2015년부터 현재의 사업자(JCC(주))가 재추진했다. 사업 첫 2015년부터는 경관, 도시계획, 교통, 도시건축, 환경영향 분야에 대한 심의·평가를 거쳐 왔으나, 대부분 절차에서 재검토·수정이 요청되거나 조건부 통과돼 왔다. 이에 2017년 6월 도의회는 '자본검증' 등을 위한 금융·회계·투자·법률 전문가들로 구성된 자본검증위원회의가 사업자의 투자 적격성과 자본조달 가능성을 검증한 결과, 자본조달 능력에 대한 소명이 미흡하고 외부로부터 투자자금 조달도 불확실하며 관광사업과 해외 직접투자사업 경험이 없다고 판단해 사업자가 당초 6조원의 사업에서 4조4000억원으로 축소했으며, 지난해 7월 31일 열린 4시간 동안 도개발심의위원회 회의를 벌인 끝에 오라관광단지개발사업에 대해 '재검토' 결론을 내린바 있다. 결국 두 번째 심의회 부결로 인해 2015년 개발사업승인신청으로 시작된 오라관광단지 개발사업은 6년만에 완전히 종료됐다. 앞으로 사업자가 해당 사업을 재개하기 위해서는 모든 행정절차를 처음부터 다시 밟아야 한다. 한편 오라관광단지는 제주시 오라동 357만여㎡(100만여평)에 중국자본 JCC(주)가 4조4000억원을 투입해 제주 최대 규모의 숙박시설(3570실)과 상업시설, 회의시설, 테마파크, 골프장 등을 짓는 제주 최대 규모의 복합관광단지 조성 사업이다. 진순현 기자 jinjin3808@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 오늘의 주요뉴스 [관광] 제주관광 회복 가속도…코로나19 이전 수준 회복 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 관광객 1000만명 돌파...1일 4만명 수준 회복 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:19 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광객 1000만명 돌파...1일 4만명 수준 회복 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 관광객 1000만명 돌파...1일 4만명 수준 회복 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2021.11.09 17:50 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 올들어 제주도를 찾은 관광객이 누적 1000만명을 넘어섰다. 9일 제주도관광협회에 따르면, 지난 8일까지 제주를 방문한 관광객은 내국인 999만 2336명, 외국인 4만 1394명 등 총 1003만 3730명에 이른다. 이는 지난해 같은 기간과 비교해 14.2% 증가한 규모이나, 코로나19 이전인 2019년과 비교해서는 여전히 크게 밑돌고 있다. 지난해 2월 코로나19 상황 이후 제주국제공항의 국제선 운항이 전면 중단된 상태여서 외국인 관광객의 집계는 큰 의미를 두기 어렵지만, 최근 내국인 입도객이 4만명대로 회복되고 있다는 점이 주목된다. 11월부터 코로나19 방역수칙이 '위드 코로나'의 단계적 일상회복 체제로 전환되면서 입도객은 점차 증가할 것으로 전망된다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>아난티·한라홀딩스, 제주도 묘산봉 관광단지 리조트 개발 ‘맞손’ 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 04일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 이재명 디지털화폐 G6 테슬라 특징주 경제 로봇 이데일리 e 단독 증권 주식 종목 펀드 국제시황 팜이데일리 마켓in 스냅타임 아난티·한라홀딩스, 제주도 묘산봉 관광단지 리조트 개발 ‘맞손’ 등록 2021-11-08 오후 5:08:54 수정 2021-11-08 오후 5:08:54 가 가 유준하 기자 기자구독 페이스북 트위터 메일 프린트 스크랩 url복사 [이데일리 유준하 기자] 아난티(025980)는 한라홀딩스(060980)와 제주도 묘산봉 관광단지 내 리조트 개발사업에 대한 업무협약서(MOU)를 체결했다고 8일 공시했다. 주요뉴스 尹은 기차, 조종석엔 김건희 여사…고등학생이 그린 그림은 "멀쩡히 살아계신 아버지가 '죽은 목숨' 이 되기까지…" 尹발언 풍자한 BBC…이준석 "어떻게 해석해도 망했다" 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 실시간급상승 뉴스 1前 마약 중독자가 돈스파이크에 놀란 이유…"그럴 몸 아닌데" 2尹은 기차, 조종석엔 김건희 여사…고등학생이 그린 그림은 3한달 570만원 버는 '리치 싱글', 절반은 저축한다 4‘학원비만 2500만원’ 돈 때문에 꿈 포기하는 로스쿨 지망생들 5이언주, 삭발 회고하며 與 비판…"자유? 권력자의 자유 뿐" 카드뉴스[카드뉴스] 2022년 10월 4일 오늘의 운세 오늘의포토 왼쪽 오른쪽 [포토]이주호 사회부총리 후보자, 인사청문회 사무실 출근 [포토]롯데월드 할로윈 퍼레이드 시작 [포토]'대화하는 한덕수-김대기-정진석' [포토]'하루 앞으로 다가온 국정감사' [포토]신규확진자 1만명대, '월요일 기준 13주만에 최저' [포토]'제4354주년 개천절 경축식' [포토]감사원의 문재인 전 대통령 조사 규탄, '질문에 답하는 김의겸' [포토]하락세 이어지는 기름값…휘발유 1700원 깨져 [포토]김수지 '가을 전문 우승자입니다' [포토] 이형준 '침착하자' 소셜 댓글by LiveRe 많이 본 뉴스 뉴스 증권 연예 1 한달 570만원 버는 '리치 싱글', 절반은 저축한다 2 前 마약 중독자가 돈스파이크에 놀란 이유…"그럴 몸 아닌데" 3 ‘학원비만 2500만원’..꿈 포기하는 로스쿨 지망생들 4 조종석엔 김건희..고등학생이 그린 '윤석열차' 5 '빗속 뚫고' 전광훈, 3만명 집회…도로마비로 시민 '눈살' 6 이언주, 삭발 회고, 與 비판.."자유? 권력자의 자유 뿐" 7 택시요금 인상 ‘초읽기’…기사도, 승객도 “한숨만” 8 '영끌'해 집 산 2030 빚 부담 증가폭, 집 없는 동년배의 13배 9 보수평론가 "이XX도 안했다고, 정면돌파 아닌 자기최면" 10 “월급 줄 돈 없어”..기증된 인체조직 ‘할인판매’한 공공기관 1 신라젠·코오롱티슈진 거래재개 심판대로…개미 눈물도 닦을까 2 [주간추천주]커지는 변동성에도 굳건한 '삼바·LS' 주목 3 화일약품 "화성시 공장 화재 매출 큰 영향 없을 듯…수습 최선" 4 시총 상위주 증권사 목표주가 격차 50% 이상 '수두룩' 5 최악의 하락장 9월…외국인 '선방', 개미는 '전패' 6 [뉴스새벽배송]英 감세안 철회하자 美증시 뛰었다…2% 반등 7 기시다-구로다 갈등에 28조원 태웠지만..여전한 엔저 8 코나아이, 동백택시 서포터즈·부산 경찰청과 음주운전 근절 캠페인 9 "원·달러 정점…3Q 실적, 주가 영향 제한적일 것" 10 "국내 주식시장 반등, 에너지 가격에 달렸다" 1 박명수 "'의사 아내' 한수민 조건 보고 결혼해" 2 K오피스 코믹드라마 ‘가우스전자’ 제대로 터졌다 3 ENA 새 드라마 ‘얼어죽을 연애따위’ 우영우 인기 잇나 4 황보라, 11월 결혼식 앞두고 혼인신고 먼저 한 사연 5 이찬원, 대중목욕탕 기피하게 된 사연은? 6 기안84, '나혼산' PD와 신규 예능…'태어난 김에 세계일주' 론칭 [공식] 7 '신랑수업' 모태범♥임사랑, 밀월 여행 중 스킨십…지상렬 "저 정도면 부부" 8 '얼어죽을 연애따위' 최시원, '의사+엄친아'로…로코 강자의 컴백 9 ‘작은 아씨들’ 남지현, 직접 뽑은 최애 장면은? 10 고두심·강하늘·하지원 주연 '커튼콜', 31일 첫방송 확정 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 유원상 유유제약 대표, 美 안과학회서 안구건조증 치료제 후보물질 홍보 셀트리온, 장질환 환자 위해 팔 걷어...‘과장님 케어’ 앱 출시 디티앤씨알오, 증권신고서 제출… 연내 코스닥 상장 목표 크리스탈지노믹스, 면역항암제 ‘캄렐리주맙’ 시판 허가 위한 가교 임상 신청 SK바이오사이언스, 新성장 전략 실행 위해 액센츄어 출신 임원 영입 스무살의 설레임 스냅타임 왼쪽 오른쪽 2022년 10월 4일 오늘의 운세 2022년 10월 3일 오늘의 운세 한미 ‘통화스와프’가 환율 급등을 막을 수 있다? "처음 대면 행사에 설래요"...3년 만에 돌아온 대학 축제 현장 스냅타임에서 ‘망한 자소서 대회’를 개최합니다 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 하락장에도 경매로 돈 버는 방법이 있다 뿌리는 탈모약 ‘핀쥬베’ 내년 출시, 효과는? 가을에 가면 더 좋은 제천 여행 베스트 10 부동산 재벌들, 하락장에 눈여겨 보는 포인트는? 엔케이맥스, 불치병에서 성과내며 기술수출 ‘성큼’ #NKMAX #팜이데일리 두근두근 핫포토 오늘의 '세 컷' '눈물 글썽' 은퇴식 출근길 '마비' 마네킹 비율 왼쪽 오른쪽 나이스 샤아앗~ㅣ골프in [포토]김수지 '통산 4승 달성했어요' 당신의 드림카는?ㅣ오토in 현대글로비스, 美 현지 경매업체 인수…"중고차 사업 글로벌로 확대" 왼쪽 오른쪽 이슈기획 ㅣ 2022 국정감사 LH, 사옥 매각 후 땅값 1.5배 상승…`헐값 매각` 논란[2022국감] 이슈기획 ㅣ 尹 대통령 비속어 파문 김대기 “尹순방 성과에 필요 이상 논란…국민에 면목 없어” 이슈기획 ㅣ 신당역 역무원 피살 사건 반성없는 '신당역 살인' 전주환…법정서 선고기일 연기 요청[사사건건] 이슈기획 ㅣ 집값, 폭락 vs 그래도 상승? (영상)'고금리 위세'에 주요국 집값 내리막…한국도 하락 압력 커 이슈기획 ㅣ 금리 인상 여파 '고환율·고금리'에 흔들…대기업 업황, 코로나 팬데믹 이후 최대폭 하락 오늘의 주요 기사 전북대 교수, 새만금 사업권 중국자본에 넘겨 ‘연간 500억’ 유출 [단독]감사원, 정부출연연 22곳 무더기 감사…野 “표적감사 의문” 빗장 풀자 한국이 더 ‘난리’, 일본 여행 상품 예약 ‘폭주’ .尹발언 풍자한 BBC…이준석 "어떻게 해석해도 망했다" .벤츠 몰며 공공주택 임대살이? ‘가짜서민’에 쓰인 혈세 적발 .[속보]檢 '성남FC 의혹' 연루기업 전격 압수수색…이재명 겨냥하나 .박명수 "'의사 아내' 한수민 조건 보고 결혼해" ."멀쩡히 살아계신 아버지가 '죽은 목숨' 이 되기까지…" ."러 점령지서 재투표"…머스크, '우크라 종전안' 제안했다 뭇매 알립니다 2022년 하반기 경력기자 모집 뉴스레터를 신청하세요 확인 IR 멤버스 - LG전자, 나이지리아서 ‘친환경 TV 박스 활용’ 기후변화 대응 전시 열어 - 삼성증권, 글로벌 실전투자대회 ‘G6 투자 챌린지’ 진행 - [머니팁]나의 금융상식 점수는? 한화투자증권 온라인 테스트 이벤트 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
-  </si>
-  <si>
-    <t>제주도의회, '제주관광기념품 시장 활성화를 위한 제주천연염색산업 육성 방안' 용역결과보고회 주메뉴 바로가기 본문 바로가기 2022.10.03 (월) 카카오채널 RSS 모바일보기 비서울 20.1℃ 구름많음제주 28.5℃ 구름조금고산 26.8℃ 구름조금성산 27.2℃ 구름많음서귀포 26.4℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도의회, '제주관광기념품 시장 활성화를 위한 제주천연염색산업 육성 방안' 용역결과보고회 서유주 기자 news@jejutwn.com 등록 2021.11.10 16:07:36 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제10차 '제주관광 미래성장 포럼' [제주교통복지신문 서유주 기자] 제주관광 미래성장포럼 대표 오영희의원(국민의힘, 비례)은 10일 오전 11시 제주도의회 의원회관 1층 대회의실에서 “‘제주천연염색산업의 새로운 두드림과 도전’을 주제로 제10차 정책토론회를 개최함과 동시에 『제주관광기념품 시장 활성화를 위한 제주천연염색산업 육성 방안』용역 결과보고회를 갖게 됐다”고 밝혔다. 오영희 대표는 “제주관광기념품 시장은 연간 2조 원이 넘는 잠재력이 풍부한 시장으로 잠재시장을 효율적으로 공략하기 위해서는 제주관광기념품 시장과 제주천염염색의 현황 및 실태분석이 우선 이루어져 한다”고 하면서 “염색산업의 지속적인 경쟁력 강화와 지역연고산업으로 육성이 필요하다”고 강조했다. 이날 용역보고진은 관광산업의 동향과 관광기념품 시장의 현황에서 2020년 내국인 관광객들의 제주여행의 주요활동으로 식도락, 맛집여행(98.4%), 자연경관감상(90.3%), 쇼핑(86.6%) 순으로 나타나고 있다고 했으며, 관광산업 성장의 중요한 요소인 관광만족도와 재방문율 제고의 기대효과가 있다고 했다. 또한 제주지역산업의 균형발전과 고용창출, 지역소득 환류가 가장 높아 지역경제활성화 기여, 제주이미지 제고와 홍보 효과 증대, 제주지역문화의 전승과 지역산업 발전에 기여하는 것으로 기대효과를 분석했다. 제주천연염색업체 현황에서 2021년 9월 6일부터 10월 15일까지 천연염색업체 37곳을 대상으로 대면조사, 방문, 전화조사를 병행한 결과, 2010년대 설립한 업체가 16개소로 43.3%를 차지하고 있으며, 2000년대 10개소, 1990년대 5개소 순으로 나타났다. 제주천연염색업체의 주요 수익모델은 완제품 생산업체가 35개(94.6%)로 가장 많았으며, 체험 및 교육 23개 업체(62.2%), 원단판매 12개 업체(32.4%), 반제품 생산 판매 7개 업체(18.9%), 염료제조 판매 6개 업체(16.2%)순으로 나타났다. 제주지역 천연염색업체들은 감물염료 천연염색의 우수한 항균성에 기반을 두고 있어 제주의 경우 타 지역 상품들과 차별화되고 특화수준이 높다고 평가했다. 정책적 지원분야로 제주천연염색 축제 개최, 제주천연염색진흥조례 제정, 디자인 개선, 신제품 개발지원, 마케팅 지원사업 강화 등 지원항목이 높은 것으로 나타났다. 지난 9월 13일부터 9월 16일까지 제주공항에서 215명을 대상으로 제주천연염색에 관한 관광객 의견 분석에서 ‘제주천연염색산업 경쟁력’항목은 ‘보통 52.6%’, ‘낮음 27.9%, ‘높음 19.0%’로 나타나 경쟁력 확보에 주력해야 할 것으로 나타났다. ‘제주천연염색 체험 프로그램 참여의도’ 항목은 ‘그렇다 39.1%’로 나타나 참여의사가 높은 것으로 나타났다. ‘제주천연염색 만족도’는 ‘색상 44.1%’로 높게 나타났으며, ‘제품 구매의도’는 ‘있다 45.2%’로 구매의향이 높았다. ‘제품 추천의도’는 ‘그렇다 50.9%’였으며, ‘특화거리 조성에 대한 의견’은 ‘조성해야 한다 55.8%’로 나타났다. ‘구입 기념품’은 ‘감귤류 31.6%’, ‘오메기떡 25.1%’, ‘과자종류 23.3%’ 순이였으며, ‘구입희망천연제품’은 ‘스카프 33.5%’, ‘침구류 23.7%’, ‘셔츠 22.8%’ 순으로 희망하는 것으로 조사됐다. 제주 관광기념품 시장 규모 추정에 있어서는 2020년 말 기준으로 제주의 내도 관광객은 1,024만 명으로 제주지역경제 활성화를 위해서는 천연염색, 관광기념품 등의 제주지역 지연산업과 연계한 명품개발사업 등을 추진하여, 제주 관광기념품 잠재 시장을 전략적으로 공략 할 필요성을 제기했다. 제주관광기념품 시장을 2020년 제주도와 제주관광공사가 조사한 방문관광객 실태조사 통계자료를 기반으로 단순 추정해본다면 2020년 제주관광기념품 시장 규모는 약 5,774억으로 추정되는 것으로 용역진은 보고했다. 이는 제주지역 면세점에서 취급하는 명품급의 제주 관광기념품들이 준비되어 있다면 상당한 매출을 올릴 수 있는 잠재시장이 존재함으로 전략적으로 제주관광기념품 명품 개발에 정책적인 지원과 투자할 가치가 있다고 강조했다. 또한, 관광객들의 제주 재방문 비율이 80%를 상회하는 시장 환경에 부응하고, 위드코로나 시대의 다양한 관광객의 욕구를 충족시키기 위해서라도 문화관광상품자원으로 역사성과 문화성을 갖추고 있고, 제주형 제조업으로서 지연산업의 특성을 갖추고 있으며, 체험융합상품으로의 기술성과 차별성, 성장 잠재력이 있는 제주천연염색 산업을 전략아이템으로 선정하여 정책적으로 적극 지원하고 육성할 필요가 있다고 보고했다. 제주천연염색산업 육성의 정책과제와 활성화 방안에서는 첫째, 명품선정과 명장제도 추진, 둘째, 제주천연염색센터(가칭) 설립의 필요성, 셋째, 제주천연염색 인증시스템 추진, 넷째, 제주천연염색 가치사슬 전문화를 통한 원료 생산, 제품생산, 유통의 전문화 시스템 구축의 필요성을 정책적 과제로 제시했다. 제주천연염색산업 활성화 방안으로는 제주천연염색산업 통합지원 시스템 구축, 인체친화적 건강기능성 상품 개발, 공동마케팅 활성화, 주기적인 제주천연염색산업 실태조사 등을 활성화 방안으로 제시했다. 제주천연염색산업 통합지원시스템은 기술기반 구축사업, 핵심역량 강화사업, 경영·기술 지원사업, 인력양성 사업 등 4개 사업이 유기적으로 연결되어 시너지 효과가 창출될 수 있도록 구축하는 방안, 식물성 천연섬유 직물로 이루어져 인체 유해성이 적은 특징이 있다. 또한 제주천연염색 사업체들은 전반적으로 규모가 작고 영세하므로 제주천연 염색 산업을 활성화하기 위해서는 공동판매, 공동전시, 천연염색 특화거리 조성, 제주천연염색마을 조성 사업 추진, 박람회 참가, 온라인 공동판매장 운영, 플리마켓과 연계한 공동판매 등의 공동마케팅을 강화할 필요성을 제기했다. 제주천연염색산업을 지속적으로 육성하고 발전 시키기 위해서는 1년에 한 번씩 주기적인 실태조사를 시행하여 정책과제를 도출하고, 지원정책의 성과분석과 차기 주요 지원분야 등을 설정하는 자료로 활용할 수 있다고 활성화 방안으로 제시했다. 제주갈옷 활성화 방안으로 방수성과 항균성을 보유하고 있어 환경 친화적, 편안한 착용감, 독특한 색감으로 인식되어 감성과학 측면에서 새롭게 인식되고 있으며, 제주의 다양한 식물 및 해양 자원과 연계한 복합염색 등을 통한 인체 친화형 소재 특성이 있어 성장의 잠재력과 경쟁력을 가지고 있는 분야라고 언급했다. 더불어, 갈옷 착용을 활성화하기 위해서는 제주지역의 관광업계 종사자들은 물론 전통시장 상인, 관공서, 일반 기업 등 제주 도민들이 즐겨 입을 수 있도록 디자인과 색상, 가격, 품질, 원단 등의 세밀한 추진방안을 강구해야 하며, 제주 갈옷 장려 및 지원에 관한 정책 제도화의 필요성을 피력했다. 용역결과 보고가 끝난 후 이어진 관련 정책토론은 강기춘 제주대학교 경제학과 교수, 제주도 교육청 김영관 장학관, 제주도 관광정책과 임명심 팀장, 제주천연염색협회 이애순 부회장, 제주관광미래성장포럼 김주희 정책연구원, 제주관광미래성장포럼 강철수 자문위원이 토론자로 나섰다. 제주관광미래성장포럼은 오영희 대표(국민의힘, 비례)를 비롯해 양병우 부대표(무소속, 대정읍), 강연호(국민의힘, 표선면), 고태순(더불어민주당, 아라동), 김창식(교육위, 제주시 서부), 이경용(국민의힘, 서홍·대륜동), 한영진(민생당, 비례) 7명이 활동하고 있다. 서유주 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. #제주도의회 #오영희의원 랭킹뉴스 1 [TW포토] 경남 창원, 가을에 가볼만한 곳…소쿠리 섬 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 [TW포토] 제주관광대 탐모라볼빛축제…장덕철 열창 4 [TW포토] 울트라 뮤직 페스티벌 코리아 2022 성황리 종료 5 3년 만에 개최되는 제3회 서귀포 은갈치 축제 9월 30일 개최 6 제주시, 10월 시정시책공유 간부회의 개최 7 2022 청춘마이크 제주 뮤직 페스티발 9월 30일 개최 8 서귀포시, 민원업무 담당자 직무교육 실시 9 [TW포토] 제주관광대 탐모라볼빛축제 성황리에 열려 10 서귀포시, 美 풀러턴(Fullerton)市와 함께한‘창업 및 수출지원 세미나’성료 실시간 뉴스 2022-10-03_MON 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 09:00 서귀포시 장애인게이트볼 연맹, 전국장애인게이트볼대회 참가 03:50 제주 사회적기업 성장지원센터, 입주기업 설명회 및 간담회 성황리에 개최 02:13 우리혼디봉사회, '제22회 제주시 장애인 한마음축제' 봉사활동 실시 01:51 [TW포토] 제주 노지감귤 나무 01:03 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 03일 11시 03분 최상단으로</t>
-  </si>
-  <si>
-    <t>제주도 단체관광 특수 기대....외국인 관광객 회 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이제주도 단체관광 특수 기대....외국인 관광객 회 박주연2021년 11월 02일 00시 00분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 ◀ＡＮＣ▶ 위드 코로나와 함께 국내 최대 관광지인 제주 관광업계에서는 연말 연시 특수 기대감이 높습니다. 코로나 이전 제주에만 허용됐던 중국인들의 무사증 입국이 언제쯤 풀릴지도 관심거리인데 제주도는 아직까지 신중한 입장입니다. 박주연 기자입니다.◀ＥＮＤ▶ ◀ＶＣＲ▶ 한라산 기슭, 편백나무가 우거진 자연휴양림입니다. 코로나19 여파로 한산했던 이 곳에 단체관광객들이 찾았습니다. 단계적 일상회복으로 새로운 방역대책이 시행되자 그동안 미뤄왔던 제주여행에 나선 것입니다.◀ＩＮＴ▶ 김광남 / 경기도 안양시 \"아무래도 조금은 잠잠해지고 국민들도 워낙 이런 방역에 익숙해져서 좀 더 홀가분 한 마음으로 왔습니다. 공기도 맑고 해서 즐기다 가려고 합니다.\" 코로나19로 단체관광이 중단되면서 사실상 개점휴업상태였던 제주지역 전세버스 예약율은 최근 40%까지 올랐습니다. 사회적 거리두기가 점차 완화되면서 지난달 제주를 찾은 관광객은 117만명으로 지난해 같은 기간보다 15% 늘었습니다. 관광업계는 연말 연시 특수를 기대하고 있습니다. ◀ＩＮＴ▶ 고수은 전세버스업체 대표 \"우리 전세버스 업체뿐만 아니라 여행사나 관광업계들이 연말에 특수를 노리는데 위드 코로나가 되면서 많은 손님들이 제주에 들어오지 않을까 생각합니다.\" 하지만, 중국인 관광객들이 많이 찾았던 제주시내 상점가는 여전히 한산합니다. 코로나19 발생 직후 중단됐던 국제선 항공편과 무사증 입국 제도가 재개되지 않고 있기 때문입니다. ◀ＩＮＴ▶ 신애복 누웨모르 상인회장 \"무사증으로 들어올 수 있어야만 외국인들이 들어올 것이기 때문에 상권을 살리기 위해서는 무사증이 빨리 풀려야된다고 저희는 생각하고 있습니다.\" 하지만, 제주도는 코로나19 상황을 지켜봐야 한다며 신중한 입장인데다 제주도민들 사이에서도 찬반이 엇갈리고 있어 외국인 관광객 회복은 시간이 걸릴 것으로 보입니다. MBC 뉴스 박주연입니다. 박주연 최신 뉴스 뉴스투데이2022년 10월 04일 08시 13분 24초 탐라문화제 3년 만에 대면행사...10월 6일~10일2022년 10월 04일 07시 20분 00초 동료 해녀 살린 제주의용소방대원 전국대회 1위2022년 10월 04일 07시 20분 00초 현병찬 선생 제41회 세종문화상 수상자 선정2022년 10월 04일 07시 20분 00초 국토부, JDC 정원 28명 감축 추진2022년 10월 04일 07시 20분 00초 오늘 낮까지 '가을비'‥내일부터 기온 내려가 선선2022년 10월 04일 07시 20분 00초TK신공항 밀어주는데.. 가덕도는 조용2022년 10월 04일 07시 20분 00초연중기획-주민들이 주인공으로 등장(리포트)2022년 10월 04일 07시 20분 00초'사상검증 논란' 4.3 수형인 68명 오늘 선고2022년 10월 04일 07시 20분 00초4.3길 사실상 방치?2022년 10월 04일 07시 20분 00초제주도 단체관광 특수 기대....외국인 관광객 회 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
-  </si>
-  <si>
-    <t>제주도 단체관광 특수 기대....외국인 관광객 회 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크제주도 단체관광 특수 기대....외국인 관광객 회 박주연2021년 11월 01일 00시 00분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 ◀ＡＮＣ▶ 위드 코로나와 함께 국내 최대 관광지인 제주 관광업계에서는 연말 연시 특수 기대감이 높습니다. 코로나 이전 제주에만 허용됐던 중국인들의 무사증 입국이 언제쯤 풀릴지도 관심거리인데 제주도는 아직까지 신중한 입장입니다. 박주연 기자입니다. ◀ＥＮＤ▶ ◀ＶＣＲ▶ 한라산 기슭, 편백나무가 우거진 자연휴양림입니다. 코로나19 여파로 한산했던 이 곳에 단체관광객들이 찾았습니다. 단계적 일상회복으로 새로운 방역대책이 시행되자 그동안 미뤄왔던 제주여행에 나선 것입니다. ◀ＩＮＴ▶ 김광남 / 경기도 안양시 \"아무래도 조금은 잠잠해지고 국민들도 워낙 이런 방역에 익숙해져서 좀 더 홀가분 한 마음으로 왔습니다. 공기도 맑고 해서 즐기다 가려고 합니다.\" 코로나19로 단체관광이 중단되면서 사실상 개점휴업상태였던 제주지역 전세버스 예약율은 최근 40%까지 올랐습니다. 사회적 거리두기가 점차 완화되면서 지난달 제주를 찾은 관광객은 117만명으로 지난해 같은 기간보다 15% 늘었습니다. 관광업계는 연말 연시 특수를 기대하고 있습니다. ◀ＩＮＴ▶ 고수은 전세버스업체 대표 \"우리 전세버스 업체뿐만 아니라 여행사나 관광업계들이 연말에 특수를 노리는데 위드 코로나가 되면서 많은 손님들이 제주에 들어오지 않을까 생각합니다.\" 하지만, 중국인 관광객들이 많이 찾았던 제주시내 상점가는 여전히 한산합니다. 코로나19 발생 직후 중단됐던 국제선 항공편과 무사증 입국 제도가 재개되지 않고 있기 때문입니다. ◀ＩＮＴ▶ 신애복 누웨모르 상인회장 \"무사증으로 들어올 수 있어야만 외국인들이 들어올 것이기 때문에 상권을 살리기 위해서는 무사증이 빨리 풀려야된다고 저희는 생각하고 있습니다.\" 하지만, 제주도는 코로나19 상황을 지켜봐야 한다며 신중한 입장인데다 제주도민들 사이에서도 찬반이 엇갈리고 있어 외국인 관광객 회복은 시간이 걸릴 것으로 보입니다. MBC 뉴스 박주연입니다. 박주연 최신 뉴스 뉴스투데이2022년 10월 04일 08시 13분 24초 탐라문화제 3년 만에 대면행사...10월 6일~10일2022년 10월 04일 07시 20분 00초 동료 해녀 살린 제주의용소방대원 전국대회 1위2022년 10월 04일 07시 20분 00초 현병찬 선생 제41회 세종문화상 수상자 선정2022년 10월 04일 07시 20분 00초 국토부, JDC 정원 28명 감축 추진2022년 10월 04일 07시 20분 00초 오늘 낮까지 '가을비'‥내일부터 기온 내려가 선선2022년 10월 04일 07시 20분 00초TK신공항 밀어주는데.. 가덕도는 조용2022년 10월 04일 07시 20분 00초연중기획-주민들이 주인공으로 등장(리포트)2022년 10월 04일 07시 20분 00초'사상검증 논란' 4.3 수형인 68명 오늘 선고2022년 10월 04일 07시 20분 00초4.3길 사실상 방치?2022년 10월 04일 07시 20분 00초제주도 단체관광 특수 기대....외국인 관광객 회 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
-  </si>
-  <si>
-    <t>제주도의회 문화관광체육위원회, 문화예술 시설 현장 방문 주메뉴 바로가기 본문 바로가기 2022.10.04 (화) 카카오채널 RSS 모바일보기 흐림서울 17.1℃ 구름많음제주 23.9℃ 구름많음고산 22.4℃ 구름많음성산 23.1℃ 흐림서귀포 24.9℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도의회 문화관광체육위원회, 문화예술 시설 현장 방문 서유주 기자 news@jejutwn.com 등록 2021.11.01 10:47:02 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제주문학관 및 제주도립미술관 현장방문 [제주교통복지신문 서유주 기자] 제주도의회 문화관광체육위원회는 제399회 임시회 기간 중에 제주문학관과 제주도립미술관을 현장방문하여 의견을 청취하는 등 의정활동을 펼쳤다. 제주문학관은 제주문학인들의 오랫동안 염원했던 숙원사업으로 제주시 도남동 일원에 97억원의 사업비를 투입하여 조성됐으며, 지난 10월 23일에 개관됐다. 한편, 제주도립미술관에서 현재 진행중인 『프로젝트 제주』사업은 코로나 장기화 및 제2회 비엔날레 취소 등에 따라 침체된 지역 문화예술 활성화 및 지역작가의 창작 활동을 활발하게 이끌어 내기 위한 것으로 13명(팀)이 참여하여 미디어 아트 및 설치 작품을 전시하고 있으며, 10월 12일부터 내년 1월 9일까지 행사가 진행된다. 문화관광체육위원회 안창남 위원장은 “제주문학관이 제주문학사를 정립하고, 제주 문학발전에 이바지하기 위해 설립된 만큼 제대로 운영되기 위해서는 상근 관장제 도입 및 문학전공 학예연구사 배치 등 조직운영에 고심을 해야 할 것이다”라고 말했다. 또한 “장기화된 코로나 팬데믹 상황에서 도민들에게 희망을 주고 위안을 줄 수 있는 것은 문화예술이라고 강조하며, 제주문학관과 제주도립미술관이 제주문화예술의 구심점이 되어 제주 작가들이 많은 활동을 할 수 있도록 창작의욕을 고취하고 성장할 수 있도록 체계적이고 발전적인 운영계획을 마련하여 지역 문화예술을 활성화 해나가야 할 것이다” 라고 거듭 강조했다. 서유주 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 [TW포토] 제주관광대 탐모라볼빛축제…장덕철 열창 4 3년 만에 개최되는 제3회 서귀포 은갈치 축제 9월 30일 개최 5 제주시, 10월 시정시책공유 간부회의 개최 6 2022 청춘마이크 제주 뮤직 페스티발 9월 30일 개최 7 [TW포토] 제주관광대 탐모라볼빛축제 성황리에 열려 8 서귀포시 서부보건소, 제주도 최초 선정 '생애 초기 건강관리사업' 운영 9 서귀포시, 민원업무 담당자 직무교육 실시 10 서귀포시, 美 풀러턴(Fullerton)市와 함께한‘창업 및 수출지원 세미나’성료 실시간 뉴스 2022-10-04_TUE [TW포토] 제주 한라산 일출 풍경, '핑크빛 하늘' 06:40 제주 오션갤러리, 시행사 보유분 특별분양 03:58 2022-10-03_MON 제주도, 김희현 정무부지사, 국학기공대회 참석 격려 16:39 제주도, 무오법정사 항일항쟁 104주년…“숭고한 정신 이어 새로운 미래 준비” 16:38 제주도의회 김황국 의원, 스포츠관광 정책 발전 기여 공로상 수상 16:31 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 04일 11시 19분 최상단으로</t>
-  </si>
-  <si>
-    <t>제주도, 관광지 택시 불법행위 집중단속 서울경제 서울경제TV SEN Plus 한국일보 리드온 회원가입 로그인 뉴스 뉴스홈 증권 금융 부동산 산업·IT 경제 전국 오피니언 탐사 핫이슈 키워드 톰슨로이터 프로그램 프로그램 핫클립 SEN이슈 SEN이슈 홈 비즈니스 글로벌 이슈&amp;피플 라이프 라이프 홈 S경제 S문화 S생활 카드PICK 카드PICK 커뮤니티 커뮤니티 개국포럼 금융자산포럼 채널가이드 편성표 안내 채널번호 안내 뉴미디어 시청안내 큐톤표 (생) 오! 지금 이 종목오전 11:00 - 오후 12:00 (재) 건강 정보통 &lt;재&gt;오후 12:00 - 오후 01:00 사이트맵 사이트맵 닫기 검색 뉴스 뉴스홈 증권 금융 부동산 산업·IT 경제 전국 오피니언 탐사 핫이슈 키워드 톰슨로이터 프로그램 프로그램 핫클립 SEN이슈 SEN이슈 홈 비즈니스 글로벌 이슈&amp;피플 라이프 라이프 홈 S경제 S문화 S생활 카드PICK 카드PICK 커뮤니티 커뮤니티 개국포럼 금융자산포럼 채널가이드 편성표 안내 채널번호 안내 뉴미디어 시청안내 큐톤표 IR클럽 ON AIR 통합 검색 검색 PLUS 바로가기 제주도, 관광지 택시 불법행위 집중단속 전국 입력 2021-11-11 08:12:18 금용훈 기자 0개 가 가 가 가 올해 말까지 '주요 관광지 중심' 집중 단속 제주공항의 택시승강장[사진=금용훈기자] [제주=금용훈 기자] 최근 위드 코로나의 단계적 회복으로 제주 관광객이 급증함에 따라 제주특별자치도는 한라산국립공원 등 주요 관광지 일대에서 택시 불법 영업행위를 집중 단속하고 있다. 주요 단속지역은 영실, 관음사, 성판악, 어리목, 마방목지 등 한라산 등반로 주차장 및 제주항, 성산포항 여객터미널 등이다. 2인1조로 구성된 점검반은 올해 말까지 미터기 미사용, 부당요금 요구행위, 운전업무 종사자격 증명 미게시, 승차 거부 또는 합승행위 등을 중점적으로 점검한다. 제주도는 단속에 적발된 택시 운송사업자에 대해서는 지방보조금 지급 제한을 검토하고, 과태료 부과 등 행정처분 조치를 이행할 방침이다. 과태료는 여객자동차 운수사업법 및 택시운송사업의 발전에 관한 법률에 따라 위반행위 및 횟수에 따라 10만 원에서 20만 원까지 부과된다. 김재철 도 교통항공국장은 '일상회복에 대한 기대감으로 야외활동이 증가하는 시기인 만큼 택시 불법 영업행위를 집중 단속해 여행객의 교통 불편을 적극적으로 해결해나가겠다'고 말했다. /jb007@sedaily.com [ⓒ 서울경제TV(www.sentv.co.kr), 무단 전재 및 재배포 금지] #Tag #제주 #제주도 #제주시 #위드 코로나 #한라산국립공원 #합승행위 #불법 영업행위 #서귀포시 가 가 가 가 관련뉴스 정일영 의원 "한전, 제주 노른자위 부동산 헐값 매각…10억 손실" 음주운전·동료 폭행·음란 메시지…잇단 비위에 휩싸인 제주해경 제주 모 중학교 교사, 인사 안한다며 손·발로 학생 복부 폭행 현대차, 수소차 보급으로 제주 그린수소 글로벌 허브 구축 두산에너빌리티, 제주대에 풍력 연구 기자재 기증 제주해경청, 소중한 생명 구한 레스큐아너 대상자 선정 서울경제TV 카카오톡 페이스북 네이버 원하시는 소셜 계정으로 로그인 한 후 의견을 작성해 주세요. 0/250 등록 주요뉴스 증권 산업·IT 부동산 금융 수젠텍, 2022 한국전자전 이노베이션 어워드 수상 와이즈에이아이, LG전자 '안내로봇'에 AI 기반 콘텐츠 공급 한화투자證, ‘금융상식 테스트’ 이벤트 실시 스튜디오산타클로스, 부당이득금 반환금 53억 승소 신한투자증권, 10월 신입사원 채용설명회 개최 태동하는 중앙아시아 신재생에너지 시장…코트라 “지금이 협력방안 모색할 때” 컬리, ‘면 요리 전성시대’ 기획전 진행…“맛집들 면 요리 제품 선별” 구광모 LG 회장, 폴란드 총리 만나 '부산엑스포' 지지 요청 SKT, 컬쳐브랜드 '0' 대상 고객 확대…MZ세대 공략 SPC그룹, 프랑스에 파리바게뜨 3개점 잇따라 열어…“현지 시장 공략” ‘시화 MTV 디아티크’ 오피스텔, 이달 분양 예정 DL건설, 'e편한세상 사천 스카이마리나' 1순위 청약접수 진행 알스퀘어, 국내외 아시아 상업용 부동산 30만곳 정보 수집 대우건설·중흥그룹, 독립유공자 후손 노후주택 개선 사회공헌활동 진행 [SEN부동산 캘린더] 10월 1주차 신규 단지 공급 일정 [인사] ABL생명 ‘금융사고예방 직접 챙기기’ 나선 권준학 NH농협은행장 카카오뱅크 중신용대출 금리 최대 0.50%p 인하 KB국민카드 태국 현지 법인, 삼성전자 파이낸스 플러스 서비스 런칭 하나손해보험, 서울시와 ‘ESG모빌리티를 활용한 에코플러스 지원사업’ 업무협약 주간 TOP뉴스 1르노코리아, 10월 신차 구매 시 특별 할인 혜택 지원 2현대모비스, 차량용 5G 모듈 자체개발…미래 모빌리티 공략 본격화 3와이즈에이아이, LG전자 '안내로봇'에 AI 기반 콘텐츠 공급 4뉴욕증시, 국채금리 안정세에 일제히 급등…나스닥 2.27%↑ 5[SEN투자전략]코스피, 반발 매수 유입…"수출 호조 자동차株 주목" 6포커스미디어, 스타트업 육성 프로그램 '아윌비빽' 모집 7현대차그룹, 중남미·유럽 5개국 대상 부산세계박람회 유치활동 8대우건설·중흥그룹, 독립유공자 후손 노후주택 개선 사회공헌활동 진행 9알스퀘어, 국내외 아시아 상업용 부동산 30만곳 정보 수집 10컬리, ‘면 요리 전성시대’ 기획전 진행…“맛집들 면 요리 제품 선별” 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 더보기 핫클립 최신 인기 #업싸부, #시황브리핑! 대형주 주가 확인! 시장 반등세?!│#단타, #아프리카TV, #매매전략 순간포착 매매 시그널 2022-10-04 (화) 방송 오늘의 공시 분석! #카카오, #세종메디칼│공시분석, 매매전략 GO!수익 작전타임 2022-10-04 (화) 방송 시황브리핑! #5G 섹터에 주목 #오이솔루션│#매매전략, #종목추천 GO!수익 작전타임 2022-10-04 (화) 방송 장인·명장이 ‘인간도서관’…“소상공인에 기술 전수” SEN 경제라이브 2022-10-04 (화) 방송 지수상승하면 우량주, 혼조세면 개별주, 하락하면 관망 평택촌놈의 정석투자 2019-03-26 (화) 방송 메타버스와 교육이 합쳐진다? 웅진씽크빅 지금이 매수 타이밍!│ 매매전력(웅진씽크빅,교육주,윤석열관련주) 마감임박! 60분의 승부 2021-11-12 (금) 방송 [내일의 BOOM] 탄소감축 = 원전? 달리는 말 '세보엠이씨' 탑승 전략은? │ 매매전략 (세보엠이씨,원전주,종가베팅) 오늘장 내일장 2021-11-12 (금) 방송 2월 25일이 반등 고점은 확실, 이제는 하락 속도의 문제 평택촌놈의 정석투자 2019-03-26 (화) 방송 이 시각 이후 방송 12:00 건강 정보통 &lt;재&gt; 재방송 SEN PD SEN MC 13:00 부동산 올인원 생방송 정지윤 PD 최슬기 MC 14:00 오늘장 내일장 생방송 성예경 PD 권민정 MC 15:00 마감임박! 60분의 승부 생방송 성예경 PD 최슬기 MC 16:00 주식 구조대 생방송 박솔아 PD 김혜연 MC 더보기 오늘의 날씨 2022-10-05(수) 03:00 비/눈 마포구 상암동19.0℃ 강수확률 60% 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 신규 프로그램(해외선물의 신 시즌3) 런칭!! 신규 프로그램(윤태진의 허니투데이) 런칭!! 신규 프로그램(민박사의 주식 훈민정음) 런칭!! 회사소개 개인보호정책 광고 및 제휴 안내 기사 구매 안내 고객센터 IR클럽 서울특별시 마포구 월드컵북로 400 서울산업진흥원 3, 4, 8, 9층 SEN 서울경제TV 서울특별시 종로구 율곡로 6, 트윈트리빌딩 비동 16층(중학동) 제호 : SEN서울경제TV 등록번호 : 서울, 아52887 등록일 : 2020년 02월 19일 발행인 및 편집인 : 이상석 고객센터 : 1577-7451 사업자등록번호 : 107-81-84028 통신판매업신고번호 : 제 2018-서울종로-0855호 대표자 성명 : 이상석 Copyright 2012 ⓒ ㈜서울경제티브이 Corp. All Rights Reserved. 서울경제TV SEN ON AIR 편성표 VOD 소개 프로그램 정보 VOD 더보기 온에어 팝업창 닫기 온에어 팝업창 넓게 펼치기 접기 서울경제TV 카카오톡 페이스북 네이버 원하시는 소셜 계정으로 로그인 한 후 의견을 작성해 주세요. 0/250 등록 주요뉴스 증권 산업·IT 부동산 금융 수젠텍, 2022 한국전자전 이노베이션 어워드 수상 와이즈에이아이, LG전자 '안내로봇'에 AI 기반 콘텐츠 공급 한화투자證, ‘금융상식 테스트’ 이벤트 실시 스튜디오산타클로스, 부당이득금 반환금 53억 승소 신한투자증권, 10월 신입사원 채용설명회 개최 태동하는 중앙아시아 신재생에너지 시장…코트라 “지금이 협력방안 모색할 때” 컬리, ‘면 요리 전성시대’ 기획전 진행…“맛집들 면 요리 제품 선별” 구광모 LG 회장, 폴란드 총리 만나 '부산엑스포' 지지 요청 SKT, 컬쳐브랜드 '0' 대상 고객 확대…MZ세대 공략 SPC그룹, 프랑스에 파리바게뜨 3개점 잇따라 열어…“현지 시장 공략” ‘시화 MTV 디아티크’ 오피스텔, 이달 분양 예정 DL건설, 'e편한세상 사천 스카이마리나' 1순위 청약접수 진행 알스퀘어, 국내외 아시아 상업용 부동산 30만곳 정보 수집 대우건설·중흥그룹, 독립유공자 후손 노후주택 개선 사회공헌활동 진행 [SEN부동산 캘린더] 10월 1주차 신규 단지 공급 일정 [인사] ABL생명 ‘금융사고예방 직접 챙기기’ 나선 권준학 NH농협은행장 카카오뱅크 중신용대출 금리 최대 0.50%p 인하 KB국민카드 태국 현지 법인, 삼성전자 파이낸스 플러스 서비스 런칭 하나손해보험, 서울시와 ‘ESG모빌리티를 활용한 에코플러스 지원사업’ 업무협약 주간 TOP뉴스 1르노코리아, 10월 신차 구매 시 특별 할인 혜택 지원 2현대모비스, 차량용 5G 모듈 자체개발…미래 모빌리티 공략 본격화 3와이즈에이아이, LG전자 '안내로봇'에 AI 기반 콘텐츠 공급 4뉴욕증시, 국채금리 안정세에 일제히 급등…나스닥 2.27%↑ 5[SEN투자전략]코스피, 반발 매수 유입…"수출 호조 자동차株 주목" 6현대차그룹, 중남미·유럽 5개국 대상 부산세계박람회 유치활동 7포커스미디어, 스타트업 육성 프로그램 '아윌비빽' 모집 8대우건설·중흥그룹, 독립유공자 후손 노후주택 개선 사회공헌활동 진행 9알스퀘어, 국내외 아시아 상업용 부동산 30만곳 정보 수집 10컬리, ‘면 요리 전성시대’ 기획전 진행…“맛집들 면 요리 제품 선별” 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 더보기 핫클립 최신 인기 #업싸부, #시황브리핑! 대형주 주가 확인! 시장 반등세?!│#단타, #아프리카TV, #매매전략 순간포착 매매 시그널 2022-10-04 (화) 방송 오늘의 공시 분석! #카카오, #세종메디칼│공시분석, 매매전략 GO!수익 작전타임 2022-10-04 (화) 방송 시황브리핑! #5G 섹터에 주목 #오이솔루션│#매매전략, #종목추천 GO!수익 작전타임 2022-10-04 (화) 방송 장인·명장이 ‘인간도서관’…“소상공인에 기술 전수” SEN 경제라이브 2022-10-04 (화) 방송 지수상승하면 우량주, 혼조세면 개별주, 하락하면 관망 평택촌놈의 정석투자 2019-03-26 (화) 방송 메타버스와 교육이 합쳐진다? 웅진씽크빅 지금이 매수 타이밍!│ 매매전력(웅진씽크빅,교육주,윤석열관련주) 마감임박! 60분의 승부 2021-11-12 (금) 방송 [내일의 BOOM] 탄소감축 = 원전? 달리는 말 '세보엠이씨' 탑승 전략은? │ 매매전략 (세보엠이씨,원전주,종가베팅) 오늘장 내일장 2021-11-12 (금) 방송 2월 25일이 반등 고점은 확실, 이제는 하락 속도의 문제 평택촌놈의 정석투자 2019-03-26 (화) 방송 이 시각 이후 방송 12:00 건강 정보통 &lt;재&gt; 재방송 SEN PD SEN MC 13:00 부동산 올인원 생방송 정지윤 PD 최슬기 MC 14:00 오늘장 내일장 생방송 성예경 PD 권민정 MC 15:00 마감임박! 60분의 승부 생방송 성예경 PD 최슬기 MC 16:00 주식 구조대 생방송 박솔아 PD 김혜연 MC 더보기 오늘의 날씨 2022-10-05(수) 03:00 비/눈 마포구 상암동19.0℃ 강수확률 60% 주가와 시세 전일 종가 기준 톰슨로이터(Refinitiv) 해외 주가지수 국제 외환시세 국제 원자재시세 국제 금리시세 종목 가격 전일대비 DOW 25,798.42 352.40 S&amp;P 500 2,809.91 102.00 Nasdaq 7,655.48 99.00 Nikkei 22,841.12 33.00 HIS 25,462.33 33.12 종목 가격 전일대비 USD/KRW 1,115.00 5.40 USD/JPY 112.25 3.40 EUR/USD 1.1532 0.0042 GBP/USD 1.3110 0.0034 USD/CNY 6.9234 0.0119 종목 가격 전일대비 금 (Gold) 1,227.3 3.33 은 (Silver) 14.33 1.22 동 (Copper) 2.7735 0.003 원유 (WTI) 71.25 1.23 원유 (Brent) 80.94 1.23 원유 (Dubai) 70.33 1.23 종목 가격 전일대비 3개월 USD Libor 2.44456 3개월 EURIBOR 0.318 3개월 JPY Libor 0.08350 3개월 GBP Libor 0.08350</t>
+    <t>제주도 쇠소깍 산물 관광농원 그곳에 가면... - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 14:58 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도 쇠소깍 산물 관광농원 그곳에 가면... 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 종합 제주도 쇠소깍 산물 관광농원 그곳에 가면... 강진교기자 승인 2021.11.30 14:13 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × 세상에 없던 박물관 모루 박물관 모루는 무엇일까? 모루는 금속을 망치로 두둘겨 단조할 때 밑에 받치는 기구로 대장간에서 빠질 수 없는 물건입니다. 쇠소깍 산물 관광농원에는 조선시대 전통 모루부터 1800년대 제작된 무게 500KG짜리 독일 모루까지 전 세계 각자의 모루가 한 곳에 전시되어 있다. 반짝반짝 특별한 빈티지 박물관 한라봉과 빈티지가 만났을 때 지금 떠나볼까요? Tag #제주도 #쇠소깍산물관광농원 #제주도가볼만한곳 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 강진교기자 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 동광초, 초록활동 전시회 열어 제천 송학중 충북 최초 스크린 골프 연습실 설치 제천교육지원청 ‘신규 및 저경력 지방공무원 직무연수 실시’ 2022. 제천시학교학부모연합회 난치병어린이돕기사랑의 바자회 백운초, 작은학교 활성화를 위한 학교장배 골프대회 개최 영동 상촌초, ‘우유팩을 부탁해!’자원순환활동 프로그램 운영 영동교육지원청-학교와의 소통을 통한 맞춤형 지원 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>중도일보 - (사)대한캠핑장협회, "캠핑관광, 제주도를 시작으로 전국을 선도한다" (사)대한캠핑장협회, "캠핑관광, 제주도를 시작으로 전국을 선도한다" //=$stickSnsGg?&gt; 최종 편집일 : 2022-10-11 홈 기획연재 중도TV 정치행정 경제과학 사회교육 문화 오피니언 스포츠 전국 비주얼 사람들 대학입시 로그인 회원가입 뉴스 전체기사 기획/연재 운세 기획/연재 더보기 스토리가 있는 대전·충남 대학 공간 대전의 아름다운 건축물 얼마나 아니? 대전 Y-zone 프로젝트 여기 찜했슈 대전 더하기 뉴스바나나 거기 그곳 [유난한 식탁] 저는 채식주의자입니다 REE-PORT:친환경 보고서 트렌드일기: MZ읽기 골목시장을 걷다 문화 in, 문화 人 2022 리포트 충청지대 뉴스포커스 여론을 리서치하다 중도초대석 검색에 없는 대전·충남 파워 충청, 판을 바꾸자 도시재생 리포트 2021 지속가능한 문화도시 프로젝트 세종에 살어리랏다 [오류동사진관]다시 보는 충청의 역사 미제사건, 그날의 기억속으로 데이터 in 충청 기획 신천식의 이슈토론 창간70주년 기획 판소리의 원류는 충청도다 운세 오늘의 운세 오늘의 별자리 생년월일 운세 중도TV 전체기사 기획 시·도정소식 현장리포트 신천식의 이슈토론 박하림의 골프스튜디오 골린이 100일만에 필드보내기 정치/행정 6·1 지방선거 대전 충남/내포 지방의회 국회/정당 국정/외교 세종 썰: 솔깃한 이야기 2022 대선 대전의 2030 선대위 누가 있나 경제/과학 더보기 지역경제 건설/부동산 금융/증권 유통/쇼핑 기업/CEO 자동차 취업/창업 대전정부청사 대덕특구 공사·공단 IT/과학 아파트Info 로또 4차 산업 사회/교육 사건/사고 법원/검찰 교육/시험 노동/노사 환경/교통 미담 날씨 국방/안보 이슈&amp;화제 건강/의료 문화 더보기 공연/전시 영화/비디오 문화/출판 여성/생활 건강/의료 여행/축제 문화 일반 사람들 인터뷰 새인물 인사 동정 알림 부고 뉴스 社告 결혼 내방 다문화 신문 사회복지신문 실버라이프 바로잡습니다 오피니언 더보기 사설 독자 칼럼 독자위원회 &amp; 독자위원 칼럼 사외칼럼 세상읽기 여론광장 교단만필 시사오디세이 세상보기 세상속으로 춘하추동 오늘과내일 풍경소리 프리즘 중도시평 편집국에서 염홍철의 아침단상 우난순의 식탐 사이언스칼럼 월요논단 전문인칼럼 목요광장 홍석환의 3분 경영 문화人 칼럼 김선생의 시네레터 D-MZ:청년칼럼 홍키호테 세창밀시 문예공론 장상현의 재미있는 고사성어 알기쉬운 금융상식 문학박사 김우영의 문화산책 스포츠 더보기 한화이글스 축구 농구 배구 골프 생활체육 야구종합/메이저리그 스포츠종합 엘리트체육 대전하나시티즌 바둑 드림인대전 전국 더보기 수도권 부산/영남 충북 광주/호남 강원 천안시 아산시 공주시 보령시 서산시 당진시 논산시 계룡시 금산군 부여군 서천군 청양군 홍성군 예산군 태안군 비주얼 카드뉴스 포토 인포그래픽 대학입시 정시 수시 전국 수도권 (사)대한캠핑장협회, "캠핑관광, 제주도를 시작으로 전국을 선도한다" 승인 2021-11-29 08:50 노춘호 기자 (사)대한캠핑장협회 김광희 회장사단법인 대한캠핑장협회(회장 김광희)와 국회의원 송재호 의원이 공동 주최하고 주관한 '국민캠핑관광 &amp; K-camping wave' 행사가 지난 26일 오후5시 제주 호텔스카이파크에서 개최됐다. 현재 캠핑관광은 코로나19로 고통 받는 국민의 여행욕구를 안전을 고려하면서도 저비용으로 즐길 수 있어 국민적 여가문화로 정착하게 됐다. 이와 관련해 협회는 이번 행사를 통해 캠핑관광이 '국민캠핑관광'으로 확산 돼 건전한 여가관광으로 뿌리 내릴 수 있도록 하며, 캠핑관광산업을 한 단계 발전시키고자 개최했다. 김광희 대한캠핑장협회 회장은 개회사에서 "이번 행사를 시작으로 제주도에서 캠핑관광이 활성화돼 전국적으로 확산되기를 바라며, 캠핑관광이 관광산업의 한 축이 될 수 있다는 자신감을 얻게 되었다. 향후에도 캠핑이용자들 뿐 아니라 아직 이용하지 않는 국민들도 캠핑관광을 4차 산업을 접목시킨 새로운 관광 형태로 안전하게 즐길 수 있는 놀이문화로 정착 될 수 있도록 최선을 다 하겠다"고 말했다.이날 행사에는 김 회장을 비롯해 송 의원, 제주특별자치도관광협회 부동석 협회장, 제주도 야영장 대표, 캠핑 관련 관계자 등 많은 사람들이 참석해 성황을 이뤘다.하비비커뮤니케이션 강동구 대표,김광희 회장,하이어플레이스 안중화 대표(순서대로)행사 1부에서는 협회와 캠핑플랫폼 기업 공동 협약식이 있었다. 협회와 '땡큐캠핑'플랫폼 운영사인 주식회사 하비비커뮤니케이션(대표 강동구) 그리고 캠핑플랫폼 스타트업인 주식회사 하이어플레이스(대표 안중화)가 600만 캠퍼가 좀 더 편리하고 안전한 캠핑을 즐길 수 있는 생태계를 만들고자 협약식을 갖게 됐다. 하비비커뮤니케이션의 '땡큐캠핑' 플랫폼은 현재 전국에 야영장 500여 개소와 양질의 컨텐츠를 100만여 회원 캠퍼들에게 제공하고 있는 한국 최대 플랫폼 회사다. 하이어플레이스의 'STAY.G(스테이지)'플랫폼은 캠퍼들에게 전국 야영장 관내를 드론영상과 VR파노라마 이미지를 제공 야영장 주변을 생생하게 투어하고 예약할 수 있도록 지원하고 있으며, 내년 1월 베타서비스를 계획하고 있다. 2부에서는 협회의 제주특별자치도지부(지부장 이준) 개소식과 제주특별자치도의 캠핑관광 활성화를 위한 관내 44개소 야영장과 뜻을 함께하는 시간을 가졌다.송재호 국회의원이어진 축사에서는 송 의원(더불어민주당, 제주시 갑)이 "오늘 대한캠핑장협회 제주도지부 사무소가 개소 된 것을 진심으로 축하한다"며 "제주도는 천혜의 자연환경을 갖고 있는 유네스코 4관왕에 빛나는 명실상부한 한국을 대표하는 관광지다. 협회의 첫 지역사무소가 제주도에 설립된 것은 매우 의미가 크다고 생각한다. 그동안 제주 지부 설립을 위해 애써 주신 협회 임원들을 비롯해 관계자 여러분의 노고에 깊은 감사를 드린다"라고 말했다. 이어 송 의원은 "코로나 19의 여파로 관광산업 전반이 위축됐으나, 캠핑산업은 꾸준한 성장세를 이어 왔다. 캠핑산업의 규모가 4조 원을 넘어섰다는 분석이 있으며, 연간 캠핑 이용자 수가 400만을 넘기며 캠핑 인구의 저변 확대가 이어지고 있고 이제 캠핑은 국민의 대표적인 여가문화 중 하나로 자리매김했다. 제주도는 가족 단위로 놀러와 자동차에 텐트를 싣고 다니며 마음에 드는 곳에서 하룻밤 지새는 야영문화인 '오토캠핑'이 발달하고 있는데, 다양한 형태의 캠핑을 현재 법의 안전망 내에 다 포함 시키고 있지 못하는 실정이다. 따라서 이번 대한캠핑장협회 제주사무소가 개소하며 제주도에 건전한 캠핑문화가 자리 잡을 수 있는데 도움을 주실 것으로 기대하며, 제주도의 캠핑과 관련된 다양한 현안들을 잘 종합해 한국의 캠핑문화 발전을 선도할 것으로 기대한다"라며 "저도 제주도 출신 국회의원으로서 캠핑 이용객들이 안전하게 캠핑을 하실 수 있는 환경을 만들고, 나아가 제주의 특수성에 기반한 제주만의 캠핑 인프라 구축을 위해 대한캠핑장협회와 고민할 것이며, 필요하다면 입법과 정책 개발에도 적극적으로 나서겠다. 다시 한 번 대한캠핑장협회의 제주사무소 개소를 축하하며, 여러분의 건강과 행복을 기원한다"라고 밝혔다.또 제주특별자치도관광협회 부동석 협회장은 축사에서 "캠핑과 관광이 연계 될 수 있다는 것에 놀랐다. 캠핑사들과 관광분야가 연합하면 서로 윈-윈 할 수 있다고 본다. 캠핑이 이제 관광의 한 영역으로 자림매기 하기를 기원 한다"고 말했다. 3부에서는 동서울대학교 홍규선 교수가 '국내 K-Camping Wave 확산과 제주시 캠핑장 활성화"라는 주제를 가지고 현재 제주캠핑의 문제점과 대안을 제시했다.대한캠핑장협회 강명훈 사무총장은 "이번 행사를 기점으로 전국적으로 '국민캠핑관광 &amp; K-camping wave' 확대를 위해 전국 시·도지부를 개소해 나가겠다"고 밝혔다.중도일보=노춘호 기자 vanish1197@ 중도일보(www.joongdo.co.kr), 무단전재 및 수집, 재배포 금지 기자의 다른기사 보기 랭킹뉴스 한국농수산식품유통공사, 이해충돌방지 자문위원 위촉 [정치펀치]상병헌 세종시의장, 성추행 논란 확산 양상 부원건설, 대전 최초 '트리쉐이드' 브랜드아파트 공급 2022 개정 교육과정 놓고 커지는 교육계 갈등 지역대학생에게 직무 체험 제공하는 '청년 뉴리더 양성사업' 축소 여부 촉각 꺾이지 않는 소비자물가 상승률... 한은, 12일 빅스텝 밟을까 골프존, 12일 '신한투자증권 KPGA 코리안투어 2차대회' 개최 [정치펀치] 세종시의회 민주당, 10일 오후 내내 어수선 [장상현의 재미있는 고사성어] 제140강 타초경사(打草驚蛇) 벌써 22대 총선 전초전?… "대전 동구·중구 경쟁 뜨겁다?" 헤드라인 뉴스 우주산업 클러스터 3각체제 추진에 대전시 "환영" 과학기술정보통신부 우주개발진흥실무위원회가 우주산업 클러스터 3각 체제 추진안을 의결하고 연구·인재개발 분야 특화지구를 발표했다. 특화지구 지역은 11월 발표될 예정이지만, 대전시는 우선 환영의 뜻을 밝혔다. 우주 관련 연구 및 인재개발 인프라를 보유하고 있는 만큼 향후 특화지구 지정에 한 발 다가섰다는 입장이다. 우주산업 클러스터 3각 체제는 경남 사천, 전남 고흥과 함께 앞으로 정부의 민간주도 우주산업 육성을 위한 전초기지가 될 예정이다. 과기부는 추가된 연구·인재개발 특화지구는 기존 발사체·위성 특화지구와 차별화된 미래 신산업.. #생물안전 #공용연구시설 #병원제자원 대전에 '생물안전 3등급' 고위험 병원체자원 공용연구시설 생겼다 충남대학교병원(원장 윤환중)은 10월 7일 의생명융합센터에서 '고위험 병원체자원 BL3 공용연구시설' 준공식을 가졌다. &lt;사진&gt; 고위험 병원체자원 공용연구시설은 신종 감염병에 대한 분석과 진단·연구를 공동으로 진행, 기업지원체계를 구축하는 것이 골자다. 이에 따라 대전지역 내 감염병 관련 신약개발연구가 활성화될 것으로 기대된다. 이날 준공식에는 대전시 이석봉 과학부시장을 비롯해 대전시의회 송활섭 운영위원장·박주화 교육위원장, 임헌문 대전테크노파크 원장, 충남대학교병원 윤환중 원장, 대전을지대학교병원 이승훈 의생명과학연구원장, 건양대.. #지역화폐 #온통대전 #캐시백 캐시백 줄어들자 사용자 이탈? "유지냐 폐지냐" 10월 온통대전 운명 결정된다 유지 또는 폐지 갈림길에 선 대전시 지역화폐 온통대전의 운명이 이달 결정된다. 올 연말까지는 추경 예산 투입으로 월 30만 원, 5% 캐시백은 유지되겠지만, 정부 지원 예산이 중단되는 2023년 정책 방향을 결정해야 할 시점이기 때문이다. 폐지를 속단하긴 이르지만 현재까지 관측된 바로는 온통대전 앞날은 '흐림'이다. 이장우 대전시장은 당선 이후 줄곧 소비의 불공정 언급하며 부정적 의견을 피력해 유지 가능성은 낮아 보인다. 문제는 소상공인(자영업자)과 시민 만족도가 높은 정책이다 보니 일방적인 폐지는 시정 지속성을 잃어버린 '주민참여.. 더불어민주당 대전시당 "온통대전 전체업종 매출 증가 긍정적" 실시간 뉴스 12분전생활임금제 시행 중인 대전 유성구, 내년도 1만900원으로 인상 31분전대전시설관리공단 육상팀 소속 한두현 선수 전국체육대회 일반부 금메달 44분전최민호 세종의사당 국회규칙 KTX세종역 본격 여론전 1시간전남상선 네번째 수필집 '감사와 사랑이 우리의 삶이 되게 하소서' 출간 2시간전한국수자원공사, 건강한 친환경 수돗물 홍보 캠페인 2시간전김영환 도지사 증평서 도민과의 대화 3시간전논산시, 백제병원과 24시간 임산부·영유아 응급의료협약 3시간전금산소방서, 소방안전체험장 운영 성공적 마무리 3시간전평생학습도시 재지정평가 금산군 우수 도시 선정 3시간전제40회 금산인삼축제 10일 피날레…역대 최대 103만 명 운집 3시간전옥천 ㈜더조은숲, 취약계층에 연탄 2000장 나눔 3시간전예산군, 제33회 추사 김정희 선생 추모 전국휘호대회 성료 3시간전예산군, 예산장터 삼국축제에서 나무 나눠주기 행사 추진 3시간전예산 삽교중에서 등굣길 폭력예방 캠페인 펼쳐 3시간전공주교육지원청, 보건·흡연예방 교육 연구회 ? 흡연예방 거리 캠페인 실시 전체기사보기아이콘 기획시리즈 판소리의 원류는 충청도다 검색에 없는 대전충남史 중도초대석 Biz &amp; Money 휴먼스토리 드림인대전 대전시티즌 한화이글스 문화이슈 '톡톡' 이성희의 카메라 지난 기획시리즈 정치 [캠페인] 코로나19 극복 응원메시지 충청 총선 2020 총선열전 정치이슈 2017 19대 대통령선거 [19대] 대선주자 SNS 과학벨트 [19대] 대선주자 UCC 6·4 지방선거 제 18대 대통령선거 4·11 총선 후보자 동영상 미리보는 대전 시의회 2010 6·2 전국동시지방선거 2010 6·2 지방선거 출마의변 선택 6·2 지선 여론조사 김대중기자의 정치읽기 총선 당선자에게 듣는다 선택 4.9총선 총선주자 토크토크 선택 2007 大選 4.25 재보선 2차 남북정상회담 5·31 지방선거 6·5 재보선 4·15 총선 경제 생활의 지혜 신상품 [캠페인] 노벨상 응원메세지 빅데이터로 보는 상권분석 물가동향 장바구니 물가 인포그래픽으로 보는 세상 이코노미 줌 In 이경태기자의 부동산Q 세입자라면 꼭 알아두자 오늘의 대전 소셜커머스 알기쉬운 세무상식 주간증시전망 사회 대전 착한 SNS 릴레이 NGO 충남학교신문 미래 핵심역량의 시대 해군 천안함 침몰 北 연평도 포격 4.29 도교육감 선거 12.17 시교육감 선거 당직병원안내 6.25 도교육감 선거 문화 힐링 사자성어는 삶의 이음매 맛있는 주말 우리말OX 펫 book 뉴스 스나이퍼 거기 그곳 알쓸신조 관상톡 실전육아 톡톡톡 슬기로운 육아생활 일반 뉴스 대중음악 오복만땅 만약에 시사용어 이정은 기자의 원룸냥이 게임/웹툰 중국어교실 가요는 삶의 축 아침 山詩 일상탈출 우리동호회 백영주의 명화살롱 인생 사자성어 도시락(樂) 우난순의 필톡 우리문화를 아시나요 연예인실록 오완영시인의 時想 시경 주대환 교수의 생생 생활영어 금주의 핫클릭 5 궁금어사전 뜬금톡 이재복 박사의 한자세상 대한人 송교수의 우리말 이야기 뜬금포 글러벌 중도 이름으로 행복찾기 배워봅시다! 명의를 찾아서 작은콘서트 탁탁탁 즐겨요 충남 충정의 문화유산 종교/학술 오피니언 스포츠돋보기 이홍기의 말씀 세상 기자수첩 우난순의 필톡 문화칼럼 톡톡헬스뷰티 중도칼럼 아침세상 발언대 한마디 최충식 경제통 최충식 칼럼 경찰의 눈 사이언스리뷰 행복시대 월요아침 미디어의 눈 시시각각 문화산책 논단 시론 NGO소리 중도춘추 경제포럼 청풍명월 열린마당 모닝갤러리 의창(醫窓) 시사에세이 시시각각 세설 포토스포츠 엔터테인먼트 데스크시각 포토월드 맥클로이교수의 생활영어 청풍명월 임연희의 커뮤니케이션 주역과 세상 조성남 칼럼 신목민학 여론광장 최경애교수의 생활영어 빵의문화 장미의문화 논어로 푸는 세상 장영우의 뜸부기 장영우의 중도카툰 절기이야기 백마강(연재소설) 손지혜의 아침창가 즐거운 잡학 이런책 저런얘기 김영수의 詩 아침 책갈피 夕佳軒이야기 고충처리인제도 2007 활동상황 나도 한마디 임청산 박사의 만화만상 삶이 있는 아침 중도의 눈 심판자(연재소설) 김우영의 우리말 산책 시로 여는 아침 천둥 사람들 사람들 휴먼 보도자료 만나고 싶었습니다 캐릭터인터뷰 오늘의 소사 동네방네 기획연재 리뉴얼 충청 코로나19 극복! 힘내라 대전! 대전기록프로젝트 부 동 산 박붕준의 방송 타임머신 해외여행 리뷰 특집 최민호 소설-아웃터넷 오늘의 중도일보 유통 자치현장을 찾아서 기 업 금융 재밌는 법률상식 Q&amp;A 계룡로 객원기자의 눈 이현장,이문제 피플 월요포커스 아줌마 전성시대 청춘예찬 여기는 대덕특구 세상은 요지경 금주의 행사 안치홍의 골프세상 [특집] 과학의날 세계 핫이슈 더불어 삶 이제는 바꿉시다 여행 백북스와 함께 읽는 책 이슈 집중취재 손인중 기자의 Rewind 현장 우리동네 부동산 충남, 내고향의 산 명품 강좌를 말한다 여성/종교 창간 61주년 특집 JD 모닝레터 NGO 2012 신년호 특집 중도 60년 희망 60인 인터뷰 창간 60주년 특집 자율ㆍ창의 학교 특색살리기 김프로의 골프119 궁금어 사전 바른품성 5운동 한성일 기자의 성지순례 탐방기 족보 있는 도시 대전 조성남 주필의 스페인 문화산책 한방칼럼 이경태 기자의 세상돋보기 나눔사회 캠페인 365일 36.5도 우리동네 주치의 재미있는 단위 이야기 지영철의 렌즈속 세상 돌까마귀의 둘레산길 창간 60주년 기획대담 알기쉬운 세무상식 日강진 쓰나미 대재앙 손지혜의 통통칼럼 [중도일보60주년]2011새해특집 충청의 올레길 친환경 농산물이 책임진다 2010 세계대백제전 녹색자금 지원사업 현장을 가다 가자!세계문화유산으로 [창간59주년]브랜드NEW충청 [6.25전쟁]끝나지 않은 이야기 당선자에게 듣는다 2010부동산 가이드 글로벌 브랜드로 키우자 중국속의 백제문화 대전개시60년 그현장 그모습 장인의 혼을 찾아서 사랑실은 바른 인성교육 금강리포트 [그린시티]시민 삶을 바꾼다 일본도요산책 [창간58주년]파워풀충청 김대중 前대통령 서거 北, 2차 핵실험 [특별기획]승리의 역사를 가다 노무현 前대통령 서거 2009안면도 국제 꽃박람회 지역현안 단체장에 듣는다 과학이 희망이다 2009부동산 가이드 그때그현장 금요 골프 산이야기 대전을 명품 평생학습도시로 충청현장 이슈 2009 다시뛰는 충청 열려라! 방과후 학교 세계로 가는 충남도 충남 글로벌 예절교육 나는야 논술 짱 English Class 캠퍼스라이프 서해안을 살리자[연중캠페인] 대전 방과후학교 대청호 8경을 찾아서 학교탐방 김명환의 가요세상 충청박물지 대전.충남 개발현장을 가다 교육/대학 계룡대 숭례문 화재 대한민국 교육 大計 서민경제 현장을 가다 선택 4.9총선 實用시대 충청이 바뀐다 주말Fan 와인이야기 학교탐방 2007 충청아젠다 함께사는 공동체 집중취재 대전을 명품도시로 내고장최고 충청아젠다53제 만화세상 깨끗한 대전가꾸기 추석특집 창간56주년 재테크 돼지해 부자됩시다 클린대전 힘모읍시다 2007대선 만인 여론조사 총체적 위기 대전시티즌 한미FTA시대 함께사는사회를만들자 충청경제[economy] 주말매거진[Weekend秀] 작가의 산실 신충청시대를 열자 新 문화도시를 만들자 경제인줌인 비만없는도시를 만들자 대전,이래서좋다 신대동여지도 해체되는 가족사회 6ㆍ5 재보선 누가 뛰나? 선거문화 달라진다 나의도전2004 내고장자랑 추천기사 우주산업 클러스터 3각체제 추진에 대전시 "환영" 대전에 '생물안전 3등급' 고위험 병원체자원 공용연구시설 생겼다 캐시백 줄어들자 사용자 이탈? "유지냐 폐지냐" 10월 온통대전 운명 결정된다 벌써 22대 총선 전초전?… "대전 동구·중구 경쟁 뜨겁다?" 대전시 튀르기예, 우루과이, 가봉과 우호도시 협약 체결 걷고, 쉬며, 노는 '세종축제 2.0'개막 동영상 [영상]대전시립미술관 열린 수장고 개관…백남준 작가 프랙탈 거북선 원형 복원 포토뉴스 2022 세계지방정부연합(UCLG)개막…14일까지 다양한 행사 풍성 갑자기 찾아온 추위에 잔뜩 움츠린 시민들 3년 만에 대면으로 열린 효문화뿌리축제…관람객들로 ‘북적북적’ 대전 오월드 백두산호랑이 3남매 100일 맞아 일반에 공개 인기뉴스 한국농수산식품유통공사, 이해충돌방지 자문위원 위촉 [정치펀치]상병헌 세종시의장, 성추행 논란 확산 양상 부원건설, 대전 최초 '트리쉐이드' 브랜드아파트 공급 2022 개정 교육과정 놓고 커지는 교육계 갈등 지역대학생에게 직무 체험 제공하는 '청년 뉴리더 양성사업' 축소 여부 촉각 회사소개 기자별 기사보기 조직도 찾아오시는 길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 독자투고 중도일보 RSS 중도일보 PDF보기 고충처리인 편집규약 윤리강령 및 기자준칙 제작 윤리강령 광고 윤리강령 판매 윤리강령 청탁금지법 안내 청소년보호정책 원격지원 서울특별시 중구 서소문로 11길 2 효성빌딩 (우) 04515 전화 : 1522-4620  ㅣ  대전광역시 중구 계룡로 832 (우) 34908 전화 : 042-220-1114 회사명 : (주)중도일보사  제호 : 중도일보  인터넷신문 등록번호 : 대전 아00341  등록일자 : 2019-08-16  발행인 : 김원식  편집인 : 유영돈  청소년보호책임자 : 김덕기 Copyright by 중도일보 Co.,Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도 대규모 관광사업장 고용 실적 ‘미미’-국민일보 시사 시사 &gt; 전체기사 제주도 대규모 관광사업장 고용 실적 ‘미미’ 제주도, 61곳 투자·고용 실적 공표 입력 : 2021-11-22 15:18 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도 내 대규모 관광사업장의 고용 실적이 미미한 것으로 나타났다.제주도가 22일 공표한 도내 관광개발사업장과 투자진흥지구 등 61곳에 대한 투자 및 고용 현황에 따르면 올 6월 기준 이들의 투자 규모는 11조9702억원으로 당초 약속한 18조5436억원의 64.6% 수준으로 파악됐다. 이들 사업장에 고용된 인원은 8995명으로 계획 대비(3만1849명) 28.2%에 그쳤다.지난해 12월과 비교할 때 관광개발 투자는 전체적으로 1251억원 늘고 고용은 7명 감소했다.투자는 삼매봉밸리유원지, 에코랜드, 핀크스비오토피아, 엠버리조트 등에서 증가했다. 고용은 코로나19 장기화에 따른 경영 악화로 신화역사공원과 중문관광단지에서 퇴직자가 늘며 감소했다.조사 대상 61개 사업장은 관광개발사업 21곳, 유원지개발사업 16곳, 투자진흥지구 24곳이다. 이 가운데 이미 준공이 됐거나 일부 준공 후 운영 중인 곳은 53곳, 공사가 중단되거나 진행 중인 곳은 8곳이다.사업장 가운데 고용 실적은 유원지개발사업장이 계획 대비 21.7%로 가장 낮았고, 투자 실적은 관광개발사업장이 43.8%로 최저를 나타냈다.61개 사업체 중 준공 후 운영 중인 27개 사업장의 경우 계획 대비 투자 실적은 100% 초과 달성했으나 고용은 93.8%, 공사 등에 지역업체 참여율은 61.7%로 집계됐다.김승배 관광국장은 “관광개발사업장의 경우 사업 기간 내 계획된 투자가 이뤄질 수 있도록 지속적으로 점검하고, 세금 감면 등의 혜택을 받는 투자진흥지구에 대해서는 고용 실적을 달성하도록 관리를 강화해나가겠다”고 밝혔다.도는 2017년부터 일정규모 이상 도내 개발사업장에 대해 개발사업 시행승인(변경) 조건 이행 여부와 계획 대비 투자 및 도민고용 실적 등을 점검해 홈페이지에 공개하고 있다.제주=문정임 기자 moon1125@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘naver.pay’ 주소, 속았다…8천만원 사기친 피싱사이트 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 스페인에선 주전… 94분 뛴 이강인, 팀내 최고평점 부하 직원 엉덩이 때렸는데 정직 1개월…‘솜방망이’ 논란 김영환 지사 “현금복지 후퇴 없다…양해구한다” 한화 창립 70주년, 김승연 회장 “어제를 경계하고 늘 새로워지자” 3년만의 제약 바이오 채용박람회 “프로농구 우승 후보는?” 감독에게 물었더니…SK·KT 막상막하 과학·미래 가치 담았다…UCLG 총회 ‘대전트랙’ 시작 정진석 ‘식민사관’ 발언 논란…유승민 “천박한 발언, 사퇴해야” 경찰 ‘제2의 n번방’ 18명 검거, 3명 구속 잇따르는 경기침체 경고…JP모건 CEO “미·세계 경제에 침체 올 것” 이재호 연수구청장, MZ세대와 소통…역사·문화 공유 최인호 “코레일·SR, 간부급 경조사비 5년간 14억 지급” 대구서 전국동시조합장선거 관련 첫 고발 전주, 후백제∼조선 유산 묶는 ‘왕의 궁원’ 프로젝트 추진 JP모건 CEO “S&amp;P 20% 더 빠질 수 있다” [3분 미국주식]</t>
+  </si>
+  <si>
+    <t>내국인 관광객 카지노 도입…제주도 “반대 입장 확고” - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 내국인 관광객 카지노 도입…제주도 “반대 입장 확고” 파이낸셜뉴스입력 2021.11.17 13:33수정 2021.11.17 13:33 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제2차 카지노업 종합계획 용역서 '사업다각화 방안'으로 제시 ‘논란’ 외국인 전용 카지노 [뉴시스] ■ 10년 전도 검토…사행산업 부작용 우려로 중단 [제주=좌승훈 기자] 제주도가 17일 “내국인 관광객 전용 카지노 도입에 대해 반대 입장이 확고하다”고 밝혔다. 이는 도가 최근 제주도의회에 제출한 ‘제2차 카지노업 종합계획(2022~2026년)’ 수립 용역 최종보고서에 카지노 사업 다각화 방안으로 ‘관광객 전용 카지노 도입’이 제시되면서 논란이 불거진데 따른 것이다. 도는 이날 해명자료에서 ‘내국인 관광객 전용 카지노 검토’ 부문에 대해 “종합계획 수립 연구용역에서 포스트코로나 시대 대응 방안으로 용역진에서 제시한 방안 중 일부”라고 설명했다. 이번 용역이 코로나19 장기화로 외국인 전용 카지노의 매출 감소와 관광진흥기금 고갈, 고용 불안 등에 따른 제주 카지노산업의 새로운 발전 방향과 중장기 전략을 제시하기 위해 폭넓게 연구한 자료라는 점을 강조했다. 하지만 “도민·지역사회가 상호 보완하면서 상생전략을 추구하는 도의 카지노 정책 기조상 현재 내국인 관광객 전용 카지노 도입에 대한 도의 반대 입장은 확고하다”고 강조했다. 현행 법률상 내국인 전용 카지노는 도의 권한사항도 아니라는 점도 들었다. 실제로 관광진흥법 제5조(허가·신고)상 내국인 출입 카지노 허용은 문화체육관광부 장관 권한이다. 앞서 이번 카지노업 종합계획안에는 내년부터 5년 동안 코로나19로 타격을 입은 카지노업 재도약을 위해 내국인 관광객 출입을 허용하는 안이 담긴 것으로 확인됐다. 제주도민을 제외한 만 20세 이상 내국인을 대상으로 월 1회로 횟수를 제한한다는 구체적인 내용도 있다. 또 현재 5성급 호텔로 제한한 카지노 위치를 공항과 면세점으로 확대하는 방안도 논란이 예상되는 대목이다. 도내 외국인 전용 카지노는 코로나19 팬데믹으로 가장 큰 타격을 입었다. 현재 제주에 있는 카지노 8곳 중 5곳은 무기한 휴업 중이다. 일부 업장은 고용유지 지원금을 받으면서 버티고 있는 것으로 전해졌다. 하지만 내국인 관광객 전용 카지노 도입은 지난 2010년에도 논의됐다가 사행성 산업이라는 반발 여론에 부딪혀 중단된 바 있다. 한편 도는 이번 연구용역 결과를 토대로 카지노업감독위원회와 도의회 의견을 수렴해 내년 1월 제2차 제주카지노업 종합계획을 수립 시행할 예정이다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 크루즈 관광산업 재도약 방안 모색 ‘총력’ 주메뉴 바로가기 본문 바로가기 2022.10.06 (목) 카카오채널 RSS 모바일보기 흐림서울 15.3℃ 비제주 18.1℃ 흐림고산 16.7℃ 흐림성산 16.8℃ 비서귀포 17.3℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 사회 홈 사회 제주도, 크루즈 관광산업 재도약 방안 모색 ‘총력’ 김현석 기자 kim@jejutwn.com 등록 2021.11.25 17:51:27 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 26일 ‘2021 아시아크루즈리더스네트워크(ACLN) 데이’ 행사 온라인 개최- 내년 크루즈산업 전망 및 발전전략 등 논의 [제주교통복지신문 김현석 기자] 코로나19로 사상 최대 위기를 겪고 있는 크루즈 관광산업의 재도약을 위해 국내·외 크루즈 관계자들이 모여 머리를 맞댄다. 제주도는 26일 제주 아스타호텔에서 ‘크루즈 관광의 재도약’이라는 주제로 ‘2021 아시아크루즈리더스네트워크(ACLN) 데이’ 행사를 온라인으로 개최한다. 제주도가 주최하고 ㈔제주크루즈산업협회가 주관하는 이번 행사는 9개국·76개 회원기관 관계자들을 초청해 크루즈업계의 최신 동향을 공유하고, 전문가들의 내년 하반기 크루즈 운항 전망을 진단하기 위해 마련됐다. 이번 행사는 26일 오전 10시 ACLN 연차총회를 시작으로 아시아크루즈어워즈 시상식이 이어진다. 오후에는 4개 주제별 세션을 통해 △2022 크루즈산업 전망 △지역 크루즈관광 발전 전략 △크루즈 관광시장 트렌드 △지속가능한 크루즈산업 발전방향 등을 주제로 전문가 토론이 진행된다. 행사는 ACLN 유튜브 채널을 통해 실시간 생중계된다. 양홍식 도 해양수산국장은 “코로나19 장기화 가운데 누구나 쉽고 편안하게 참여할 수 있도록 온라인 생중계로 진행한다”면서 “크루즈 관광산업 재도약에 도민 여러분의 많은 참여와 관심을 부탁드린다”고 말했다. 김현석 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 제주 오션갤러리, 시행사 보유분 특별분양 4 제주시, 10월 시정시책공유 간부회의 개최 5 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 6 [TW포토] 2022 제주레저힐링축제 새별오름 공연 7 제주 사회적기업 성장지원센터, 입주기업 설명회 및 간담회 성황리에 개최 8 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 9 제주시 동부보건소, 청소년 대상 코로나우울·스마트폰 중독 예방 홍보관 운영 10 서귀포시, 코로나19 취약(소농) 전업농가 영농경영비 신청기간 연장 실시간 뉴스 2022-10-06_THU 현지홍 의원, 제주도 해양자치권 수호해야!!! 19:31 제주도의회, 지방세 체납징수 관리 요구 19:30 도민 규제, 법과 원칙 토대 위에서 신중히 추진해야 !! 19:29 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 19:25 제주도, 숨어있는 아동학대 찾는다…만 3세 아동 전수조사 19:23 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 06일 20시 20분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도사회협약위, 취약계층 관광 지원 사회협약 체결 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:58 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도사회협약위, 취약계층 관광 지원 사회협약 체결 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도사회협약위, 취약계층 관광 지원 사회협약 체결 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.11.23 15:12 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 23일 열린 취약계층 관광 지원을 위한 사회협약 체결식. ⓒ헤드라인제주 제주도사회협약위원회(위원장 고승화)는 23일 오후 2시 제주도청 삼다홀에서 도내 아동학대 가정과 보호관찰 청소년의 관광기회를 지원하기 위해 제주보호관찰소(소장 김기환), 제주관광협회(회장 부동석)와 '취약계층 관광 지원을 위한 사회협약'을 체결했다. 제주도사회협약위원회를 중심으로 추진한 이번 협약을 통해 각 기관은 도내 보호관찰 대상자 가족과 청소년을 대상으로 하는 관광 지원 협력체계를 구축하기로 했다. 이번 협약은 가족관계 회복과 정서적 지원이 필요한 보호관찰 대상자 가족, 청소년이 함께하는 관광프로그램을 운영해 마음 치유와 지역공동체 적응, 재범 방지 등을 돕는 것을 목적으로 한다. 협약식에 참석한 고승화 제주도사회협약위원장과 김기환 제주보호관찰소장, 부동석 제주관광협회장은 각 기관의 역량을 적극 활용해 협력하기로 했다. 이번 협약에 따라 제주보호관찰소에서는 관광 참여 대상자를 선정하고, 제주관광협회는 관광프로그램의 개발·운영 및 비용지원을 맡는다. 제주도사회협약위원회는 협약 이행상황을 모니터링하고, 필요시 도지사에게 지원방안 등 협약 관련 사항을 권고하게 된다. 고승화 사회협약위원장은 인사말을 통해 “상대적으로 소외된 분들에게 기회가 주어지도록 사회적 관심을 유도하는 것도 우리 위원회의 역할”이라며 “이번 협약을 통해 대상자 분들이 좀 더 건강한 생활을 하게 되기를 기대한다”고 전했다. 김기환 제주보호관찰소장은 “보호관찰 대상자에 대한 사회적 배려와 지원은 이들의 원활한 사회복귀를 촉진함으로써 재범을 방지하고 사회적 안전과 결속력을 강화하는 기능을 한다”며, “그러한 면에서 기관 간 협력을 통한 이번 지원은 큰 의미를 가진다”고 말했다. 부동석 제주관광협회장은 “우리 협회는 관광인들이 참여하는 사랑나눔봉사단을 운영하며 나눔활동을 지속”해 왔으며, “이번 협약을 통해 관광인들이 지역사회에 더 많은 관심을 가질 수 있도록 노력하겠다”고 화답했다. 한편, 제주특별법에 근거해 사회적 갈등 해소와 도민 권익증진을 위해 지난 3월 출범한 제7기 사회협약위원회는 권익증진을 위한 첫 성과로 이번 사회협약을 체결했다. 협약기간은 2023년 11월 22일까지이며 협약종료 1개월 전까지 기관별로 특별한 의사표시가 없을 시 자동으로 1년씩 연장된다. 이번 협약에 따라 보호관찰 대상자 가족과 청소년 등 20여 명이 오는 26일과 27일 이틀간 제주 관광 나들이에 나설 예정이다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 6 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주관광인 한마음대회 성황리 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:55 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 제주관광인 한마음대회 성황리 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, 제주관광인 한마음대회 성황리 개최 김지우 기자 승인 2021.11.28 13:20 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 부동석)는 지난 26일 제주시 용담 레포츠공원에서 도내 관광종사자 및 유관기관 관계자 등이 참여한 가운데 ‘2021년 세계관광의 날 기념, 제주 관광인 한마음대회’를 개최했다. 이날 관광인들은 위드 코로나 시대를 맞이하며 지혜와 역량을 결집하고 일상 회복을 통한 제주관광의 재도약을 다짐하는 환경 조성을 위한 방역캠페인 및 결의문을 발표했다. 또 올해 세계 관광의 날을 기념해 그동안 관광 발전에 기여한 관광진흥유공자에 대한 표창 수여가 진행됐다. 관광협회는 이번 행사를 계기로 침체된 관광업계를 회복시키기 위한 여행업계 공유 공간 지원, 관광사업체 방역비 지원, 단체 관광객 유치 인센티브 제공 등 관광사업체 경영환경 개선 사업 등을 전략적으로 추진할 방침이다. 관광협회 관계자는 “내년 협회 창립 60주년을 맞아 도내 관광산업의 역량강화를 통해 지역경제 활성화에 일조하고 도민과 함께 상생·발전하는 관광협회로 거듭나도록 노력해 나가겠다”고 밝혔다. 다음은 관광진흥유공자 표창 수상자 명단. ▲대통령 표창=정수영(더케이제주호텔 주식회사 前총지배인) ▲문화체육관광부 장관 표창=양인실(㈔한국관광통역안내사협회 제주지부 관광통역안내사) 김창효(제주특별자치도관광협회 실장) ▲제주특별자치도지사 표창=오정희(주식회사 여행가자 대표) 김경진(㈜더좋은여행 대표) 강영탁(에코패밀리호텔 주식회사 대표이사) 현준호(더빌라스오션 대표) 변진철(㈜국경교통 대표이사) 이영웅(㈜레츠고렌트카 대표) 김영남(㈜제주김녕미로공원 대표이사) 신동각(농업회사법인 주식회사 화조원 대표이사) 최원철(유리네식당 대표) 손미경(제주베스트힐 대표) 김혜경(킴스광고기획 대표) 송경미(㈔제주특별자치도국내여행안내사협회 안내사) ▲제주특별자치도의회 의장 표창=이호형(제니아관광호텔 총지배인) 고경애(㈔한국관광통역안내사협회제주지부 안내사) 부용광(㈔제주특별자치도중국어관광통역안내사협회 안내사) ▲한국관광협회중앙회장 표창=신영근(휘닉스중앙제주 주식회사 매니저) ▲제주특별자치도관광협회장 표창=양희선(제주쇼핑아울렛 직원) 김슬비(대국해저관광㈜ 대리) 박성균(㈜마레보 팀장) 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주선수단, 전국체육대회 메달 목표 달성 3제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>해외 관광객들 1년9개월 만에 '제주도 카지노' 찾았다 닫기 전체기사 최신뉴스 GAM 라씨로 영상 영상 포토 포토 정치 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사회 사건·사고 법원·검찰 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 글로벌 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 중국 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 산업 재계·경영 전기·전자 자동차 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 증권·금융 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 부동산 정책 건설 분양 수익형부동산 전국 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화·연예 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 스포츠 해외스포츠 국내스포츠 축구 야구 골프 오피니언 오피니언 회사소개 CEO 인사말 뉴스핌은 주요상품 가치·철학 발자취 조직도 윤리강령 찾아오시는 길 사업·광고문의 사업제휴 광고문의 유료서비스 유료안내 결제서비스 안내 환불정책 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일주소수집거부 저작권규약 고충처리제도 수용자권익보호위원회 회원 로그인 아이디·비밀번호찾기 회원가입 로그인 뉴스핌제보 닫기 검색 패밀리 사이트 뉴스핌통신 PLUS 월간 ANDA 中文 안다쇼핑 ANDA 뉴스 닫기 전체메뉴 영상 포토 정치 경제 사회 글로벌 중국 산업 증권·금융 부동산 전국 문화·연예 스포츠 오피니언 #GAM #라씨로 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사건·사고 법원·검찰 로펌 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 재계·경영 전기·전자 자동차 ESG 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 정책 건설 분양 수익형부동산 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 해외스포츠 국내스포츠 축구 야구 골프 홈 전국 지자체 속보 배터리 핵심소재 '동박' 시장 놓고 '롯데 vs SK' 주도권 싸움[영상] 이복현 금감원장 "도이치모터스 관련 경찰에 자료 요청 오지 않았다"큐브엔터, (여자)아이들 미니 5집 'I love' 선주문 70만장 돌파코웨이, KCSI 조사 침대·정수기 만족도 1위제주 도내 사회적경제기업 총 638개소…제주도 "맞춤형 지원"[부고] 지영흔(하나은행 홍보팀장)씨 부친상에이프로젠, 휴미라 바이오시밀러 특허 출원...생산성 증대삼성전자, 웰스토리 검찰 압수수색 불복 준항고 취하안실련ᐧ자살예방 시트백커버 1800세트 전국모범운전자연합회 기증 시티랩스, '그리고'에 국내 최초 운전면허 명의도용 방지 안면인증 솔루션 공급이엔플러스, 2차전지 양산 핵심설비 반입 완료…"내년 양산 준비 순항"안성 한 지역농협서 5억원 빼돌린 직원 자수...검찰 송치[국감] 송석준 "토스·카카오페이 등 선불충전 악용 보이스피싱 4년간 310배 폭증"3분기, 국내 기업 자금조달 250조9000억원…전년比 22.2%↓[국감] 정청래 "尹대통령, 디지털 키우겠다면서 예산은 삭감? 앞뒤 안맞아"[국감] 덕수궁 석조전 대한제국역사관, 국립박물관이지만 "유물 구입비 전무"신라젠, 내일 상폐여부 결정...17만 개미 운명은?[속보] 대전경찰청, '대전 화재' 관련 현대백화점그룹 본사 압수수색 [국감] 이복현 금감원장 "보험사 GA 설립 시 부당행위 면밀히 보겠다"금투협회 21일 차기 회장 선임 본격화... 서명석·전병조 등 5인 거론 더보기 해외 관광객들 1년9개월 만에 '제주도 카지노' 찾았다 기사입력 : 2021년11월19일 19:26 최종수정 : 2021년11월19일 19:26 카카오톡 페이스북 트위터 카카오스토리 밴드 가 + 가 - 프린트 [제주=뉴스핌] 변준성 기자 = 코로나19 발생 이후 1년9개월 만에 처음으로 제주도 카지노에 해외 관광객이 찾아왔다. 19일 롯데관광개발은 한국-싱가포르간 트래블 버블(여행안전권역) 시행 이후 한국을 방문한 싱가포르 단체 관광객 중 4명이 제주 드림타워 복합리조트를 방문했다고 밝혔다. 드림타워리조트 카지노 [사진=롯데관광개발] 2021.11.19 tcnews@newspim.com 제주 드림타워 복합리조트 내 그랜드 하얏트 제주의 스위트룸에 머물 예정인 이들 관광객들은 외국인 전용 카지노인 드림타워 카지노의 국제적 수준의 게임시설, 글로벌 미각여행이 가능한 14개의 레스토랑 등 다양한 부대시설에서 해외여행을 즐길 것으로 알려졌다. 롯데관광개발 측은 연내 50 여명에 이르는 싱가포르 VIP 고객이 드림타워 카지노 방문을 예약해 놓은 상태라고 덧붙였다. 제주드림타워 카지노는 국내 첫 도심형 카지노 복합리조트로 141대의 게임테이블, 슬롯머신 190대, 전자테이블게임 71대, ETG 마스터테이블 7대 등 총 409대의 국제적 수준의 게임시설을 갖추고 있다. 롯데관광개발 관계자는 "11월 들어 94% 이상의 객실점유율을 보이면서 지난 18일 현재 호텔부문에서 55억원 이상의 매출을 기록, 10월 같은 기간 대비 20%에 가까운 증가세를 보이고 있다"고 말했다. tcnews@newspim.com GAM - 해외주식 투자 도우미 [김특의 뇩멍] 스벅보다 싸고 던킨보다 맛있는 커피를 먹다 5년 새 주가 10배, 외국인이 쓸어 담는 화장품 기대주 '프로야' 라씨로 - 국내주식 투자 도우미 범한퓨얼셀, 지상 모빌리티용 연료전지 사업 확장..."글로벌 시장 확대 수혜" 코난테크놀로지, 16년 투자한 SK커뮤니케이션즈…락업 물량 20% 풀린다 [뉴스핌 베스트 기사] 사진 北 리설주, 김정은과 군사훈련 '이례적' 동행…핵무력 자신감 표출 [서울=뉴스핌] 이영태 기자 = 북한 김정은 노동당 총비서 겸 국무위원장 부인 리설주 여사가 김 위원장이 직접 지휘했다는 지난 보름간의 북한의 탄도미사일 시험발사 현장에 모습을 드러낸 것으로 10일 확인됐다. 북한 관영 조선중앙통신과 조선노동당 기관지 노동신문은 노동당 창건 77주년 기념일인 이날 "경애하는 김정은 동지께서 조선인민군 전술 핵운용 부대들의 군사훈련을 지도했다"면서 김 위원장이 북한군 전술핵운용부대·장거리포병부대·공군비행대의 훈련을 직접 지휘했다고 보도했다. 북한 김정은 국무위원장 부인 리설주 여사가 지난달 29일부터 보름간 진행된 전술핵운용부대 군사훈련을 김 위원장과 함께 참관했다고 북한 노동신문과 조선중앙통신이 10일 보도했다. 리 여사는 지난 2013년 6월과 2016년 12월 김 위원장의 공군 부대 훈련 참관에 동행한 바 있다. 2022.10.10 [사진=노동신문] 북한 언론들은 기사와 함께 리 여사가 김 위원장과 둘이서 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 사진 한 장을 공개했다. 사진은 KN-25가 점화되는 순간에 촬영된 듯 김 위원장은 왼손에 담배 한 개비를 들고 얼굴을 살짝 일그러뜨린 채 엄지손가락으로 귀를 막고 있고, 리 여사 역시 바로 옆에서 표정을 한껏 찡그리고 귀를 막는 모습을 담았다. 북한 언론이 최고지도자 부부가 귀를 막는 사진을 특별히 선택해 실은 것은 초대형 방사포 등의 위력을 강조하려는 의도가 담긴 것으로 풀이된다. 리 여사는 북한이 3대 세습 정당화로 내세운 '백두혈통'의 상징인 백두산 백마 등정으로부터 '선대 수령'의 시신이 있는 금수산태양궁전 참배, 열병식 사열 등 주요 행사 때 남편과 동행했으나, 미사일을 발사하는 군사훈련 현장에 동행한 것은 이례적이다. 전문가들 사이에선 공직을 맡고 있지 않은 리 여사의 이례적 군사훈련 참관과 동행은 북한이 자신들의 핵능력에 대한 자신감을 표출함과 동시에, 이번 도발이 단순한 '시험발사' 수준을 넘어서는 군사행보임을 보여주기 위한 것이라는 평가가 나온다. 북한은 그에게 '여사' 또는 '동지'라는 호칭을 쓰며 퍼스트레이디의 지위를 확실히 했다. medialyt@newspim.com 2022-10-10 14:04 사진 "급매물도 아직 비싸"…내집마련 수요 아직 '머뭇' [서울=뉴스핌] 최현민 기자 = 부동산 시장 침체기로 집값이 하락세를 보이자 급매물이 쏟아지고 있지만 수요자들은 내집 마련에 선뜻 나서지 못하고 있다. 문재인 정부 기간 집값이 급등한 탓에 여전히 비정상적으로 높다는 인식이 많아서다. 최근 비교적 낮은 가격에 급매물이 나오고 있지만 이들 매물 역시 5년전 가격보다 70% 가량 높은 수준이다. 특히 당시 아파트를 살수 있었던 금액으론 현재 전세살이도 힘들다. 수천만원 호가를 내린 매물들이 외면받는 이유다. 내년까지 급매물은 지속적으로 늘어날 전망이 우세하다. 점차 시장에 급매물들이 쌓일 경우 집값이 더 낮아질 것이란 기대감에 매수 심리가 더욱 위축될 것으로 보인다. 10일 부동산업계에 따르면 시세보다 저렴하게 내놓는 급매물이 증가하고 있지만 정작 내집마련 수요를 비롯한 실수요들은 '버티기'를 지속하고 있는 중이다. [서울=뉴스핌] 김학선 기자 =서울 용산구 일대 아파트 모습. 2022.08.21 yooksa@newspim.com ◆ 5년전 아파트 매매 가능했던 금액, 올해는 전세살이도 어려워 최근 주택시장에는 가격을 비교적 큰 폭으로 낮춘 급매물이 나오고 있다. 집값의 바로미터가 되는 강남4구(강남·서초·송파·강동)도 예외는 아니다. 특히 1000세대 이상 대단지 아파트에서도 수억원이나 떨어진 급매물들이 속속 나오고 있다. 강남구 일원동 지역의 아파트 매매 매물은 294건으로 6개월 전 171건에 비해 71.9% 증가했다. 같은 기간 송파구 잠실동 지역의 매물 역시 557건에서 817건으로 46.6% 증가했다. 강동구 명일동(226건→323건)은 42.9%, 서초구 방배동(481건→641건)은 33.2% 증가했다. 하지만 정작 거래는 활발하게 이뤄지지 않고 있는 모양새다. 호가를 수천만원 내린 매물도 실수요자들에게 외면받고 있다. 문재인 정권이 출범한 2017년 이후 급등한 집값이 여전히 높기 때문이다. KB부동산에 따르면 지난달 기준 전국의 아파트 평균 매매가격은 5억5601만원이다. 이는 2017년 9월(3억2936만원) 대비 68.8% 높은 수치다. 올해 들어 집값이 하락세를 보이고 있지만 여전히 5년 전 가격과 비교하면 70% 가까이 높은 수준이다. 전세가격 역시 크게 올랐다. 전국의 아파트 평균 전세값은 2017년 9월 2억4063만원에서 지난달 3억3855만원으로 40.7% 증가했다. 당시 서울 아파트를 살 수 있던 금액으로는 5년이 지난 지금 전세살이도 어려워진 것이다. 같은기간 서울만 놓고 보면 아파트 평균 매매가격은 2배 가까이 올랐다. 2017년 6억3924만원이었던 서울 아파트 평균 매매가격은 5년만에 99.6% 증가한 12억7624만원으로 급등했다. 경기와 인천 역시 같은 기간 각각 87.2%, 74.9% 증가했다. 지방 5개 광역시(대전·대구·울산·부산·광주) 아파트 평균 매매가도 증가했다. 지난달 기준 매매가격은 3억9928만원으로 2017년(2억6522만원) 대비 50.5% 증가했다. [서울=뉴스핌] 윤창빈 기자 = 서울 송파구 공인중개사에 붙어있는 아파트 매매 시세표의 모습. 2022.02.11 pangbin@newspim.com ◆ "시세 대비 크게 낮은 급매물 거래…2017년 수준 하락 어려울 것" 자금 여력을 갖춘 실수요자의 경우 급매물 거래를 통해 내 집 마련에 나설 여지가 커진 상황이다. 다만 내년까지 금리인상 가능성이 있어 시세 대비해 크게 낮아진 매물만 간간히 거래될 가능성이 크다. 여경희 부동산R114 연구원은 "내 집 마련이 급한 실수요자들이 있어 시세 대비 10% 이상 하락한 매물들 가운데 굉장히 저렴한것 위주로만 꾸준히 거래가 될 것"이라며 "다만 내년 주택 경기도 어려울 것이라고 보는 시각이 있어 절대적으로 매수세가 크게 늘진 않을 것으로 전망된다"고 내다봤다. 여 연구원은 "그동안 집값이 많이 올랐지만 대출이 여의치 않은 부분이 있다"며 "수도권 같은 경우는 조정대상지역이나 투기과열지구로 묶여 있는 지역이 있다보니 지방보다 수요는 많은데 대출은 받기 어렵고, 가격은 더 높아 매수자들 진입장벽을 높이는 요인이 될 수 있다"고 설명했다. 그러면서 "금리 인상에 물가까지 오르는 상황에서 연소득을 한푼도 안쓰고 모아야 집한채를 살 수 있는 수준이 됐다"면서 "아직까지 매수하기에는 주택 가격이 심리적으로 높다고 인식될 수 있다"고 덧붙였다. 다만 2017년도 수준 정도까지 큰 폭으로 집값이 하락하긴 어려울 것이란 전망이 나온다. 여 연구원은 "우리나라 대부분 자산이 부동산 가운데서도 주택에 집중돼있다"면서 "2017년도 수준까지 하락한다면 대출 원리금 상환이 어려워진 하우스 푸어 등 사회적으로 문제가 되는 부분이 있을 것"이라고 말했다. min72@newspim.com 2022-10-10 06:01 尹대통령 지지율, '지지층 결집'에 0.8%p 소폭 반등 32% "美증시, 이번 어닝시즌에 더 떨어진다…애플 실적이 관건" [단독] 경찰 출석하는 박홍률 목포시장...공직선거법위반 혐의 피소 삼성전자 입주한 키이우 건물, 러 미사일에 피격 삼성바이오, 이르면 내일 4공장 가동…이재용 현장 방문 가능성 [주요포토] '하이서울패션쇼, '3년 만에 직관' 법제사법위원회의 감사원 국정감사 한글날 연휴 끝...쌀쌀한 출근길 코스피 2%대 급락, 원·달러 환율 20원대 급등 노동당 77주년 창건일, 고요한 북한 '서울을 달리다' 3년만에 열린 서울세계불꽃축제 안다 TV 영상 [영상] 유병호, '대통령실 문자 논란' 첫 해명..."송구하긴 하지만 정상적 의사소통" 투자직GAM 영상 [투자직감] ①쿠팡, 미국 공모주 물림의 법칙? 회사소개 주요상품 사업제휴 개인정보취급방침 청소년보호정책 고충처리제도 수용자권익보호위원회 이용약관 광고문의 페이스북 네이버 포스트 플립보드 카카오토픽 RSS 한국신문윤리위원회 서울시 영등포구 국제금융로 70, 미원빌딩 906호 편집국 : 02-761-4409 발행인 : 민병복 편집인 : 박승윤 뉴스핌통신등록번호 : 문화,나00032등록일자 및 발행일자 : 2018.3.22 뉴스핌등록번호 : 서울아00194등록일자 및 발행일자 : 2006.4.26 COPYRIGHT©NEWSPIM CO., LTD. ALL RIGHTS RESERVED. Top으로 이동</t>
+  </si>
+  <si>
+    <t>제주도의회, 의정자문위원회 문화관광체육분과 회의 개최 주메뉴 바로가기 본문 바로가기 2022.10.08 (토) 카카오채널 RSS 모바일보기 구름조금서울 14.6℃ 비제주 17.1℃ 흐림고산 16.8℃ 흐림성산 17.1℃ 비서귀포 17.0℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도의회, 의정자문위원회 문화관광체육분과 회의 개최 서유주 기자 news@jejutwn.com 등록 2021.11.26 14:24:22 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 ‘ 22년도 예산 편성방향 설명 및 의견수렴 [제주교통복지신문 서유주 기자] 제주도의회 문화관광체육위원회에서는 2021년 11월 26일 오전 11시 도의회 제1소회의실에서 2021년도 의정자문위원회 문화관광체육분과 정기회의를 개최했다. 이번 분과회의에서는 ‘2022년도 예산안 편성현황 및 문화관광체육분야 예산에 대한 설명 및 의견수렴’ 뿐만 아니라 의정자문위원들이 현장에서 느끼는 다양한 의견들을 청취했다. 안창남 문화관광체육위원장은 인사말을 통해 “단계적 일상회복을 위한 거리두기가 완화됐으나 도민들의 삶은 여전히 힘든 상황이다. 내년도 예산안 심의를 앞두고 문화관광체육분야에 대한 현장의 목소리를 듣고자 의정자문위원회 회의를 개최하게 됐다.”고 밝혔다. 또한, “의정자문위원들께서 주신 자문 의견을 적극 반영하여 문화관광체육위원회에서는 2022년도 예산안을 꼼꼼히 살펴 코로나19로 움츠러들었던 문화관광체육분야의 사업들이 곳곳에서 꽃피울수 있도록 노력할 것이다”고 거듭 강조했다. 의정자문위원회 문화관광체육분과는 2021년 9월에 구성되어 2022년 6월말까지 활동하게 되며, 강영철(분과위원장, (전)제주시의회의장), 문창배(제주대학교미술학과 강사), 송경미(한라초등학교 운영위원장), 양민숙(제주꿈바당어린이도서관운영팀장), 좌순옥(한경면주민자치위원회 부위원장), 한연수(사단법인제주불교사회봉사회이사장) 총 6명으로 구성 운영되고 있다. 한편, 의정자문위원회는 제주도의회 의정활동에 대한 자문과 입법 및 정책 제안 등의 업무 지원을 통해 의회 운영의 내실화를 도모하고자 운영되는 제도로서 현재 7개 분과위원회에 총 54명이 활동하고 있다. 서유주 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 제주 오션갤러리, 시행사 보유분 특별분양 3 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 4 [TW포토] 2022 제주레저힐링축제 새별오름 공연 5 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 6 제주시 동부보건소, 청소년 대상 코로나우울·스마트폰 중독 예방 홍보관 운영 7 서귀포시, 코로나19 취약(소농) 전업농가 영농경영비 신청기간 연장 8 제주 사회적기업 성장지원센터, 입주기업 설명회 및 간담회 성황리에 개최 9 제주시 서부보건소, 코로나 넘어 건강한 일상으로!『고고당 잡게 오몽하게 마씸』 10 서귀포시 장애인게이트볼 연맹, 전국장애인게이트볼대회 참가 실시간 뉴스 2022-10-07_FRI 창작오페라 「홍윤애」 제작발표회 19:15 제주특별자치도, 도심항공교통 상용화 시험대... 자율비행 드론 이용해 피자 배달 16:31 [TW포토] 제61회 탐라문화제 산지천 주변, 산지천갤러리 15:26 제주특별자치도의회, 참신한 정책 도민과 함께 만들어 갑니다 15:20 제주특별자치도, 40년만의 미국 인플레이션 살피는 까닭? 15:18 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 08일 10시 44분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주에 관광객 전용카지노 도입?…제주도 "현재까진 검토 안해" 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주에 관광객 전용카지노 도입?…제주도 "현재까진 검토 안해" 제2차 제주카지노종합계획 수립용역 최종보고서에 포함 10년 전에도 논의됐지만 '사행산업' 부작용 우려로 중단 (제주=뉴스1) 강승남 기자					| 2021-11-16 18:12 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도청 전경.(제주도 제공)© News1 제주 카지노산업 활성화를 위해 '관광객 전용 카지노' 도입방안이 제시됐다.이에 대해 제주도는 "용역보고서에 제시된 전문가의 의견일 뿐 (관광객 전용 카지노도입에 대해) 전혀 검토하지 않고 있다"며 선을 그었다. 제주도는 사단법인 복합리조트관광연구소에 의뢰한 '제2차 제주카지노종합계획(2022~2026년) 수립용역' 최종보고서를 제주도의회에 제출할 예정이라고 16일 밝혔다.관련 상임위원회인 문화체육관광위원회 보고는 오는 25일 예정됐다. 제주도가 도의회에 제출한 '제2차 제주카지노종합계획 수립용역' 최종보고서에는 코로나19로 직격탄을 맞은 제주 카지노산업 회복과 재도약을 위한 방안이 제시됐다.그런데 외국인 전용 카지노의 한계를 극복하기 위한 사업 다각화 방안으로 관광객 전용카지노 도입이 포함되면서 논란을 예고하고 있다. 관광객 전용 카지노는 제주에 주소를 둔 제주도민을 제외한 내·외국인 관광객의 카지노 출입이 가능하다. 용역진은 제주도내 8개 카지노 모두 외국인 전용이라는 점에서 사드, 코로나19 등 외부 요인으로 매출이 좌우되고 있는 상황을 고려해 '관광객 전용 카지노 도입'을 제안한 것으로 알려졌다.또 인근 국가들이 카지노를 포함한 복합리조트 개발에 주력하면서 우리나라 국민들이 해외에서 국부를 유출하는 문제가 커지자 이러한 수요를 제주에 흡수해 국부 유출을 막고, 제주 카지노산업 도약을 위한 차원도 있다.그러나 내국인 관광객 전용 카지노 도입은 지난 2010년에도 논의됐다가 사행성 산업이라는 반발 여론 등에 부딪혀 중단된 바 있다.제주도 관계자는 "제2차 제주카지노 종합계획 수립에 앞서 제주도의회의 의견을 듣기 위해 용역보고서를 제출하고 보고하는 것이다"며 "용역보고서에 포함된 관광객 전용 카지노 도입은 검토하고 있지 않지만, 제주카지노감독위원회에서도 별다른 언급이 없어 우선 내용에 포함한 채 도의회에 제출했다"고 말했다.제주도는 도의회 의견을 수렴한 후 올해 안으로 '제2차 제주카지노종합계획'을 확정, 고시할 예정이다. ksn@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 "연하 남편·여직원, 시댁서 동거…시모는 며느리 대접" 선우은숙 "만난지 석달…유영재 '나 믿고 함께하자' 말에 결혼" 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" '음주운전' 신혜성, 측정 거부해 체포 "죄송…차량 절도는 아냐" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 대통령실까지 행진하는 배민 라이더 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 취업, 그 간절한 마음 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 탭메뉴 스포츠 연예 스타일 스포츠 9부 능선 넘었어도 긴장 풀지 않은 홍명보 감독 "아직 우승 아닌데…" 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도의회 "관광업계 안전한 노동환경 조성 촉구 결의" | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도의회 "관광업계 안전한 노동환경 조성 촉구 결의" 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도의회 "관광업계 안전한 노동환경 조성 촉구 결의" 송고시간2021-11-15 17:08 요약 beta 닫기 제주도의회 의원들이 관광업계의 안전한 노동환경 조성을 촉구하는 내용의 결의안을 채택했다. 제주도의회는 15일 열린 제400회 제2차 정례회 본회의에서 '관광산업 근로자 고용보장 촉구 결의안'을 재석의원 전원 찬성으로 채택했다. 도의회는 "제주지역 관광산업 관련 기업들이 근로자 노동권 보장이 이뤄지지 않는 매각이나 인력 구조조정 시도를 재고하고, 사회적 책임을 다하라"고 촉구했다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 민주노총 제주 "결의안 채택 환영…연대하며 투쟁" (제주=연합뉴스) 변지철 기자 = 제주도의회 의원들이 관광업계의 안전한 노동환경 조성을 촉구하는 내용의 결의안을 채택했다. "제주칼호텔 매각 중단하라" (제주=연합뉴스) 지난 9월 30일 오전 제주도청 앞에서 제주지역 29개 시민사회단체가 공동으로 '제주칼호텔 매각 반대 및 규탄 기자회견'을 열어 제주칼호텔 매각을 반대하고 있다. [연합뉴스 자료사진] 제주도의회는 15일 열린 제400회 제2차 정례회 본회의에서 '관광산업 근로자 고용보장 촉구 결의안'을 재석의원 전원 찬성으로 채택했다. 도의회는 결의안을 통해 "최근 한진그룹이 유동성 확보 명분으로 제주칼호텔 건물과 주변 부지를 부동산자본운영사에 매각을 추진하고 있어 노사 갈 갈등을 빚고 있다"며 "관광사업과 무관한 부동산개발기업에 호텔을 매각한다는 것이 근로자의 고용 승계나 노동권을 보장하기 어렵다는 시사하기 때문"이라고 설명했다. 광고 도의회는 "그동안 기업 운영의 어려움을 고려하더라도 일방적으로 매각하거나 구조조정을 추진하는 것은 지역 경제에 부정적 영향을 미칠 수밖에 없다"고 우려했다. 제주도의회 본회의장 [연합뉴스 자료사진] 도의회는 "제주지역 관광산업 관련 기업들이 근로자 노동권 보장이 이뤄지지 않는 매각이나 인력 구조조정 시도를 재고하고, 사회적 책임을 다하라"고 촉구했다. 또 관리 감독권 활용, 제도개선 등으로 관광산업에 종사하는 제주도민의 고용안정을 위한 비상 대책을 수립할 것을 정부와 제주도에 촉구했다. 결의안은 청와대와 국회, 국무총리실, 고용노동부, 문화체육관광부, 제주도 등에 발송된다. 이에 대해 민주노총 제주본부는 성명을 통해 제주도의회의 결의안 채택을 환영했다. 이들은 "최근 한진그룹의 매각추진으로 인한 칼호텔의 집단해고, 신화월드 LEK카지노의 희망퇴직과 구조조정 추진 등이 벌어지는 상황에서 도민의 대의기관인 제주도의회가 관광서비스 노동자의 고용보장을 촉구하는 결의문을 채택한 것이라는 점에서 의미가 있다"며 함께 연대하고 투쟁하겠다고 밝혔다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/11/15 17:08 송고 #제주도의회 #관광업계 #노동환경 #결의안 #채택 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 36 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N3 이전 다음 “제주도내 관광개발사업 무더기 기간 연장, ‘먹튀’ 우려” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 사회 “제주도내 관광개발사업 무더기 기간 연장, ‘먹튀’ 우려” 홍석준 기자 승인 2021.11.22 12:40 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주주민자치연대 “묘산봉‧동물테마파크 등 사업기간 연장 안돼” [미디어제주 홍석준 기자] 제주도가 기간 연장 등의 사유로 사업 변경을 신청한 제주도내 14곳의 관광개발사업장에 대한 개발사업 심의와 열람 공고를 추진중인 가운데, 제주주민자치연대가 무더기 사업 기간 연장을 해줘선 안된다는 입장을 천명하고 나섰다. 기간 연장을 해줄 경우 일부 사업부지를 되파는 방식으로 소위 ‘먹튀’ 우려가 있어 사업기간 연장을 보류하고 총체적인 점검이 우선돼야 한다는 이유에서다. 제주주민자치연대는 우선 곶자왈 파괴와 공유지 매각 논란으로 10년이 넘도록 사업 추진이 지지부진한 묘산봉 관광단지 사업의 경우 이같은 ‘먹튀’ 우려가 여기저기서 제기되고 있다는 점을 지적했다. 사실상 무산된 제주동물테마파크 사업에 대해서는 “금품 살포 등 부정행위가 존재하는 사업을 연장하겠다고 한다면 그 책임은 이제 원희룡 전 지사의 책임이 아니라 권한을 이양받은 구만섭 도지사 권한대행에게 있을 수밖에 없다”고 엄중 경고하기도 했다. 또 이미 ‘먹튀 전력’으로 당시 40억원의 시세 차익을 챙긴 성산포해양관광단지사업의 기한 연장에 대해 주민자치연대는 “상식을 벗어난 결정일 수밖에 없다”면서 오히려 투자진흥지구에서 해제돼야 하는 사업이라고 문제를 제기했다. 특히 주민자치연대는 공유지를 헐값에 사들여 사업 인허가를 받아 운영중인 성산포해양관광단지, 묘산봉 관광단지, 헬스케어타운, 우리들리조트, 폴로승마리조트, 롯데리조트, 동물테마파크 등 사업에 대해서는 일방적인 인허가 기간 연장이 아니라 사전에 철저한 검증이 우선돼야 한다는 점을 거듭 강조했다. “일부 몰지각한 도의회 의원들의 사업자 편을 든 로비 시도도 중단해야 한다”면서 일부 의원들을 예의주시하고 있음을 내비치기도 했다. 이어 주민자치연대는 “10년 넘게 제대로 사업 추진이 되지 않는 사업장에 대한 기간 연장 허가는 구만섭 권한대행이 스스로 표명한 ‘송악선언’의 후속 대책을 철저히 이행하겠다는 상반된 행보”라고 지적, “제주를 다시 개발천국으로 만드는 무더기 사업기간 연장은 반드시 멈춰야 한다”고 요구했다. 한편 제주도는 대규모 개발사업장에서 제출한 기간 연장 등 사업계획 변경안을 심의하기 위해 오는 23일 개발사업심의위원회를 개최할 예정이다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>'중화권 관광객' 다시 올까…제주도, 무비자 입국 재개 추진 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 '중화권 관광객' 다시 올까…제주도, 무비자 입국 재개 추진 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 '중화권 관광객' 다시 올까…제주도, 무비자 입국 재개 추진 송고시간2021-11-17 14:22 中文 日本語 요약 beta 닫기 신종 코로나바이러스 감염증(코로나19) 팬더믹으로 중단된 무사증(무비자) 입국 제도 재개 여부에 관심이 쏠린다. 제주도는 정부의 단계적 일상 회복에 따라 무사증 입국 제도 재개를 요청할 방침이라고 17일 밝혔다. 구만섭 제주도지사 권한대행은 지난 15일 제주도의회 임시회 시정연설에서 "무사증 제도 재개 요청과 함께 크루즈선 입항 전면개방을 추진해 동북아시아 크루즈 관광 허브로 재도약하는 발판을 마련하겠다"고 말했다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 구만섭 "격리 면제 국가, 해외 직항노선도 확대" (제주=연합뉴스) 고성식 기자 = 신종 코로나바이러스 감염증(코로나19) 팬더믹으로 중단된 무사증(무비자) 입국 제도 재개 여부에 관심이 쏠린다. 2018년 제주국제공항 국제선 이용 외국인 관광객 [연합뉴스 자료 사진] 제주도는 정부의 단계적 일상 회복에 따라 무사증 입국 제도 재개를 요청할 방침이라고 17일 밝혔다. 구만섭 제주도지사 권한대행은 지난 15일 제주도의회 임시회 시정연설에서 "무사증 제도 재개 요청과 함께 크루즈선 입항 전면개방을 추진해 동북아시아 크루즈 관광 허브로 재도약하는 발판을 마련하겠다"고 말했다. 광고 구 권한대행은 또 "정부는 격리면제 국가 확대, 무사증 제도 부활, 3단계에 걸친 해외 직항노선 재개 등 국제항공 수요 회복 대책을 추진하고 있다"고 전했다. 국토교통부도 최근 지방 공항 국제선 운항을 단계적으로 확대한다는 계획을 밝힘에 따라 제주국제공항 국제선 운항 재개도 기대되고 있다. 크루즈선의 운항 재개 여부에도 기대감이 높아졌다. 제주에는 '트래블 버블'(Travel Bubble·여행안전권역) 시행에 따라 25일 코로나19 이후 처음으로 싱가포르 단체 관광객이 방문할 예정이다. 도는 침체한 외국인 관광시장 활성화를 위해 안전 관광시스템을 구축하고 중화권과 일본 시장 홍보 마케팅을 강화할 방침이다. 이와 함께 웰니스 관광과 마을 자원 융복합 관광 등 지역 특성을 살린 관광 콘텐츠 개발을 지원한다. 한편 정부는 지난해 2월 4일 코로나19 유입을 막기 위해 제주의 무사증 입국 제도를 중단했다. 또 해외 크루즈선의 제주 기항을 잠정 중단하도록 했다. 이로 인해 제주지역 시내 면세점과 외국인 전용 카지노, 국외 여행사, 전세버스 업계가 직격탄을 맞았다. 올해 들어 현재까지 제주를 찾은 외국인 관광객은 4만2천여 명으로, 지난해 같은 기간(7만5천82명)보다 80％ 줄었다. 코로나19 사태 이전인 2019년과 비교하면 100％ 가까이 감소했다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/11/17 14:22 송고 #재개 #무사증 #크루즈선 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 36 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>민주당 제주도당 “도의회, 관광 근로자 고용보장 촉구 결의안 환영” :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 민주당 제주도당 “도의회, 관광 근로자 고용보장 촉구 결의안 환영” 등록 2021.11.17 17:19:19 작게 크게 더불어민주당[제주=뉴시스] 강경태 기자 = 더불어민주당 제주특별자치도당이 ‘관광산업 근로자 고용보장 촉구 결의안’ 채택에 대해 환영의 뜻을 밝혔다. 더불어민주당 제주도당은 17일 논평을 내고 “제주도의회가 지난 15일 제400회 정례회 본회의에서 관광산업 근로자 고용보장 촉구 결의안을 재석의원 전원 찬성으로 채택했다”며 이같이 밝혔다. 민주당은 “도의회가 결의안을 통해 관광산업 관련 기업에서 근로자 노동권 보장이 이뤄지지 않아 매각이나 인력 구조조정 시도를 재고해 사회적 책임을 다할 것을 촉구하고, 관리 감독권 활용과 제도개선 등을 통한 관광산업 종사자의 고용안정 비상대책 수립을 요구했다”며 “도민의 대의기관인 도의회가 나서 관광업계의 안전한 노동환경 조성을 촉구한 결의안을 채택하는 것은 당연하다”고 강조했다. 민주당은 “도의회 결의안 채택을 지지하며 적극적으로 환영한다”라며 “앞으로 정부와 도, 도의회, 시민사회 등과 머리를 맞대고 관광산업에 종사하는 도민의 고용 안정을 위한 대책 마련에 최선을 다하겠다”고 덧붙였다. ◎공감언론 뉴시스 ktk2807@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3삼성전자 사들이기 시작한 외국인…분위기 반전될까 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3삼성전자 사들이기 시작한 외국인…분위기 반전될까 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 BAT, '글로하이퍼X2' 출시 기대감…연말 전자담배 3파전 격화하나 창원대학교, 지역과 함께 '대동제' 12~13일 연다 금호석유화학 주가, '나홀로 질주' 비결은 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 지어소프트, 8회차 CB 전환가액 하향 조정 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 금호석유화학 주가, '나홀로 질주' 비결은 금감원, 금융사 직원에 '프리패스 출입증' 발급 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 금호석유화학 주가, '나홀로 질주' 비결은 지어소프트, 8회차 CB 전환가액 하향 조정 금감원, 금융사 직원에 '프리패스 출입증' 발급 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 창원대학교, 지역과 함께 '대동제' 12~13일 연다 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 창원대학교, 지역과 함께 '대동제' 12~13일 연다 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 일상회복 관광객 맞이 캠페인 전개 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:58 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도-관광협회, 일상회복 관광객 맞이 캠페인 전개 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도-관광협회, 일상회복 관광객 맞이 캠페인 전개 이창준 기자 headlinejeju@headlinejeju.co.kr 승인 2021.11.22 15:25 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 사단법인 제주특별자치도관광협회는 '안전·청정·친절' 관광환경 조성을 위해 일상회복 관광객 맞이 캠페인을 전개한다고 22일 밝혔다. 최근 백신 예방접종 확대 등에 발맞춘 정부의 단계적 일상회복 전환으로 제주 여행객이 증가하고 있는 상황에서 제주도는 불만 없는 제주 관광환경 조성과 관광 품질의 전반적인 개선을 필수 과제로 판단하고 있다. 제주관광의 질적 개선을 위해 제주특별자치도-유관기관-관광업계는 오는 26일 민·관 합동 제주 관광인 결의문을 발표할 예정이다. 결의문을 통해 △방역수칙 준수를 통해 안전·청정 제주 관광지 이미지 구축 △질 높은 제주 관광 인프라 구축 및 선진 관광질서 확립 △고객감동 친절 서비스 제공 △상호 소통과 화합을 바탕으로 새로운 관광 콘텐츠 개발에 정진할 것 등을 다짐한다. 결의문에 따른 실천활동의 일환으로 여행객들이 안전한 관광환경 조성에 적극적으로 참여하도록 26일 제주 공․항만에서 제주관광 방역캠페인을 펼친다. 관광객들에게 제주형 전자출입명부인 제주안심코드를홍보하는 창구를 운영하며, 안전여행 기본수칙 안내와 마스크 2000장 등 홍보물품을 배부해 안전관광 분위기를 조성하고자 한다. 또 관광 종사원들을 대상으로 '위드 코로나 시대 대고객 친절 서비스 제고를 위한 고객 소통 방안'을 주제로 하는 비대면 강연 영상을 제공할 예정이다. 주요 강연 내용은 이용자·사업장 방역수칙, 응급상황 시 대응방안, 마스크 착용 시 고객 응대 방안(눈짓, 손짓 등 비언어적 소통 강화) 등이다. 해당 영상은 관광업계 종사원 등 누구나 시청할 수 있도록 ㈔제주특별자치도관광협회 홈페이지와 제주관광포털 비짓제주 등에 게시할 계획이다. 이를 통해 고품격 관광 서비스를 제공하는 기반을 다져 제주관광 이미지를 개선하는데 도움이 되기를 기대하고 있다. 김승배 제주도 관광국장은 "이번 행사가 제주관광에 대한 신뢰회복과 관광시장 재도약이라는 두 마리 토끼를 잡을 수 있는 전환점이 되도록 총력을 다하겠다"고 말했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 이창준 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 6 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>아난티·한라홀딩스, '제주도 관광 플랫폼 조성 업무협약' :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 아난티·한라홀딩스, '제주도 관광 플랫폼 조성 업무협약' 등록 2021.11.09 10:42:11 작게 크게 기사내용 요약 골프장·숙박·문화 공간 갖춰 [부산=뉴시스]제주도 구좌읍 김녕리 위치한 세인트포 골프장 전경. (사진=아난티 제공) *재판매 및 DB 금지 [부산=뉴시스] 제갈수만 기자 = 아난티는 ㈜한라홀딩스와 제주도 최대 규모의 혁신적인 플랫폼 조성을 위한 업무협약(MOU)을 8일 체결했다. 아난티는 이번 업무협약을 시작으로 한라홀딩스와 함께 제주도 구좌읍 김녕리 일원 208만2150㎡ (약 63만평) 부지를 2024년까지 새롭고 차별화된 플랫폼으로 조성할 계획이다. 현재 한라홀딩스가 운영 중인 178만4700㎡(약 54만평) 규모의 세인트포 골프장을 포함해 숙박 시설, 다양한 레저 및 문화 시설이 들어설 2만 8423㎡ (약 8만6000평)가량의 배후부지로 구성된다. 36홀 규모의 세인트포 골프장은 해발고도 약 80~130m의 천연 상록 수림대에 자리해 날씨 영향을 적게 받아 사계절 라운드가 가능한 것이 장점이다. 추후 아난티 제주 클럽으로 운영되면, 기존의 풍부한 인프라와 대대적인 리노베이션을 통한 시설 업그레이드로 제주 명문 골프장으로 거듭날 전망이다. 특히 아난티의 대표 시설인 이터널저니, 워터하우스를 비롯해 갤러리, 레스토랑, 베이커리, 카페, 체육 시설 등은 제주의 새로운 라이프스타일 기준을 제시할 문화 공간이다. 아난티 관계자는 "풍부한 자연 환경과 아난티의 방식이 조화돼 기존에 제주에서 볼 수 없었던 차별화된 플랫폼을 선보일 예정”이라고 밝혔다. ◎공감언론 뉴시스 jgsm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3삼성전자 사들이기 시작한 외국인…분위기 반전될까 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3삼성전자 사들이기 시작한 외국인…분위기 반전될까 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 BAT, '글로하이퍼X2' 출시 기대감…연말 전자담배 3파전 격화하나 창원대학교, 지역과 함께 '대동제' 12~13일 연다 금호석유화학 주가, '나홀로 질주' 비결은 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 지어소프트, 8회차 CB 전환가액 하향 조정 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 금호석유화학 주가, '나홀로 질주' 비결은 금감원, 금융사 직원에 '프리패스 출입증' 발급 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 금호석유화학 주가, '나홀로 질주' 비결은 지어소프트, 8회차 CB 전환가액 하향 조정 금감원, 금융사 직원에 '프리패스 출입증' 발급 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 창원대학교, 지역과 함께 '대동제' 12~13일 연다 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 창원대학교, 지역과 함께 '대동제' 12~13일 연다 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>'관광객이 미분양 주택 투숙' 제주도, 불법 숙박업 근절 나선다 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 '관광객이 미분양 주택 투숙' 제주도, 불법 숙박업 근절 나선다 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 '관광객이 미분양 주택 투숙' 제주도, 불법 숙박업 근절 나선다 송고시간2021-11-05 10:16 요약 beta 닫기 이 같은 불법 숙박시설 운영이 지난 8월까지 300곳이 넘게 적발되는 등 숙박 공유 플랫폼 등을 이용한 불법행위가 만연하자, 제주도와 유관기관은 합동 점검과 함께 근절 대책을 시행하기로 했다. 제주도는 5일 제주도관광협회, 제주시 및 서귀포시, 숙박 공유 플랫폼 관계자 등 20여명이 참가한 가운데 '불법 숙박행위 근절을 위한 회의'를 열어 근절 방안을 마련할 방침이다. 김승철 도 관광국장은 "최근 미분양 타운하우스 등 무등록 숙박시설이 공유숙박 플랫폼을 통해 무분별하게 운영되고, 온라인을 통한 불법(미신고) 숙박 영업이 지속되고 있어 합법적 숙박업소의 피해는 물론, 제주 관광객들의 피해도 늘어나는 실정"이라며 "코로나19로 힘든 시기를 보내는 관광업계의 시름을 덜기 위해 불법 숙박업소에 대한 지도·점검을 강화해 나가겠다"고 말했다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 숙박공유 플랫폼 업체에 합법 숙박시설만 등록·소개 권고 (제주=연합뉴스) 고성식 기자 = 지난달 27일 제주시의 한 타운하우스에 시 숙박업소 점검 특별팀 등이 긴급 단속을 나갔다. 제주 불법 숙박업 단속 지난 10월 27일 오전 제주시 한림읍의 한 타운하우스에서 제주도, 제주시 숙박업소점검TF팀, 자치경찰단, 제주도관광협회가 함께 합동으로 불법 숙박업소 단속을 벌이고 있다. [연합뉴스 자료사진] 단속 결과 숙박업 등록이 안 된 타운하우스를 숙박 공유 플랫폼을 통해 관광객들에게 불법 대여하고 있다는 제보가 사실로 확인됐다. 이 같은 불법 숙박시설 운영이 지난 8월까지 300곳이 넘게 적발되는 등 숙박 공유 플랫폼 등을 이용한 불법행위가 만연하자, 제주도와 유관기관은 합동 점검과 함께 근절 대책을 시행하기로 했다. 광고 제주도는 5일 제주도관광협회, 제주시 및 서귀포시, 숙박 공유 플랫폼 관계자 등 20여명이 참가한 가운데 '불법 숙박행위 근절을 위한 회의'를 열어 근절 방안을 마련할 방침이다. 도는 숙박 공유 플랫폼 관계자들에게 '합법적 숙박시설 여부 확인 후 숙박 공유 플랫폼 등록', '공유숙박 플랫폼에 숙박업소 요금표 및 신고증 게시 안내', '임대업(한달살이)과 숙박업 구분 판매' 등을 권고할 계획이다. 이와 함께 도는 제주시 및 서귀포시에 숙박업소 점검 특별팀을 만들었으며, 자치경찰단과 관광협회 민·관 합동 단속팀을 구성해 정기적인 단속과 특별 단속을 지속해서 추진할 방침이다. 도는 불법 숙박행위가 적발된 업소는 현장에서 즉시 계도하고, 이후 재적발될 경우에는 '공중위생법'에 근거해 자치경찰단에 고발 조치한다. 불법 숙박업소에는 1년 이하의 징역 또는 1천만 원 이하의 과태료가 부과된다. 김승철 도 관광국장은 "최근 미분양 타운하우스 등 무등록 숙박시설이 공유숙박 플랫폼을 통해 무분별하게 운영되고, 온라인을 통한 불법(미신고) 숙박 영업이 지속되고 있어 합법적 숙박업소의 피해는 물론, 제주 관광객들의 피해도 늘어나는 실정"이라며 "코로나19로 힘든 시기를 보내는 관광업계의 시름을 덜기 위해 불법 숙박업소에 대한 지도·점검을 강화해 나가겠다"고 말했다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/11/05 10:16 송고 #불법 #숙박 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 36 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도내 주요 관광지 택시 호객행위 집중 단속 닫기 전체기사 최신뉴스 GAM 라씨로 영상 영상 포토 포토 정치 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사회 사건·사고 법원·검찰 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 글로벌 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 중국 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 산업 재계·경영 전기·전자 자동차 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 증권·금융 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 부동산 정책 건설 분양 수익형부동산 전국 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화·연예 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 스포츠 해외스포츠 국내스포츠 축구 야구 골프 오피니언 오피니언 회사소개 CEO 인사말 뉴스핌은 주요상품 가치·철학 발자취 조직도 윤리강령 찾아오시는 길 사업·광고문의 사업제휴 광고문의 유료서비스 유료안내 결제서비스 안내 환불정책 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일주소수집거부 저작권규약 고충처리제도 수용자권익보호위원회 회원 로그인 아이디·비밀번호찾기 회원가입 로그인 뉴스핌제보 닫기 검색 패밀리 사이트 뉴스핌통신 PLUS 월간 ANDA 中文 안다쇼핑 ANDA 뉴스 닫기 전체메뉴 영상 포토 정치 경제 사회 글로벌 중국 산업 증권·금융 부동산 전국 문화·연예 스포츠 오피니언 #GAM #라씨로 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사건·사고 법원·검찰 로펌 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 재계·경영 전기·전자 자동차 ESG 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 정책 건설 분양 수익형부동산 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 해외스포츠 국내스포츠 축구 야구 골프 홈 전국 제주 속보 배터리 핵심소재 '동박' 시장 놓고 '롯데 vs SK' 주도권 싸움[영상] 이복현 금감원장 "도이치모터스 관련 경찰에 자료 요청 오지 않았다"큐브엔터, (여자)아이들 미니 5집 'I love' 선주문 70만장 돌파코웨이, KCSI 조사 침대·정수기 만족도 1위제주 도내 사회적경제기업 총 638개소…제주도 "맞춤형 지원"[부고] 지영흔(하나은행 홍보팀장)씨 부친상에이프로젠, 휴미라 바이오시밀러 특허 출원...생산성 증대삼성전자, 웰스토리 검찰 압수수색 불복 준항고 취하안실련ᐧ자살예방 시트백커버 1800세트 전국모범운전자연합회 기증 시티랩스, '그리고'에 국내 최초 운전면허 명의도용 방지 안면인증 솔루션 공급이엔플러스, 2차전지 양산 핵심설비 반입 완료…"내년 양산 준비 순항"안성 한 지역농협서 5억원 빼돌린 직원 자수...검찰 송치[국감] 송석준 "토스·카카오페이 등 선불충전 악용 보이스피싱 4년간 310배 폭증"3분기, 국내 기업 자금조달 250조9000억원…전년比 22.2%↓[국감] 정청래 "尹대통령, 디지털 키우겠다면서 예산은 삭감? 앞뒤 안맞아"[국감] 덕수궁 석조전 대한제국역사관, 국립박물관이지만 "유물 구입비 전무"신라젠, 내일 상폐여부 결정...17만 개미 운명은?[속보] 대전경찰청, '대전 화재' 관련 현대백화점그룹 본사 압수수색 [국감] 이복현 금감원장 "보험사 GA 설립 시 부당행위 면밀히 보겠다"금투협회 21일 차기 회장 선임 본격화... 서명석·전병조 등 5인 거론 더보기 제주도내 주요 관광지 택시 호객행위 집중 단속 기사입력 : 2021년11월10일 13:13 최종수정 : 2021년11월10일 13:13 카카오톡 페이스북 트위터 카카오스토리 밴드 가 + 가 - 프린트 [제주=뉴스핌] 문미선 기자 = 제주도는 올해 말까지 택시 호객행위 등 불법 영업행위 집중단속에 나선다. 이달부터 시행된 단계적 일상회복으로 제주 관광객이 늘어나면서 제주도는 한라산국립공원 등 주요 관광지 일대에 택시 불법 영업행위를 집중 단속하고 있다고 10일 밝혔다. [제주=뉴스핌] 문미선 기자 = 관광객으로 붐비는 제주공항 국내선 입국장 2021.11.10 mmspress@newspim.com 도는 2인 1조로 구성된 점검반을 편성해 올해 말까지 영실, 관음사, 성판악, 어리목, 마방목지 등 한라산 등반로 주차장 및 제주항, 성산포항 여객터미널 등 주요 단속지역에서 미터기 미사용, 부당요금 요구행위, 운전업무 종사자격 증명 미게시, 승차 거부 또는 합승행위 등을 중점적으로 점검한다. 제주도는 단속에 적발된 택시 운송사업자에 대해서는 지방보조금 지급 제한을 검토하고, 위반행위 및 횟수에 따라 10만원에서 20만원까지 과태료를 부과할 방침이다. 김재철 도 교통항공국장은 "일상회복에 대한 기대감으로 야외활동이 증가하는 시기인 만큼 택시 불법 영업행위를 집중 단속해 여행객의 교통 불편을 적극적으로 해결해나가겠다"고 밝혔다. mmspress@newspim.com [관련기사] 경찰, 성착취물 제작·유통사범 등 1625명 검거진주시 안락공원 현대화사업 인근 주민 반발…"화장장 확대 안돼"부안 로컬푸드 12~30일 김장김치 특판전 GAM - 해외주식 투자 도우미 [김특의 뇩멍] 스벅보다 싸고 던킨보다 맛있는 커피를 먹다 5년 새 주가 10배, 외국인이 쓸어 담는 화장품 기대주 '프로야' 라씨로 - 국내주식 투자 도우미 범한퓨얼셀, 지상 모빌리티용 연료전지 사업 확장..."글로벌 시장 확대 수혜" 코난테크놀로지, 16년 투자한 SK커뮤니케이션즈…락업 물량 20% 풀린다 [뉴스핌 베스트 기사] 사진 北 리설주, 김정은과 군사훈련 '이례적' 동행…핵무력 자신감 표출 [서울=뉴스핌] 이영태 기자 = 북한 김정은 노동당 총비서 겸 국무위원장 부인 리설주 여사가 김 위원장이 직접 지휘했다는 지난 보름간의 북한의 탄도미사일 시험발사 현장에 모습을 드러낸 것으로 10일 확인됐다. 북한 관영 조선중앙통신과 조선노동당 기관지 노동신문은 노동당 창건 77주년 기념일인 이날 "경애하는 김정은 동지께서 조선인민군 전술 핵운용 부대들의 군사훈련을 지도했다"면서 김 위원장이 북한군 전술핵운용부대·장거리포병부대·공군비행대의 훈련을 직접 지휘했다고 보도했다. 북한 김정은 국무위원장 부인 리설주 여사가 지난달 29일부터 보름간 진행된 전술핵운용부대 군사훈련을 김 위원장과 함께 참관했다고 북한 노동신문과 조선중앙통신이 10일 보도했다. 리 여사는 지난 2013년 6월과 2016년 12월 김 위원장의 공군 부대 훈련 참관에 동행한 바 있다. 2022.10.10 [사진=노동신문] 북한 언론들은 기사와 함께 리 여사가 김 위원장과 둘이서 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 사진 한 장을 공개했다. 사진은 KN-25가 점화되는 순간에 촬영된 듯 김 위원장은 왼손에 담배 한 개비를 들고 얼굴을 살짝 일그러뜨린 채 엄지손가락으로 귀를 막고 있고, 리 여사 역시 바로 옆에서 표정을 한껏 찡그리고 귀를 막는 모습을 담았다. 북한 언론이 최고지도자 부부가 귀를 막는 사진을 특별히 선택해 실은 것은 초대형 방사포 등의 위력을 강조하려는 의도가 담긴 것으로 풀이된다. 리 여사는 북한이 3대 세습 정당화로 내세운 '백두혈통'의 상징인 백두산 백마 등정으로부터 '선대 수령'의 시신이 있는 금수산태양궁전 참배, 열병식 사열 등 주요 행사 때 남편과 동행했으나, 미사일을 발사하는 군사훈련 현장에 동행한 것은 이례적이다. 전문가들 사이에선 공직을 맡고 있지 않은 리 여사의 이례적 군사훈련 참관과 동행은 북한이 자신들의 핵능력에 대한 자신감을 표출함과 동시에, 이번 도발이 단순한 '시험발사' 수준을 넘어서는 군사행보임을 보여주기 위한 것이라는 평가가 나온다. 북한은 그에게 '여사' 또는 '동지'라는 호칭을 쓰며 퍼스트레이디의 지위를 확실히 했다. medialyt@newspim.com 2022-10-10 14:04 사진 "급매물도 아직 비싸"…내집마련 수요 아직 '머뭇' [서울=뉴스핌] 최현민 기자 = 부동산 시장 침체기로 집값이 하락세를 보이자 급매물이 쏟아지고 있지만 수요자들은 내집 마련에 선뜻 나서지 못하고 있다. 문재인 정부 기간 집값이 급등한 탓에 여전히 비정상적으로 높다는 인식이 많아서다. 최근 비교적 낮은 가격에 급매물이 나오고 있지만 이들 매물 역시 5년전 가격보다 70% 가량 높은 수준이다. 특히 당시 아파트를 살수 있었던 금액으론 현재 전세살이도 힘들다. 수천만원 호가를 내린 매물들이 외면받는 이유다. 내년까지 급매물은 지속적으로 늘어날 전망이 우세하다. 점차 시장에 급매물들이 쌓일 경우 집값이 더 낮아질 것이란 기대감에 매수 심리가 더욱 위축될 것으로 보인다. 10일 부동산업계에 따르면 시세보다 저렴하게 내놓는 급매물이 증가하고 있지만 정작 내집마련 수요를 비롯한 실수요들은 '버티기'를 지속하고 있는 중이다. [서울=뉴스핌] 김학선 기자 =서울 용산구 일대 아파트 모습. 2022.08.21 yooksa@newspim.com ◆ 5년전 아파트 매매 가능했던 금액, 올해는 전세살이도 어려워 최근 주택시장에는 가격을 비교적 큰 폭으로 낮춘 급매물이 나오고 있다. 집값의 바로미터가 되는 강남4구(강남·서초·송파·강동)도 예외는 아니다. 특히 1000세대 이상 대단지 아파트에서도 수억원이나 떨어진 급매물들이 속속 나오고 있다. 강남구 일원동 지역의 아파트 매매 매물은 294건으로 6개월 전 171건에 비해 71.9% 증가했다. 같은 기간 송파구 잠실동 지역의 매물 역시 557건에서 817건으로 46.6% 증가했다. 강동구 명일동(226건→323건)은 42.9%, 서초구 방배동(481건→641건)은 33.2% 증가했다. 하지만 정작 거래는 활발하게 이뤄지지 않고 있는 모양새다. 호가를 수천만원 내린 매물도 실수요자들에게 외면받고 있다. 문재인 정권이 출범한 2017년 이후 급등한 집값이 여전히 높기 때문이다. KB부동산에 따르면 지난달 기준 전국의 아파트 평균 매매가격은 5억5601만원이다. 이는 2017년 9월(3억2936만원) 대비 68.8% 높은 수치다. 올해 들어 집값이 하락세를 보이고 있지만 여전히 5년 전 가격과 비교하면 70% 가까이 높은 수준이다. 전세가격 역시 크게 올랐다. 전국의 아파트 평균 전세값은 2017년 9월 2억4063만원에서 지난달 3억3855만원으로 40.7% 증가했다. 당시 서울 아파트를 살 수 있던 금액으로는 5년이 지난 지금 전세살이도 어려워진 것이다. 같은기간 서울만 놓고 보면 아파트 평균 매매가격은 2배 가까이 올랐다. 2017년 6억3924만원이었던 서울 아파트 평균 매매가격은 5년만에 99.6% 증가한 12억7624만원으로 급등했다. 경기와 인천 역시 같은 기간 각각 87.2%, 74.9% 증가했다. 지방 5개 광역시(대전·대구·울산·부산·광주) 아파트 평균 매매가도 증가했다. 지난달 기준 매매가격은 3억9928만원으로 2017년(2억6522만원) 대비 50.5% 증가했다. [서울=뉴스핌] 윤창빈 기자 = 서울 송파구 공인중개사에 붙어있는 아파트 매매 시세표의 모습. 2022.02.11 pangbin@newspim.com ◆ "시세 대비 크게 낮은 급매물 거래…2017년 수준 하락 어려울 것" 자금 여력을 갖춘 실수요자의 경우 급매물 거래를 통해 내 집 마련에 나설 여지가 커진 상황이다. 다만 내년까지 금리인상 가능성이 있어 시세 대비해 크게 낮아진 매물만 간간히 거래될 가능성이 크다. 여경희 부동산R114 연구원은 "내 집 마련이 급한 실수요자들이 있어 시세 대비 10% 이상 하락한 매물들 가운데 굉장히 저렴한것 위주로만 꾸준히 거래가 될 것"이라며 "다만 내년 주택 경기도 어려울 것이라고 보는 시각이 있어 절대적으로 매수세가 크게 늘진 않을 것으로 전망된다"고 내다봤다. 여 연구원은 "그동안 집값이 많이 올랐지만 대출이 여의치 않은 부분이 있다"며 "수도권 같은 경우는 조정대상지역이나 투기과열지구로 묶여 있는 지역이 있다보니 지방보다 수요는 많은데 대출은 받기 어렵고, 가격은 더 높아 매수자들 진입장벽을 높이는 요인이 될 수 있다"고 설명했다. 그러면서 "금리 인상에 물가까지 오르는 상황에서 연소득을 한푼도 안쓰고 모아야 집한채를 살 수 있는 수준이 됐다"면서 "아직까지 매수하기에는 주택 가격이 심리적으로 높다고 인식될 수 있다"고 덧붙였다. 다만 2017년도 수준 정도까지 큰 폭으로 집값이 하락하긴 어려울 것이란 전망이 나온다. 여 연구원은 "우리나라 대부분 자산이 부동산 가운데서도 주택에 집중돼있다"면서 "2017년도 수준까지 하락한다면 대출 원리금 상환이 어려워진 하우스 푸어 등 사회적으로 문제가 되는 부분이 있을 것"이라고 말했다. min72@newspim.com 2022-10-10 06:01 尹대통령 지지율, '지지층 결집'에 0.8%p 소폭 반등 32% "美증시, 이번 어닝시즌에 더 떨어진다…애플 실적이 관건" [단독] 경찰 출석하는 박홍률 목포시장...공직선거법위반 혐의 피소 삼성전자 입주한 키이우 건물, 러 미사일에 피격 삼성바이오, 이르면 내일 4공장 가동…이재용 현장 방문 가능성 [주요포토] '하이서울패션쇼, '3년 만에 직관' 법제사법위원회의 감사원 국정감사 한글날 연휴 끝...쌀쌀한 출근길 코스피 2%대 급락, 원·달러 환율 20원대 급등 노동당 77주년 창건일, 고요한 북한 '서울을 달리다' 3년만에 열린 서울세계불꽃축제 안다 TV 영상 [영상] 유병호, '대통령실 문자 논란' 첫 해명..."송구하긴 하지만 정상적 의사소통" 투자직GAM 영상 [투자직감] ①쿠팡, 미국 공모주 물림의 법칙? 회사소개 주요상품 사업제휴 개인정보취급방침 청소년보호정책 고충처리제도 수용자권익보호위원회 이용약관 광고문의 페이스북 네이버 포스트 플립보드 카카오토픽 RSS 한국신문윤리위원회 서울시 영등포구 국제금융로 70, 미원빌딩 906호 편집국 : 02-761-4409 발행인 : 민병복 편집인 : 박승윤 뉴스핌통신등록번호 : 문화,나00032등록일자 및 발행일자 : 2018.3.22 뉴스핌등록번호 : 서울아00194등록일자 및 발행일자 : 2006.4.26 COPYRIGHT©NEWSPIM CO., LTD. ALL RIGHTS RESERVED. Top으로 이동</t>
+  </si>
+  <si>
+    <t>새전북신문 최종편집: 2022년10월10일 16:32 회원가입 Log in 최종편집: 2022년10월10일 16:32 About Contact 회원가입 Log in Home TOP NEWS 주요기사 전체기사 정치 사회 문화 경제 기획 독자투고 지면보기 지역뉴스 전주 익산 군산 정읍 김제 남원 완주 고창 부안 임실 순창 무주 진안 장수 Home TOP NEWS 주요기사 전체기사 정치 사회 문화 경제 기획 교육 독자투고 지역뉴스 전주 익산 군산 정읍 김제 남원 완주 고창 부안 임실 순창 무주 진안 장수 지면보기(PDF) Trending Now: 순창경찰서, 외국 선수단 교통안전 서비스 제공 호평 [부고] 이용수(전북일보 편집부장)씨 부친상 전북 철인3종 사상 첫 전국체전 종합우승 농민은 쌀값 폭락 자제값 인상에 한숨, 농협은 성과급 잔치 대중제골프장 입장료 크게 올라...규제 시급 함께 한 마지막 생일…무주 주택서 일가족 참변 국화꽃으로 가득한 치즈 축제장 "현대중, 군산 특수목적선 투자해주오" 2022년 2021년 2020년 2019년 2018년 2017년 2016년 2015년 2014년 2013년 2012년 2011년 2010년 2009년 2008년 2007년 2006년 2005년 2004년 2003년 2002년 2001년 2000년 “위드 코로나에 제주 관광객 1,000만명 넘어섰다” 제주도 부동산에 쏠리는 관심 지난해보다 한달 가량 빨라져… 위드 코로나로 여행 심리 되살아난 영향 지자체에서도 다양한 투자 아끼지 않아… 관광객 늘면서 제주도 부동산 관심 증가 기사 작성:  	양용현 - 2021년 11월 11일 13시44분 단계적 일상 회복을 뜻하는 '위드 코로나'로 여행 심리가 크게 되살아나면서 올해 제주 누적 관광객 수가 1,000만명을 돌파할 예정이다. 이에 따라 이들을 대상으로 임대 수익을 얻을 수 있는 제주도 부동산에 투자자들의 관심이 모아지고 있다. 제주도관광협회에 따르면, 올해 제주를 찾은 누적 관광객은 999만4,496명(7일 기준)인 것으로 나타났다. 1,000만명까지 5,504명 남은 셈이다. 최근 위드 코로나와 함께 여행 심리가 회복되면서 관광객이 늘어나고 있는 만큼 며칠 내 1,000만명을 넘어설 것으로 보인다. 신종 코로나바이러스 감염증(코로나 19)이 발생한 지난해 1,000만명을 넘어선 시점은 12월로 올해의 경우 한달 가량 빨라졌다. 이처럼 제주도를 찾는 관광객 수가 증가하자 지자체에서도 관광 인프라 개발을 위한 투자를 아끼지 않고 있다. 제주첨단과학기술 2단지와 같은 대규모 개발 호재가 예정돼 있고, 마리나 산업과 해양레저관광산업 개발 등 관광객 유치를 위해 다방면으로 힘을 쓰고 있는 상황이다. 해외 관광객 유입도 기대된다. 현재 제주 제2국제공항이 ‘제6차 공항개발 종합계획(안)’에 포함되어 사업을 추진 중이다. 서귀포시 성산읍 신산리 일대에 들어설 것으로 전망되는 가운데, 해외 관광객 유입과 함께 기존 제주국제공항의 포화 문제 해결할 수 있을 것으로 보인다. 제주도가 국내를 넘어 국제적인 관광도시로 발돋움하면서, 일대 부동산에 대한 관심도 덩달아 높아지고 있다. 한국감정원 청약홈에 따르면, 지난 4월 제주시 연동에서 분양한 ‘e편한세상 연동 센트럴파크1, 2단지’(대한항공 사택 재건축)는 204가구 물량(일반 공급)에 2,802명이 1순위 청약을 접수하며, 최고 49대 1, 평균 13.7대 1의 경쟁률을 기록했다. 한 부동산 전문가는 “전세계적으로 코로나 19 확산세가 줄어들고, 국내에서도 위드코로나로 여행 심리가 되살아났지만, 아직까지 해외여행은 부담스러운 것이 사실”이라며 “해외여행 대신 제주도로 발길을 돌리는 관광객이 점점 늘면서 제주도 부동산 시장에 관심을 가지는 수요자들이 증가하고 있는 중”이라고 전했다. 녹지그룹은 제주시 노형동에 위치한 ‘제주 드림타워 복합리조트’ 레지던스의 2차 분양을 진행 중이다. 이 리조트는 지하 6층~지상 38층, 2개 동, 전용면적 65~260㎡, 호텔·레지던스 등 총 1,600실로 구성된다. 현재 1개 동(그랜드 하얏트 제주 호텔, 750실)은 지난해 12월부터 운영 중이다. 금번 분양 물량은 1개 동, 레지던스 850실 중 2차 분인 130실로 스탠다드 스위트와 프리미어 스위트 2개 타입으로 구분된다. ‘제주 드림타워 복합리조트’는 기존 제주도에서 가장 높았던 롯데 시티 호텔(89m)보다 2배가량 높은 169m 규모인데다 연면적(30만3,737㎡)으로는 여의도 63빌딩의 1.8배에 이를만큼 메머드급 규모를 자랑한다. 제주시 연동 일대에서는 ‘스타레지스 연동’ 오피스텔이 이달 중에 분양한다. 단지는 지하 4층~지상 15층, 1개 동, 전용면적 44~84㎡, 총 140실 규모다. 반경 1㎞ 내에 노형오거리 중심상권과 신라면세점, 이마트, 롯데마트, 노형학원가, 제주한라병원 등의 편의시설이 위치하는 등 편리한 생활 인프라를 갖췄다. 테라스형 혁신설계와 게스트하우스, 호텔급 라이프 어메니티도 제공할 예정이다. 일호종합건설과 무궁화신탁은 제주시 한경면 청수리 일대에 위치한 ‘제주에듀 루치올라'를 분양 중이다. 단지는 지상 4층, 11개 동, 전용면적 84~116㎡, 총 99가구 규모다. 단지 내에는 입주민 편의를 더해주는 각종 커뮤니티 시설과 안전을 위한 주차관제, RF카드 등 첨단 보안시스템을 갖출 예정이다. /양용현 기자 전북을 바꾸는 힘! 새전북신문 *무단전재-재배포 금지 ■ 양용현 기자의 최근기사 순창경찰서, 외국 선수단 교통안전 서비스 제공 호평 메뚜기구이 체험하는 리틀와푸족 김성수 전북산악연맹 회장, 제21회 대한민국 산악상 특별공로상 수상 결혼 전주 효자1동 새마을부녀회, 이웃돕기 기금마련 행사 한국스카우트 전북연맹 “잼버리 지원조례 통과 환영” Leave a Comment 카카오톡 로그인을 통해 댓글쓰기가 가능합니다. 댓글등록 많이 보는 기사 1 [부고] 이용수(전북일보 편집부장)씨 부친상 2 전북 철인3종 사상 첫 전국체전 종합우승 3 농민은 쌀값 폭락 자제값 인상에 한숨, 농협은 성과급 잔치 4 대중제골프장 입장료 크게 올라...규제 시급 5 함께 한 마지막 생일…무주 주택서 일가족 참변 6 국화꽃으로 가득한 치즈 축제장 7 "현대중, 군산 특수목적선 투자해주오" 8 신영대 의원 “새만금방조제내측해상풍력사업은 문재인 정부와 전혀 무관한.. 9 한국농수산식품유통공사, 농수산식품 수출 확대 총력 지원체계 가동 10 5~29인 제조업체 75.5% 8시간 추가연장근로제 일몰 도래 시 대책 없어 행사 국화꽃으로 가득한 치즈 축제장 이희철 국감 앞두고 성과물 전시하는 농진청 직원들 이희철 떨어진 기온으로 두꺼운 옷 입은 시민들 이희철 알림 [부고] 이용수(전북일보 편집부장)씨 부친상 [부음] 정국진 · 엄정현 가정 3자녀 연년생 합동 생일잔치 [알림] 문동혁군♡브라운 킴벌린양 [결혼] 백찬빈군♡최지나양 [결혼] 결혼 [결혼] 전북 전주시 덕진구 백제대로 728 새전북신문 대표전화: 063-230-5700 팩스: 063-231-8327 청소년보호책임자: 권재현 고충처리인: 이종근 [고충처리] 명칭: 새전북신문 | 제호: 새전북신문 / SJBnews 종별: 일반일간신문 / 인터넷신문 | 간별: 일간 등록번호: 전라북도, 가00004 / 전라북도, 아00058 등록일: 2000.10.23 / 2012.03.06 발행인: 박명규 | 편집인: 박명규 새전북신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2019새전북신문 All rights reserved . Mail to APSUN@sjbnews.com | http://sjbnews.com ×</t>
+  </si>
+  <si>
+    <t>‘위드코로나’로 제주도 관광객 이번 주 1000만명 넘어선다 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; ‘위드코로나’로 제주도 관광객 이번 주 1000만명 넘어선다 파이낸셜뉴스입력 2021.11.07 17:41수정 2021.11.08 01:30 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 7일 겨울문턱…새별오름 억새군락지·한라산 단풍 절정올 들어 누적 관광객 14.4% 증가…연간 1200만명 기대 단계적 일상회복 시행 첫 휴일인 7일 오후 제주 한라산 어리목 1100도로 주변 활엽수가 오색 단풍으로 물들어 아름답다. 기상청에 따르면, 오는 10일 전국 대부분 지역에 비가 내린 후, 찬 공기가 점차 남하하면서 추운 날씨가 이어질 것으로 예측됐다. 2021.11.07. [뉴시스] [제주=좌승훈 기자] 정부가 이달부터 단계적 일상회복(위드 코로나) 전환을 시작한 가운데, 여행심리가 되살아나면서 제주를 찾는 관광객이 크게 늘고 있다. 제주도관광협회에 따르면, 이달 들어 6일까지 제주 여행객은 24만3232명(내국인 24만2347명·외국인 885명)으로 파악됐다. 이는 지난해 같은 기간의 23만6119명(내국인 23만4840명·외국인 232명)에 비해 3.0% 증가했다. 또 올 들어 이날까지 관광객은 지난해 같은 기간(870만2999명)에 비해 무려 14.4%나 증가한 995만4623명에 달한다. 지난 1일 4만400명, 2일 3만7331명, 3일 4만119명, 4일 4만2236명, 5일 4만2057명, 6일 4만1089명이 제주를 방문한 가운데, 이번 주 중 누적 관광객이 1000만명을 넘어설 전망이다. 협회 측은 이 같은 추세라면, 코로나19 이전인 2019년의 1352만명은 아니어도, 연간 1200만명 수준은 달성할 수 있을 것으로 기대하고 있다. 단계적 일상회복 시행 첫 주말을 앞둔 5일 오후 제주국제공항 1층 도착장에 가족과 친구·연인들의 발걸음이 이어져 붐비고 있다. 제주관광협회는 휴일인 6일과 7일에 하루 4만명이 넘는 관광객이 제주를 찾을 것으로 예상했다. 2021.11.05. [뉴시스] 한편 입동(立冬)인 7일 제주의 가을 풍경도 절정을 맞은 가운데, 억새 군락지로 유명한 새별오름·산굼부리·따라비오름의 은빛 물결과 단풍에 불타는 한라산을 만끽하려는 관광객들의 발길이 줄을 이었다. 마침 이날 장이 선 제주시 민속오일시장에도 도민과 관광객 행렬에 교통체증과 주차난이 벌어지기도 했다. 제주시 민속오일시장은 제주 농수산 특산물을 저렴하게 살 수 있는 곳이다. 하루 5만명이 드나들어 전국 재래시장 중 최대 규모라고 할 수 있다. 도민들이 가장 많이 찾는 시장이면서 공항과도 5분 이내 거리에 있어 관광객들의 발길도 꾸준히 늘고 있다. 한편 제주관광공사는 ‘위드코로나’ 전환에 맞춰, 기업과 학교·연구원 등을 겨냥해 만든 소규모 단체 여행객을 위한 연수 탐방 프로그램 '제주필드트립'을 만들었다. 사람·자연·문화·기업 등 제주를 구성하는 다양한 요소들을 총체적으로 연결한 가운데, 6가지 테마 별로 둘러볼 수 있는 장소와 가치를 담아 소개하고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도·하와이, ‘탄소중립·관광·수자원관리’ 교류협력 강화 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 정치 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 정치 &gt; 제주도·하와이, ‘탄소중립·관광·수자원관리’ 교류협력 강화 파이낸셜뉴스입력 2021.11.08 19:39수정 2021.11.08 19:39 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 도·도의회·제주연구원, 7일 영국 글레스고 COP26 개최지서 간담회 데이비드 하와이 주지사 “제주도와 자매결연 특별…적극 협력할 것” 7일 영국에서 열린 제주도와 미국 하와이 간 교류 확대 간담회. [제주=좌승훈 기자] 제주도와 미국 하와이주가 관광산업 활성화와 탄소중립 실천을 위한 협력을 강화한다. 제주도와 제주도의회·제주연구원은 지난 7일 유엔 기후변화 협약 당사국 총회(COP26)가 열리고 있는 영국 스코틀랜드 글래스고 소재 스트래스클라이드대 회의실에서 데이비드 이게(David Ige) 하와이 주지사와 면담하고, 지방정부 차원의 관광·탄소중립 분야 교류 확대 방안을 논의했다고 8일 밝혔다. 이날 면담에는 제주도 측에서 구만섭 제주지사 권한대행과 제주도의회 좌남수 의장·현길호 농수축경제위원장, 김상협 제주연구원장, 윤형석 도 미래전략국장 등이 참석했다. 하와이주에서는 데이비드 이게 주지사와 수잔 케이스 국토자원부 의장, 스콧 글렌 에너지청장, 아누크리티 히틀 기후변화대응위원 등이 함께했다. 7일 영국에서 열린 제주도와 미국 하와이 간 교류 확대 간담회 구만섭 권한대행은 이 자리에서 “제주와 하와이는 섬이라는 지리적 특성이 비슷하고, 관광산업 활성화와 수자원 보존·관리, 탄소중립 실천이라는 문제를 해결하기 위해 더욱 교류를 확대하고 긴밀히 협력해 나가야 한다”며 “관계부서 협력관 파견을 포함해 두 지역 간 다양한 분야에서 협력이 재개되기를 바란다”고 제안했다. 좌남수 의장은 “제주와 하와이는 1987년부터 교류를 시작했지만, 최근 코로나19 사태로 교류가 단절되면서 협력의 필요성이 더욱 강조되고 있다. 앞으로 탄소중립, 수산·수자원, 과잉관광 등의 분야에서 교류가 더욱 활성화됐으면 한다”고 밝혔다. 이에 대해 데이비드 주지사는 “기후변화 대응과 탄소중립, 관광산업 등 코로나19 이후에 발생할 사회적 문제 해결과 발전 방안에 대해 다양한 정책과 정보 공유가 이뤄질 수 있도록 적극 협력해 나가겠다”고 답했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>[전문] 제주도의회 예산안 심사 입장- 안창남 문화관광체육위원장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:58 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 제주도의회 예산안 심사 입장- 안창남 문화관광체육위원장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 [전문] 제주도의회 예산안 심사 입장- 안창남 문화관광체육위원장 편집팀 iheadline@hanmail.net 승인 2021.11.22 10:30 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 안창남 위원장. ⓒ헤드라인제주 문화관광 회생을 통한 도민희망·경제활력 주는 예산심사 되도록 할 것 내년도 예산편성 기조는 코로나 극복과 민생경제 회복입니다. 사상 처음으로 제주특별자치도 본예산 6조원 시대를 여는 만큼 코로나 장기화로 가장 피해가 컸던 문화관광분야에 있어 그동안의 침체를 딛고 도민들에게 희망을 줄 수 있도록 예산심사의 초점을 맞춰 나갈 것입니다. 도내 산업구조 중 문화관광을 포함한 서비스업 비중이 76%임을 감안할 때, 앞으로 도민의 일상회복과 직결된 문화관광분야에 재정을 집중 투자해 이를 회생시켜야만 도민들을 위로해 코로나 블루를 극복하고 침체된 지역경제를 살려 지역경제의 선순환 구조를 만들 수 있습니다. 이를 위해서는 내년도 문화관광예산은 위드 코로나 시대에서도 지속 가능하며 제주다운 문화예술 생태계 구축과 더불어 제주 관광산업의 체질 개선을 통한 질적성장을 뒷받침 할 수 있도록 예산편성이 전제되어야 합니다. 내년도 예산심사는 코로나로 인해 감액편성되었던 문화관광 예산의 충분한 회복과 집중투자 여부, 문화예술·체육·관광 진흥을 위한 사업의 타당성 검토, 예산 낭비나 관행적 편성사례 여부, 도민들에게 직접 혜택이 돌아갈 수 있도록 재정투입에 따른 파급효과도 집중 점검할 것입니다. 7기 마지막 예산심사를 앞둔 만큼, 예산이 제대로 된 정책실현의 수단이 될 수 있도록 지방재정의 건전성과 효율성 확보에 중점을 두고 보다 철저하고 꼼꼼히 예산심의를 해 나가겠습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 6 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 메가쇼 시즌2 참가 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:55 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 메가쇼 시즌2 참가 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, 메가쇼 시즌2 참가 김지우 기자 승인 2021.11.21 18:40 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주도관광협회(회장 부동석)는 지난 18일부터 21일까지 일산 킨텍스 제1전시장에서 개최된 메가쇼 2021 시즌2에 참가해 제주관광기념품 공모전 수상작 제조사의 현장 판매와 판로 개척, 홍보를 지원했다.김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주선수단, 전국체육대회 메달 목표 달성 3제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도의회, 관광 노동자 고용보장 촉구 결의안 채택 &lt; 제주특별자치도의회 소식 &lt; 정치일반 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도의회, 관광 노동자 고용보장 촉구 결의안 채택 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 정치일반 제주특별자치도의회 소식 제주도의회, 관광 노동자 고용보장 촉구 결의안 채택 기자명 진순현 기자 입력 2021.11.16 10:41 수정 2021.11.16 10:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 관광산업 종사자 안전한 근로환경 조성 마련해야 제주도의회가 코로나19 사태 장기화에 따른 관광산업 노동자 고용승계와 노동권 보장 등을 촉구하고 나섰다. 도의회 농수축경제위원회(위원장 현길호)는 제400회 정례회 농수축경제위 제1차 회의에서 ‘관광산업 노동자 고용보장 촉구 결의안’을 채택, 본회의에서 상정 의결했다고 16일 밝혔다. 최근 한진그룹이 칼호텔을 부동산 관련기업에 매각을 시도하고 있는 등 일부 관광산업장에서 종사자들의 고용승계와 노동권이 보장되지 않는 상황에서 매각 및 인력 구조조정이 이루어지고 있어 노·사간 갈등이 빚어지고 있다. 그 과정에서 칼호텔에 종사하는 제주도민이 일자리를 잃게 되는 상황에 도민사회가 심각한 우려를 표하고 있다. 결의안에는 제주지역 관광산업 관련 기업들은 근로자 노동권 보장이 이루어지지 않는 매각이나 인력 구조조정 시도를 재고해 사회적 책임을 다할 것을 촉구하고 있다. 또한 정부와 제주도는 관리 감독권 활용, 제도개선 등으로 관광산업에 종사하는 제주도민의 고용안정을 위한 비상 대책을 수립하도록 했다. 진순현 기자 jinjin3808@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>묘산봉관광지 개발사업 시행변경안 제주도에 제출 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이묘산봉관광지 개발사업 시행변경안 제주도에 제출 홍수현2021년 11월 17일 00시 00분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 도내 최대규모 관광단지인 묘산봉관광지 개발사업이 재추진되면서 관심이 쏠리고 있습니다.제주도에 따르면 사업자인 한라그룹측은 올해 말로 끝나는 사업기간을 연장해달라며 개발사업 시행변경안을 제출했습니다.묘산봉 관광지는 466만 제곱미터 부지에 골프장과 휴양콘도만 완공된 뒤 중단됐는데 한라그룹은 리조트 전문 운영사와 개발을 논의 중인 것으로 알려졌습니다. 홍수현michael1116@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초묘산봉관광지 개발사업 시행변경안 제주도에 제출 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>제주도, 코로나19 이후 섬 관광 대응 모색 국제정책 세미나 열어 닫기 전체기사 최신뉴스 GAM 라씨로 영상 영상 포토 포토 정치 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사회 사건·사고 법원·검찰 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 글로벌 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 중국 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 산업 재계·경영 전기·전자 자동차 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 증권·금융 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 부동산 정책 건설 분양 수익형부동산 전국 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화·연예 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 스포츠 해외스포츠 국내스포츠 축구 야구 골프 오피니언 오피니언 회사소개 CEO 인사말 뉴스핌은 주요상품 가치·철학 발자취 조직도 윤리강령 찾아오시는 길 사업·광고문의 사업제휴 광고문의 유료서비스 유료안내 결제서비스 안내 환불정책 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일주소수집거부 저작권규약 고충처리제도 수용자권익보호위원회 회원 로그인 아이디·비밀번호찾기 회원가입 로그인 뉴스핌제보 닫기 검색 패밀리 사이트 뉴스핌통신 PLUS 월간 ANDA 中文 안다쇼핑 ANDA 뉴스 닫기 전체메뉴 영상 포토 정치 경제 사회 글로벌 중국 산업 증권·금융 부동산 전국 문화·연예 스포츠 오피니언 #GAM #라씨로 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사건·사고 법원·검찰 로펌 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 재계·경영 전기·전자 자동차 ESG 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 정책 건설 분양 수익형부동산 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 해외스포츠 국내스포츠 축구 야구 골프 홈 전국 지자체 속보 배터리 핵심소재 '동박' 시장 놓고 '롯데 vs SK' 주도권 싸움[영상] 이복현 금감원장 "도이치모터스 관련 경찰에 자료 요청 오지 않았다"큐브엔터, (여자)아이들 미니 5집 'I love' 선주문 70만장 돌파코웨이, KCSI 조사 침대·정수기 만족도 1위제주 도내 사회적경제기업 총 638개소…제주도 "맞춤형 지원"[부고] 지영흔(하나은행 홍보팀장)씨 부친상에이프로젠, 휴미라 바이오시밀러 특허 출원...생산성 증대삼성전자, 웰스토리 검찰 압수수색 불복 준항고 취하안실련ᐧ자살예방 시트백커버 1800세트 전국모범운전자연합회 기증 시티랩스, '그리고'에 국내 최초 운전면허 명의도용 방지 안면인증 솔루션 공급이엔플러스, 2차전지 양산 핵심설비 반입 완료…"내년 양산 준비 순항"안성 한 지역농협서 5억원 빼돌린 직원 자수...검찰 송치[국감] 송석준 "토스·카카오페이 등 선불충전 악용 보이스피싱 4년간 310배 폭증"3분기, 국내 기업 자금조달 250조9000억원…전년比 22.2%↓[국감] 정청래 "尹대통령, 디지털 키우겠다면서 예산은 삭감? 앞뒤 안맞아"[국감] 덕수궁 석조전 대한제국역사관, 국립박물관이지만 "유물 구입비 전무"신라젠, 내일 상폐여부 결정...17만 개미 운명은?[속보] 대전경찰청, '대전 화재' 관련 현대백화점그룹 본사 압수수색 [국감] 이복현 금감원장 "보험사 GA 설립 시 부당행위 면밀히 보겠다"금투협회 21일 차기 회장 선임 본격화... 서명석·전병조 등 5인 거론 더보기 제주도, 코로나19 이후 섬 관광 대응 모색 국제정책 세미나 열어 기사입력 : 2021년11월01일 18:09 최종수정 : 2021년11월01일 18:09 카카오톡 페이스북 트위터 카카오스토리 밴드 가 + 가 - 프린트 [제주=뉴스핌] 변준성 기자 = 제주특별자치도와 제주관광공사가 오는 4~5일 제주시 해안동 소재 캠퍼트리호텔에서 제5회 ITOP포럼 국제정책 세미나를 개최한다. 1일 도에 따르면 '포스트 코로나 시대, 섬 관광이 나아가야 할 길을 묻다'를 주제로 진행되는 이번 세미나는 코로나19 이후 섬 관광지의 대응방안을 모색하기 위해 마련됐으며 세계관광기구(UNWTO)가 참여해 제주의 글로벌 인지도가 확대될 것으로 기대하고 있다. [제주=뉴스핌] 변준성 기자 = 1일 제주국제공항에 입도한 관광객 한 가족이 여장을 정리하고 있는 모습  2021.11.01 tcnews@newspim.com 이 자리에서 세계관광기구 추천으로 스페인 카나리아제도의 관광차관 및 관광위원회 CEO를 역임했던 '욜란다 페르도모' 수석 관광전략가가 기조 강연을 한다. 제1세션은 '빅데이터를 기반으로 한 위드 코로나시대의 안전한 관광'을 주제로 풀킷 람바 구글 매니저와 박상원 경희대 교수가 주제 발표한다. 이어 최규환 한국관광학회 부회장을 좌장으로 김누리 세계관광기구 아태지부국 서기관, 이권수 한국문화정보원 부장, 윤형석 도 미래전략국장, 김영미 한국관광공사 관광빅데이터실장이 패널로 참여한다. 제2세션은 ITOP 포럼 회원지역인 제주도·인도네시아 발리·중국 하이난성·스리랑카 남부주 관계자의 각 지역 상황과 대응정책 발표에 이어 홍성화 제주관광학회장을 좌장으로 황해국 세계관광기구 아태지부국장과 박재아 태평양관광기구 한국지사장이 토론에 나선다. 세미나는 유튜브를 통해 실시간 생중계될 예정이며, 일반인 참가자는 온·오프라인으로 참여 가능하다. 김승배 도 관광국장은 "향후 ITOP 포럼과 국제정책세미나 위상강화를 위해 세계관광기구와 긴밀하게 협의해 나가겠다"고 밝혔다. tcnews@newspim.com GAM - 해외주식 투자 도우미 [김특의 뇩멍] 스벅보다 싸고 던킨보다 맛있는 커피를 먹다 5년 새 주가 10배, 외국인이 쓸어 담는 화장품 기대주 '프로야' 라씨로 - 국내주식 투자 도우미 범한퓨얼셀, 지상 모빌리티용 연료전지 사업 확장..."글로벌 시장 확대 수혜" 코난테크놀로지, 16년 투자한 SK커뮤니케이션즈…락업 물량 20% 풀린다 [뉴스핌 베스트 기사] 사진 北 리설주, 김정은과 군사훈련 '이례적' 동행…핵무력 자신감 표출 [서울=뉴스핌] 이영태 기자 = 북한 김정은 노동당 총비서 겸 국무위원장 부인 리설주 여사가 김 위원장이 직접 지휘했다는 지난 보름간의 북한의 탄도미사일 시험발사 현장에 모습을 드러낸 것으로 10일 확인됐다. 북한 관영 조선중앙통신과 조선노동당 기관지 노동신문은 노동당 창건 77주년 기념일인 이날 "경애하는 김정은 동지께서 조선인민군 전술 핵운용 부대들의 군사훈련을 지도했다"면서 김 위원장이 북한군 전술핵운용부대·장거리포병부대·공군비행대의 훈련을 직접 지휘했다고 보도했다. 북한 김정은 국무위원장 부인 리설주 여사가 지난달 29일부터 보름간 진행된 전술핵운용부대 군사훈련을 김 위원장과 함께 참관했다고 북한 노동신문과 조선중앙통신이 10일 보도했다. 리 여사는 지난 2013년 6월과 2016년 12월 김 위원장의 공군 부대 훈련 참관에 동행한 바 있다. 2022.10.10 [사진=노동신문] 북한 언론들은 기사와 함께 리 여사가 김 위원장과 둘이서 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 사진 한 장을 공개했다. 사진은 KN-25가 점화되는 순간에 촬영된 듯 김 위원장은 왼손에 담배 한 개비를 들고 얼굴을 살짝 일그러뜨린 채 엄지손가락으로 귀를 막고 있고, 리 여사 역시 바로 옆에서 표정을 한껏 찡그리고 귀를 막는 모습을 담았다. 북한 언론이 최고지도자 부부가 귀를 막는 사진을 특별히 선택해 실은 것은 초대형 방사포 등의 위력을 강조하려는 의도가 담긴 것으로 풀이된다. 리 여사는 북한이 3대 세습 정당화로 내세운 '백두혈통'의 상징인 백두산 백마 등정으로부터 '선대 수령'의 시신이 있는 금수산태양궁전 참배, 열병식 사열 등 주요 행사 때 남편과 동행했으나, 미사일을 발사하는 군사훈련 현장에 동행한 것은 이례적이다. 전문가들 사이에선 공직을 맡고 있지 않은 리 여사의 이례적 군사훈련 참관과 동행은 북한이 자신들의 핵능력에 대한 자신감을 표출함과 동시에, 이번 도발이 단순한 '시험발사' 수준을 넘어서는 군사행보임을 보여주기 위한 것이라는 평가가 나온다. 북한은 그에게 '여사' 또는 '동지'라는 호칭을 쓰며 퍼스트레이디의 지위를 확실히 했다. medialyt@newspim.com 2022-10-10 14:04 사진 "급매물도 아직 비싸"…내집마련 수요 아직 '머뭇' [서울=뉴스핌] 최현민 기자 = 부동산 시장 침체기로 집값이 하락세를 보이자 급매물이 쏟아지고 있지만 수요자들은 내집 마련에 선뜻 나서지 못하고 있다. 문재인 정부 기간 집값이 급등한 탓에 여전히 비정상적으로 높다는 인식이 많아서다. 최근 비교적 낮은 가격에 급매물이 나오고 있지만 이들 매물 역시 5년전 가격보다 70% 가량 높은 수준이다. 특히 당시 아파트를 살수 있었던 금액으론 현재 전세살이도 힘들다. 수천만원 호가를 내린 매물들이 외면받는 이유다. 내년까지 급매물은 지속적으로 늘어날 전망이 우세하다. 점차 시장에 급매물들이 쌓일 경우 집값이 더 낮아질 것이란 기대감에 매수 심리가 더욱 위축될 것으로 보인다. 10일 부동산업계에 따르면 시세보다 저렴하게 내놓는 급매물이 증가하고 있지만 정작 내집마련 수요를 비롯한 실수요들은 '버티기'를 지속하고 있는 중이다. [서울=뉴스핌] 김학선 기자 =서울 용산구 일대 아파트 모습. 2022.08.21 yooksa@newspim.com ◆ 5년전 아파트 매매 가능했던 금액, 올해는 전세살이도 어려워 최근 주택시장에는 가격을 비교적 큰 폭으로 낮춘 급매물이 나오고 있다. 집값의 바로미터가 되는 강남4구(강남·서초·송파·강동)도 예외는 아니다. 특히 1000세대 이상 대단지 아파트에서도 수억원이나 떨어진 급매물들이 속속 나오고 있다. 강남구 일원동 지역의 아파트 매매 매물은 294건으로 6개월 전 171건에 비해 71.9% 증가했다. 같은 기간 송파구 잠실동 지역의 매물 역시 557건에서 817건으로 46.6% 증가했다. 강동구 명일동(226건→323건)은 42.9%, 서초구 방배동(481건→641건)은 33.2% 증가했다. 하지만 정작 거래는 활발하게 이뤄지지 않고 있는 모양새다. 호가를 수천만원 내린 매물도 실수요자들에게 외면받고 있다. 문재인 정권이 출범한 2017년 이후 급등한 집값이 여전히 높기 때문이다. KB부동산에 따르면 지난달 기준 전국의 아파트 평균 매매가격은 5억5601만원이다. 이는 2017년 9월(3억2936만원) 대비 68.8% 높은 수치다. 올해 들어 집값이 하락세를 보이고 있지만 여전히 5년 전 가격과 비교하면 70% 가까이 높은 수준이다. 전세가격 역시 크게 올랐다. 전국의 아파트 평균 전세값은 2017년 9월 2억4063만원에서 지난달 3억3855만원으로 40.7% 증가했다. 당시 서울 아파트를 살 수 있던 금액으로는 5년이 지난 지금 전세살이도 어려워진 것이다. 같은기간 서울만 놓고 보면 아파트 평균 매매가격은 2배 가까이 올랐다. 2017년 6억3924만원이었던 서울 아파트 평균 매매가격은 5년만에 99.6% 증가한 12억7624만원으로 급등했다. 경기와 인천 역시 같은 기간 각각 87.2%, 74.9% 증가했다. 지방 5개 광역시(대전·대구·울산·부산·광주) 아파트 평균 매매가도 증가했다. 지난달 기준 매매가격은 3억9928만원으로 2017년(2억6522만원) 대비 50.5% 증가했다. [서울=뉴스핌] 윤창빈 기자 = 서울 송파구 공인중개사에 붙어있는 아파트 매매 시세표의 모습. 2022.02.11 pangbin@newspim.com ◆ "시세 대비 크게 낮은 급매물 거래…2017년 수준 하락 어려울 것" 자금 여력을 갖춘 실수요자의 경우 급매물 거래를 통해 내 집 마련에 나설 여지가 커진 상황이다. 다만 내년까지 금리인상 가능성이 있어 시세 대비해 크게 낮아진 매물만 간간히 거래될 가능성이 크다. 여경희 부동산R114 연구원은 "내 집 마련이 급한 실수요자들이 있어 시세 대비 10% 이상 하락한 매물들 가운데 굉장히 저렴한것 위주로만 꾸준히 거래가 될 것"이라며 "다만 내년 주택 경기도 어려울 것이라고 보는 시각이 있어 절대적으로 매수세가 크게 늘진 않을 것으로 전망된다"고 내다봤다. 여 연구원은 "그동안 집값이 많이 올랐지만 대출이 여의치 않은 부분이 있다"며 "수도권 같은 경우는 조정대상지역이나 투기과열지구로 묶여 있는 지역이 있다보니 지방보다 수요는 많은데 대출은 받기 어렵고, 가격은 더 높아 매수자들 진입장벽을 높이는 요인이 될 수 있다"고 설명했다. 그러면서 "금리 인상에 물가까지 오르는 상황에서 연소득을 한푼도 안쓰고 모아야 집한채를 살 수 있는 수준이 됐다"면서 "아직까지 매수하기에는 주택 가격이 심리적으로 높다고 인식될 수 있다"고 덧붙였다. 다만 2017년도 수준 정도까지 큰 폭으로 집값이 하락하긴 어려울 것이란 전망이 나온다. 여 연구원은 "우리나라 대부분 자산이 부동산 가운데서도 주택에 집중돼있다"면서 "2017년도 수준까지 하락한다면 대출 원리금 상환이 어려워진 하우스 푸어 등 사회적으로 문제가 되는 부분이 있을 것"이라고 말했다. min72@newspim.com 2022-10-10 06:01 尹대통령 지지율, '지지층 결집'에 0.8%p 소폭 반등 32% "美증시, 이번 어닝시즌에 더 떨어진다…애플 실적이 관건" [단독] 경찰 출석하는 박홍률 목포시장...공직선거법위반 혐의 피소 삼성전자 입주한 키이우 건물, 러 미사일에 피격 삼성바이오, 이르면 내일 4공장 가동…이재용 현장 방문 가능성 [주요포토] '하이서울패션쇼, '3년 만에 직관' 법제사법위원회의 감사원 국정감사 한글날 연휴 끝...쌀쌀한 출근길 코스피 2%대 급락, 원·달러 환율 20원대 급등 노동당 77주년 창건일, 고요한 북한 '서울을 달리다' 3년만에 열린 서울세계불꽃축제 안다 TV 영상 [영상] 유병호, '대통령실 문자 논란' 첫 해명..."송구하긴 하지만 정상적 의사소통" 투자직GAM 영상 [투자직감] ①쿠팡, 미국 공모주 물림의 법칙? 회사소개 주요상품 사업제휴 개인정보취급방침 청소년보호정책 고충처리제도 수용자권익보호위원회 이용약관 광고문의 페이스북 네이버 포스트 플립보드 카카오토픽 RSS 한국신문윤리위원회 서울시 영등포구 국제금융로 70, 미원빌딩 906호 편집국 : 02-761-4409 발행인 : 민병복 편집인 : 박승윤 뉴스핌통신등록번호 : 문화,나00032등록일자 및 발행일자 : 2018.3.22 뉴스핌등록번호 : 서울아00194등록일자 및 발행일자 : 2006.4.26 COPYRIGHT©NEWSPIM CO., LTD. ALL RIGHTS RESERVED. Top으로 이동</t>
+  </si>
+  <si>
+    <t>제주도개발심위 ‘심의 부결’...오라관광단지 사실상 ‘좌초’ &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도개발심위 ‘심의 부결’...오라관광단지 사실상 ‘좌초’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도개발심위 ‘심의 부결’...오라관광단지 사실상 ‘좌초’ 기자명 진순현 기자 입력 2021.11.03 10:33 수정 2021.11.03 10:58 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주 역대 최대규모 ‘지본 검증’ 문턱 못 넘어 제주미래비전 가치 실현 등 종합적으로 ‘부적합’ 오라관광단지 조감도 제주 역대 최대 규모의 오라관광단지 개발사업이 ‘자본검증’ 등의 문턱을 넘지 못하면서 사실상 좌초됐다. 제주특별자치도는 어제(2일) 열린 개발사업심의위원회서 '제주오라관광단지 조성 사업 개발사업'에 대해 심의를 부결했다고 3일 밝혔다. 심의위는 지난해 7월 위원회 요구에 따라 재수립된 사업계획이 기존 사업 내용과 크게 다르지 않다고 지적했다. 특히 △사업자의 투자 적격성 △투자계획 및 재원 확보의 적정성 △제주미래비전 가치 실현 등 종합적으로 부적합하다고 부결 이유를 밝혔다. 중국자본이 투자하는 오라관광단지 사업은 그 동안 대표적인 중산간 난개발 사업으로 환경단체 등의 반발이 거세게 일었다. 그러나 1999년부터 논의되어 온 오라관광단지 사업은 여러 차례 사업시행자가 변경되면서 지연돼 오다 2015년부터 현재의 사업자(JCC(주))가 재추진했다. 사업 첫 2015년부터는 경관, 도시계획, 교통, 도시건축, 환경영향 분야에 대한 심의·평가를 거쳐 왔으나, 대부분 절차에서 재검토·수정이 요청되거나 조건부 통과돼 왔다. 이에 2017년 6월 도의회는 '자본검증' 등을 위한 금융·회계·투자·법률 전문가들로 구성된 자본검증위원회의가 사업자의 투자 적격성과 자본조달 가능성을 검증한 결과, 자본조달 능력에 대한 소명이 미흡하고 외부로부터 투자자금 조달도 불확실하며 관광사업과 해외 직접투자사업 경험이 없다고 판단해 사업자가 당초 6조원의 사업에서 4조4000억원으로 축소했으며, 지난해 7월 31일 열린 4시간 동안 도개발심의위원회 회의를 벌인 끝에 오라관광단지개발사업에 대해 '재검토' 결론을 내린바 있다. 결국 두 번째 심의회 부결로 인해 2015년 개발사업승인신청으로 시작된 오라관광단지 개발사업은 6년만에 완전히 종료됐다. 앞으로 사업자가 해당 사업을 재개하기 위해서는 모든 행정절차를 처음부터 다시 밟아야 한다. 한편 오라관광단지는 제주시 오라동 357만여㎡(100만여평)에 중국자본 JCC(주)가 4조4000억원을 투입해 제주 최대 규모의 숙박시설(3570실)과 상업시설, 회의시설, 테마파크, 골프장 등을 짓는 제주 최대 규모의 복합관광단지 조성 사업이다. 진순현 기자 jinjin3808@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광객 1000만명 돌파...1일 4만명 수준 회복 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:58 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광객 1000만명 돌파...1일 4만명 수준 회복 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 관광객 1000만명 돌파...1일 4만명 수준 회복 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2021.11.09 17:50 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 올들어 제주도를 찾은 관광객이 누적 1000만명을 넘어섰다. 9일 제주도관광협회에 따르면, 지난 8일까지 제주를 방문한 관광객은 내국인 999만 2336명, 외국인 4만 1394명 등 총 1003만 3730명에 이른다. 이는 지난해 같은 기간과 비교해 14.2% 증가한 규모이나, 코로나19 이전인 2019년과 비교해서는 여전히 크게 밑돌고 있다. 지난해 2월 코로나19 상황 이후 제주국제공항의 국제선 운항이 전면 중단된 상태여서 외국인 관광객의 집계는 큰 의미를 두기 어렵지만, 최근 내국인 입도객이 4만명대로 회복되고 있다는 점이 주목된다. 11월부터 코로나19 방역수칙이 '위드 코로나'의 단계적 일상회복 체제로 전환되면서 입도객은 점차 증가할 것으로 전망된다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 6 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>아난티·한라홀딩스, 제주도 묘산봉 관광단지 리조트 개발 ‘맞손’ 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 11일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 특징주 디지털화폐 이재명 테슬라 G6 e 경제 이데일리 로봇 단독 증권 주식 종목 펀드 국제시황 팜이데일리 마켓in 스냅타임 아난티·한라홀딩스, 제주도 묘산봉 관광단지 리조트 개발 ‘맞손’ 등록 2021-11-08 오후 5:08:54 수정 2021-11-08 오후 5:08:54 가 가 유준하 기자 기자구독 페이스북 트위터 메일 프린트 스크랩 url복사 [이데일리 유준하 기자] 아난티(025980)는 한라홀딩스(060980)와 제주도 묘산봉 관광단지 내 리조트 개발사업에 대한 업무협약서(MOU)를 체결했다고 8일 공시했다. 주요뉴스 똥값 된 금(金)값…이젠 금 사도 되지 않을까 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 선우은숙, 4살 연하 유영재 아나운서와 재혼 혼인신고 마쳐 [공식] 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 실시간급상승 뉴스 1전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2선우은숙, 4살 연하 유영재 아나운서와 재혼 "혼인신고 마쳐" [공식] 3"저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 4[누구집]남궁민 7년 열애끝 웨딩마치, 신혼집은? 53선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 카드뉴스[카드뉴스] 2022년 10월 11일 오늘의 운세 오늘의포토 왼쪽 오른쪽 [포토]'인사하는 정진석-주호영' [포토] 살 맛나는 가격 60% 할인 [포토] 2022 제약바이오 채용박람회 개막식 [포토]필리핀 복싱 영웅 파키아오의 미소 [포토]깊어가는 가을을 즐기세요! [포토]'국정감사 출석하는 최재해 감사원장' [포토]간담회에서 발언하는 김현숙 여가부 장관 [포토]오세훈 시장, 2022 서울워크에서 청년들과 '토크 콘서트' [포토]대체공휴일에 열린 집회 [포토]건강한마당, 댄스 배우는 시민들 소셜 댓글by LiveRe 많이 본 뉴스 뉴스 증권 연예 1 전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2 그녀의 비밀계약… 90년대 ‘강남 큰손’ 조춘자의 거짓말이었다 3 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 4 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 5 '월급 500만원' 아이엠 택시기사 "콜·예약 시스템으로 수익 다변화" 6 대통령 직접 방문했지만…국공립 어린이집 예산 19% 삭감 7 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 8 인터넷 포털에서 ‘윤석열차’ 검색해 봤더니… 9 송가인, 목포콘서트→팬미팅 '바쁘다 바빠' 10 “키스 5단계는” “치마 짧으면...”..선생님이 이런 농담을 1 삼성전자마저…코스피, 3분기 실적 대참사 시작되나 2 "금리 급등하는 지금이 적기" vs "섣불리 덤볐다가 큰코다쳐" 3 스팩합병 전성시대…역대급 흥행에 덩치 커진다 4 글로벌 기업들 ESG 속도 내는데 G에 발묶인 한국 5 KPMG, '아시아 최우수 리스크 컨설팅펌' 선정 6 [미리보는 이데일리 신문] 수리남 제작사도 참패…고금리에 기업 돈줄 마른다 7 HLB생활건강 "새치 커버 샴푸에 논란중인 염모제 성분 없어" 8 美 CFA협회 "ESG 자격증 도입, 韓 거버넌스 개선 기대" 9 김태현 국민연금 이사장 "공모주 기계적 투자, 수정 여부 검토할 것"[2022국감] 10 [뉴스새벽배송]월가 황제 “S&amp;P 3000선 붕괴”…미 증시 또 약세 1 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 2 임창정·서하얀, 고급 빌라서 아파트로… "이사만 7번째" 3 '역설의 장미'…장밋빛에도 저마다 사연이 있다 [e갤러리] 4 [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' 5 선우은숙, 유영재와 재혼 소식에 전 남편 이영하 반응은? 6 '작은 아씨들' 김고은, 10월 배우 브랜드 평판 1위 7 공효진♥케빈오 11일(현지시간) 뉴욕 결혼식…정려원·엄지원 미국行 8 '얼죽연' 최시원, 장난→진중 퍼펙트 남사친 열연…역시 '로코' 장인 9 '아바드림' 오승근, 故 김자옥과 생사초월 듀엣 감동 10 '고딩엄빠2' 19세 엄마 김가연, 4세 딸 발달 장애 검사 결과에 '오열' 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 알지노믹스, 간암 치료제 美FDA 임상시험계획 승인 퓨쳐켐, 전립선암 치료제 'FC705' 멕시코 특허 취득 에이비엘바이오, 암 단백질 'B7-H3' 타깃 단독항체 일본 특허 취득 지씨씨엘 "당화혈색소측정 'NGSP' 최고 레벨 획득" 코아스템 “자사 루게릭병 치료제, 대조군比 생존기간 5.6년 길어”...FDA 통과 ‘청신호’ 스무살의 설레임 스냅타임 왼쪽 오른쪽 유튜브 고유 아이디 ‘핸들’ 기능 추가...이름쟁탈전 벌어질까 2022년 10월 11일 오늘의 운세 2022년 10월 10일 오늘의 운세 경기도, 도민과 함께 576돌 ‘한글아 놀자’ 행사 ‘고딩엄빠’는 환상, 이 잔인한 통계를 보라 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 이제부터가 진짜 하락장이다 JW중외제약, 1500억 혈우병 치료제 시장 통째로 삼킨다 아름다운 빛으로 풀어낸 정조의 꿈 수원, 정조의 발자취를 따라서 1기 신도시 마스터플랜이 뭐길래 두근두근 핫포토 우승 가자! '드레스를 조심해' 남다른 주먹 北 전술핵운용부대 왼쪽 오른쪽 나이스 샤아앗~ㅣ골프in [포토]박민지 '시즌 5승 만들어준 볼입니다' 당신의 드림카는?ㅣ오토in 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 왼쪽 오른쪽 이슈기획 ㅣ 2022 국정감사 문화재 보존구역 소송 25건…"허술한 관리" 지적[2022 국감] 이슈기획 ㅣ 금리 인상 여파 "한은 금통위, 10월 이어 11월도 빅스텝 나설 듯" 이슈기획 ㅣ 집값, 폭락 vs 그래도 상승? 수억씩 `뚝뚝`…부동산 한파에 뉴타운도 ‘악’ 소리 이슈기획 ㅣ 尹 대통령 비속어 파문 尹대통령 “그냥 먹어도 되나?”… 김남국 “큰형님 마냥 습관적 반말” 이슈기획 ㅣ 신당역 역무원 피살 사건 '신당역 스토킹 살인' 전주환, 오는 18일 재판절차 시작 오늘의 주요 기사 똥값 된 금(金)값…이젠 금 사도 되지 않을까 아이폰은 왜 갤럭시로 충전 못하나요[궁즉답] [단독] KB국민은행 알뜰폰, SKT 망까지 쓴다…금융+통신 가속화 .실리콘밸리서 가장 부유한 러시아인, 러 시민권 포기 .선우은숙, 유영재와 재혼 소식에 전 남편 이영하 반응은? .“사는 게 힘들어서…” 어린 자녀 살해 후 극단 선택한 엄마들 .문화재청 4명중 1명, 청와대 행사 동원…"업무 부담" 비판 .北 대형 잠수함 개발 실패했나…유례없는 '저수지 수중 발사' .이재명, 한미일 군사훈련에 "국방 참사이자 안보 자해행위"(종합) 알립니다 2022년 하반기 경력기자 모집 제9회 이데일리 사진공모전 당선작 안내 이데일리 주식회사 제22기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - 포스코아르헨티나, 2단계 염수리튬 사업 개시…1.5조원 투자 - 한국조선해양, 연료전지 대형선박 실증 나선다 - 한국조선해양, 오세아니아 지역서 LNG선 3486억원에 수주 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>제주도의회, '제주관광기념품 시장 활성화를 위한 제주천연염색산업 육성 방안' 용역결과보고회 주메뉴 바로가기 본문 바로가기 2022.10.07 (금) 카카오채널 RSS 모바일보기 흐림서울 14.8℃ 비제주 17.3℃ 흐림고산 16.8℃ 흐림성산 15.7℃ 비서귀포 16.3℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도의회, '제주관광기념품 시장 활성화를 위한 제주천연염색산업 육성 방안' 용역결과보고회 서유주 기자 news@jejutwn.com 등록 2021.11.10 16:07:36 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제10차 '제주관광 미래성장 포럼' [제주교통복지신문 서유주 기자] 제주관광 미래성장포럼 대표 오영희의원(국민의힘, 비례)은 10일 오전 11시 제주도의회 의원회관 1층 대회의실에서 “‘제주천연염색산업의 새로운 두드림과 도전’을 주제로 제10차 정책토론회를 개최함과 동시에 『제주관광기념품 시장 활성화를 위한 제주천연염색산업 육성 방안』용역 결과보고회를 갖게 됐다”고 밝혔다. 오영희 대표는 “제주관광기념품 시장은 연간 2조 원이 넘는 잠재력이 풍부한 시장으로 잠재시장을 효율적으로 공략하기 위해서는 제주관광기념품 시장과 제주천염염색의 현황 및 실태분석이 우선 이루어져 한다”고 하면서 “염색산업의 지속적인 경쟁력 강화와 지역연고산업으로 육성이 필요하다”고 강조했다. 이날 용역보고진은 관광산업의 동향과 관광기념품 시장의 현황에서 2020년 내국인 관광객들의 제주여행의 주요활동으로 식도락, 맛집여행(98.4%), 자연경관감상(90.3%), 쇼핑(86.6%) 순으로 나타나고 있다고 했으며, 관광산업 성장의 중요한 요소인 관광만족도와 재방문율 제고의 기대효과가 있다고 했다. 또한 제주지역산업의 균형발전과 고용창출, 지역소득 환류가 가장 높아 지역경제활성화 기여, 제주이미지 제고와 홍보 효과 증대, 제주지역문화의 전승과 지역산업 발전에 기여하는 것으로 기대효과를 분석했다. 제주천연염색업체 현황에서 2021년 9월 6일부터 10월 15일까지 천연염색업체 37곳을 대상으로 대면조사, 방문, 전화조사를 병행한 결과, 2010년대 설립한 업체가 16개소로 43.3%를 차지하고 있으며, 2000년대 10개소, 1990년대 5개소 순으로 나타났다. 제주천연염색업체의 주요 수익모델은 완제품 생산업체가 35개(94.6%)로 가장 많았으며, 체험 및 교육 23개 업체(62.2%), 원단판매 12개 업체(32.4%), 반제품 생산 판매 7개 업체(18.9%), 염료제조 판매 6개 업체(16.2%)순으로 나타났다. 제주지역 천연염색업체들은 감물염료 천연염색의 우수한 항균성에 기반을 두고 있어 제주의 경우 타 지역 상품들과 차별화되고 특화수준이 높다고 평가했다. 정책적 지원분야로 제주천연염색 축제 개최, 제주천연염색진흥조례 제정, 디자인 개선, 신제품 개발지원, 마케팅 지원사업 강화 등 지원항목이 높은 것으로 나타났다. 지난 9월 13일부터 9월 16일까지 제주공항에서 215명을 대상으로 제주천연염색에 관한 관광객 의견 분석에서 ‘제주천연염색산업 경쟁력’항목은 ‘보통 52.6%’, ‘낮음 27.9%, ‘높음 19.0%’로 나타나 경쟁력 확보에 주력해야 할 것으로 나타났다. ‘제주천연염색 체험 프로그램 참여의도’ 항목은 ‘그렇다 39.1%’로 나타나 참여의사가 높은 것으로 나타났다. ‘제주천연염색 만족도’는 ‘색상 44.1%’로 높게 나타났으며, ‘제품 구매의도’는 ‘있다 45.2%’로 구매의향이 높았다. ‘제품 추천의도’는 ‘그렇다 50.9%’였으며, ‘특화거리 조성에 대한 의견’은 ‘조성해야 한다 55.8%’로 나타났다. ‘구입 기념품’은 ‘감귤류 31.6%’, ‘오메기떡 25.1%’, ‘과자종류 23.3%’ 순이였으며, ‘구입희망천연제품’은 ‘스카프 33.5%’, ‘침구류 23.7%’, ‘셔츠 22.8%’ 순으로 희망하는 것으로 조사됐다. 제주 관광기념품 시장 규모 추정에 있어서는 2020년 말 기준으로 제주의 내도 관광객은 1,024만 명으로 제주지역경제 활성화를 위해서는 천연염색, 관광기념품 등의 제주지역 지연산업과 연계한 명품개발사업 등을 추진하여, 제주 관광기념품 잠재 시장을 전략적으로 공략 할 필요성을 제기했다. 제주관광기념품 시장을 2020년 제주도와 제주관광공사가 조사한 방문관광객 실태조사 통계자료를 기반으로 단순 추정해본다면 2020년 제주관광기념품 시장 규모는 약 5,774억으로 추정되는 것으로 용역진은 보고했다. 이는 제주지역 면세점에서 취급하는 명품급의 제주 관광기념품들이 준비되어 있다면 상당한 매출을 올릴 수 있는 잠재시장이 존재함으로 전략적으로 제주관광기념품 명품 개발에 정책적인 지원과 투자할 가치가 있다고 강조했다. 또한, 관광객들의 제주 재방문 비율이 80%를 상회하는 시장 환경에 부응하고, 위드코로나 시대의 다양한 관광객의 욕구를 충족시키기 위해서라도 문화관광상품자원으로 역사성과 문화성을 갖추고 있고, 제주형 제조업으로서 지연산업의 특성을 갖추고 있으며, 체험융합상품으로의 기술성과 차별성, 성장 잠재력이 있는 제주천연염색 산업을 전략아이템으로 선정하여 정책적으로 적극 지원하고 육성할 필요가 있다고 보고했다. 제주천연염색산업 육성의 정책과제와 활성화 방안에서는 첫째, 명품선정과 명장제도 추진, 둘째, 제주천연염색센터(가칭) 설립의 필요성, 셋째, 제주천연염색 인증시스템 추진, 넷째, 제주천연염색 가치사슬 전문화를 통한 원료 생산, 제품생산, 유통의 전문화 시스템 구축의 필요성을 정책적 과제로 제시했다. 제주천연염색산업 활성화 방안으로는 제주천연염색산업 통합지원 시스템 구축, 인체친화적 건강기능성 상품 개발, 공동마케팅 활성화, 주기적인 제주천연염색산업 실태조사 등을 활성화 방안으로 제시했다. 제주천연염색산업 통합지원시스템은 기술기반 구축사업, 핵심역량 강화사업, 경영·기술 지원사업, 인력양성 사업 등 4개 사업이 유기적으로 연결되어 시너지 효과가 창출될 수 있도록 구축하는 방안, 식물성 천연섬유 직물로 이루어져 인체 유해성이 적은 특징이 있다. 또한 제주천연염색 사업체들은 전반적으로 규모가 작고 영세하므로 제주천연 염색 산업을 활성화하기 위해서는 공동판매, 공동전시, 천연염색 특화거리 조성, 제주천연염색마을 조성 사업 추진, 박람회 참가, 온라인 공동판매장 운영, 플리마켓과 연계한 공동판매 등의 공동마케팅을 강화할 필요성을 제기했다. 제주천연염색산업을 지속적으로 육성하고 발전 시키기 위해서는 1년에 한 번씩 주기적인 실태조사를 시행하여 정책과제를 도출하고, 지원정책의 성과분석과 차기 주요 지원분야 등을 설정하는 자료로 활용할 수 있다고 활성화 방안으로 제시했다. 제주갈옷 활성화 방안으로 방수성과 항균성을 보유하고 있어 환경 친화적, 편안한 착용감, 독특한 색감으로 인식되어 감성과학 측면에서 새롭게 인식되고 있으며, 제주의 다양한 식물 및 해양 자원과 연계한 복합염색 등을 통한 인체 친화형 소재 특성이 있어 성장의 잠재력과 경쟁력을 가지고 있는 분야라고 언급했다. 더불어, 갈옷 착용을 활성화하기 위해서는 제주지역의 관광업계 종사자들은 물론 전통시장 상인, 관공서, 일반 기업 등 제주 도민들이 즐겨 입을 수 있도록 디자인과 색상, 가격, 품질, 원단 등의 세밀한 추진방안을 강구해야 하며, 제주 갈옷 장려 및 지원에 관한 정책 제도화의 필요성을 피력했다. 용역결과 보고가 끝난 후 이어진 관련 정책토론은 강기춘 제주대학교 경제학과 교수, 제주도 교육청 김영관 장학관, 제주도 관광정책과 임명심 팀장, 제주천연염색협회 이애순 부회장, 제주관광미래성장포럼 김주희 정책연구원, 제주관광미래성장포럼 강철수 자문위원이 토론자로 나섰다. 제주관광미래성장포럼은 오영희 대표(국민의힘, 비례)를 비롯해 양병우 부대표(무소속, 대정읍), 강연호(국민의힘, 표선면), 고태순(더불어민주당, 아라동), 김창식(교육위, 제주시 서부), 이경용(국민의힘, 서홍·대륜동), 한영진(민생당, 비례) 7명이 활동하고 있다. 서유주 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. #제주도의회 #오영희의원 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 제주 오션갤러리, 시행사 보유분 특별분양 4 제주시, 10월 시정시책공유 간부회의 개최 5 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 6 [TW포토] 2022 제주레저힐링축제 새별오름 공연 7 제주 사회적기업 성장지원센터, 입주기업 설명회 및 간담회 성황리에 개최 8 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 9 제주시 동부보건소, 청소년 대상 코로나우울·스마트폰 중독 예방 홍보관 운영 10 서귀포시, 코로나19 취약(소농) 전업농가 영농경영비 신청기간 연장 실시간 뉴스 2022-10-06_THU 현지홍 의원, 제주도 해양자치권 수호해야!!! 19:31 제주도의회, 지방세 체납징수 관리 요구 19:30 도민 규제, 법과 원칙 토대 위에서 신중히 추진해야 !! 19:29 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 19:25 제주도, 숨어있는 아동학대 찾는다…만 3세 아동 전수조사 19:23 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 06일 20시 20분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도 단체관광 특수 기대....외국인 관광객 회 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이제주도 단체관광 특수 기대....외국인 관광객 회 박주연2021년 11월 02일 00시 00분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 ◀ＡＮＣ▶ 위드 코로나와 함께 국내 최대 관광지인 제주 관광업계에서는 연말 연시 특수 기대감이 높습니다. 코로나 이전 제주에만 허용됐던 중국인들의 무사증 입국이 언제쯤 풀릴지도 관심거리인데 제주도는 아직까지 신중한 입장입니다. 박주연 기자입니다.◀ＥＮＤ▶ ◀ＶＣＲ▶ 한라산 기슭, 편백나무가 우거진 자연휴양림입니다. 코로나19 여파로 한산했던 이 곳에 단체관광객들이 찾았습니다. 단계적 일상회복으로 새로운 방역대책이 시행되자 그동안 미뤄왔던 제주여행에 나선 것입니다.◀ＩＮＴ▶ 김광남 / 경기도 안양시 \"아무래도 조금은 잠잠해지고 국민들도 워낙 이런 방역에 익숙해져서 좀 더 홀가분 한 마음으로 왔습니다. 공기도 맑고 해서 즐기다 가려고 합니다.\" 코로나19로 단체관광이 중단되면서 사실상 개점휴업상태였던 제주지역 전세버스 예약율은 최근 40%까지 올랐습니다. 사회적 거리두기가 점차 완화되면서 지난달 제주를 찾은 관광객은 117만명으로 지난해 같은 기간보다 15% 늘었습니다. 관광업계는 연말 연시 특수를 기대하고 있습니다. ◀ＩＮＴ▶ 고수은 전세버스업체 대표 \"우리 전세버스 업체뿐만 아니라 여행사나 관광업계들이 연말에 특수를 노리는데 위드 코로나가 되면서 많은 손님들이 제주에 들어오지 않을까 생각합니다.\" 하지만, 중국인 관광객들이 많이 찾았던 제주시내 상점가는 여전히 한산합니다. 코로나19 발생 직후 중단됐던 국제선 항공편과 무사증 입국 제도가 재개되지 않고 있기 때문입니다. ◀ＩＮＴ▶ 신애복 누웨모르 상인회장 \"무사증으로 들어올 수 있어야만 외국인들이 들어올 것이기 때문에 상권을 살리기 위해서는 무사증이 빨리 풀려야된다고 저희는 생각하고 있습니다.\" 하지만, 제주도는 코로나19 상황을 지켜봐야 한다며 신중한 입장인데다 제주도민들 사이에서도 찬반이 엇갈리고 있어 외국인 관광객 회복은 시간이 걸릴 것으로 보입니다. MBC 뉴스 박주연입니다. 박주연 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초제주도 단체관광 특수 기대....외국인 관광객 회 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>제주도 단체관광 특수 기대....외국인 관광객 회 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크제주도 단체관광 특수 기대....외국인 관광객 회 박주연2021년 11월 01일 00시 00분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 ◀ＡＮＣ▶ 위드 코로나와 함께 국내 최대 관광지인 제주 관광업계에서는 연말 연시 특수 기대감이 높습니다. 코로나 이전 제주에만 허용됐던 중국인들의 무사증 입국이 언제쯤 풀릴지도 관심거리인데 제주도는 아직까지 신중한 입장입니다. 박주연 기자입니다. ◀ＥＮＤ▶ ◀ＶＣＲ▶ 한라산 기슭, 편백나무가 우거진 자연휴양림입니다. 코로나19 여파로 한산했던 이 곳에 단체관광객들이 찾았습니다. 단계적 일상회복으로 새로운 방역대책이 시행되자 그동안 미뤄왔던 제주여행에 나선 것입니다. ◀ＩＮＴ▶ 김광남 / 경기도 안양시 \"아무래도 조금은 잠잠해지고 국민들도 워낙 이런 방역에 익숙해져서 좀 더 홀가분 한 마음으로 왔습니다. 공기도 맑고 해서 즐기다 가려고 합니다.\" 코로나19로 단체관광이 중단되면서 사실상 개점휴업상태였던 제주지역 전세버스 예약율은 최근 40%까지 올랐습니다. 사회적 거리두기가 점차 완화되면서 지난달 제주를 찾은 관광객은 117만명으로 지난해 같은 기간보다 15% 늘었습니다. 관광업계는 연말 연시 특수를 기대하고 있습니다. ◀ＩＮＴ▶ 고수은 전세버스업체 대표 \"우리 전세버스 업체뿐만 아니라 여행사나 관광업계들이 연말에 특수를 노리는데 위드 코로나가 되면서 많은 손님들이 제주에 들어오지 않을까 생각합니다.\" 하지만, 중국인 관광객들이 많이 찾았던 제주시내 상점가는 여전히 한산합니다. 코로나19 발생 직후 중단됐던 국제선 항공편과 무사증 입국 제도가 재개되지 않고 있기 때문입니다. ◀ＩＮＴ▶ 신애복 누웨모르 상인회장 \"무사증으로 들어올 수 있어야만 외국인들이 들어올 것이기 때문에 상권을 살리기 위해서는 무사증이 빨리 풀려야된다고 저희는 생각하고 있습니다.\" 하지만, 제주도는 코로나19 상황을 지켜봐야 한다며 신중한 입장인데다 제주도민들 사이에서도 찬반이 엇갈리고 있어 외국인 관광객 회복은 시간이 걸릴 것으로 보입니다. MBC 뉴스 박주연입니다. 박주연 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초제주도 단체관광 특수 기대....외국인 관광객 회 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광체육위원회, 문화예술 시설 현장 방문 주메뉴 바로가기 본문 바로가기 2022.10.11 (화) 카카오채널 RSS 모바일보기 맑음서울 15.0℃ 구름조금제주 19.7℃ 구름많음고산 16.7℃ 구름조금성산 17.9℃ 구름많음서귀포 19.7℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도의회 문화관광체육위원회, 문화예술 시설 현장 방문 서유주 기자 news@jejutwn.com 등록 2021.11.01 10:47:02 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제주문학관 및 제주도립미술관 현장방문 [제주교통복지신문 서유주 기자] 제주도의회 문화관광체육위원회는 제399회 임시회 기간 중에 제주문학관과 제주도립미술관을 현장방문하여 의견을 청취하는 등 의정활동을 펼쳤다. 제주문학관은 제주문학인들의 오랫동안 염원했던 숙원사업으로 제주시 도남동 일원에 97억원의 사업비를 투입하여 조성됐으며, 지난 10월 23일에 개관됐다. 한편, 제주도립미술관에서 현재 진행중인 『프로젝트 제주』사업은 코로나 장기화 및 제2회 비엔날레 취소 등에 따라 침체된 지역 문화예술 활성화 및 지역작가의 창작 활동을 활발하게 이끌어 내기 위한 것으로 13명(팀)이 참여하여 미디어 아트 및 설치 작품을 전시하고 있으며, 10월 12일부터 내년 1월 9일까지 행사가 진행된다. 문화관광체육위원회 안창남 위원장은 “제주문학관이 제주문학사를 정립하고, 제주 문학발전에 이바지하기 위해 설립된 만큼 제대로 운영되기 위해서는 상근 관장제 도입 및 문학전공 학예연구사 배치 등 조직운영에 고심을 해야 할 것이다”라고 말했다. 또한 “장기화된 코로나 팬데믹 상황에서 도민들에게 희망을 주고 위안을 줄 수 있는 것은 문화예술이라고 강조하며, 제주문학관과 제주도립미술관이 제주문화예술의 구심점이 되어 제주 작가들이 많은 활동을 할 수 있도록 창작의욕을 고취하고 성장할 수 있도록 체계적이고 발전적인 운영계획을 마련하여 지역 문화예술을 활성화 해나가야 할 것이다” 라고 거듭 강조했다. 서유주 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 2 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 3 서귀포시, 동절기 코로나19 추가접종 10월 11일부터 참여 가능 4 제주특별자치도, 11일부터 코로나19 2가백신 동절기 추가접종 시작 5 서귀포시, 2023년 FTA기금 감귤생산시설 현대화사업 신청·접수 6 서귀포시 동부보건소, 가을철 농작업 및 야외활동 시 진드기 조심하세요! 7 제주시, 6.25 참전유공자 유족 무성화랑 무공훈장 수여 8 제주시, 오는 11월 24일부터 '일회용' 종이컵·빨대 등 제공 및 사용 금지한다 9 한국미술협회 서귀포지부, 2022 회원 정기전 진행 10 제주시 한경도서관, '냅킨 아트 소품 클래스' 프로그램 참여자 선착순 모집 실시간 뉴스 2022-10-11_TUE 서귀포시, 사무관 승진의결자 8명 승진임용 11:33 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 11:32 서귀포시 성산읍, 가로등에 디자인을 입혀 불법광고물을 뿌리 뽑는다 11:31 서귀포시, 다양한 국가의 진로 탐색으로 청소년의 꿈의 시야를 넓히다. 11:30 서귀포시, 2022년 하반기 주민등록 사실조사 실시 11:26 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 11일 14시 57분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도, 관광지 택시 불법행위 집중단속 서울경제 서울경제TV SEN Plus 한국일보 리드온 회원가입 로그인 뉴스 뉴스홈 증권 금융 부동산 산업·IT 경제 전국 오피니언 탐사 핫이슈 키워드 톰슨로이터 프로그램 프로그램 핫클립 SEN이슈 SEN이슈 홈 비즈니스 글로벌 이슈&amp;피플 7번 국도 이야기 라이프 라이프 홈 S경제 S문화 S생활 카드PICK 카드PICK 커뮤니티 커뮤니티 개국포럼 금융자산포럼 채널가이드 편성표 안내 채널번호 안내 뉴미디어 시청안내 큐톤표 (생) 오늘장 내일장오후 02:00 - 오후 03:00 (생) 마감임박! 60분의 승부오후 03:00 - 오후 04:00 사이트맵 사이트맵 닫기 검색 뉴스 뉴스홈 증권 금융 부동산 산업·IT 경제 전국 오피니언 탐사 핫이슈 키워드 톰슨로이터 프로그램 프로그램 핫클립 SEN이슈 SEN이슈 홈 비즈니스 글로벌 이슈&amp;피플 7번 국도 이야기 라이프 라이프 홈 S경제 S문화 S생활 카드PICK 카드PICK 커뮤니티 커뮤니티 개국포럼 금융자산포럼 채널가이드 편성표 안내 채널번호 안내 뉴미디어 시청안내 큐톤표 IR클럽 ON AIR 통합 검색 검색 PLUS 바로가기 제주도, 관광지 택시 불법행위 집중단속 전국 입력 2021-11-11 08:12:18 금용훈 기자 0개 가 가 가 가 올해 말까지 '주요 관광지 중심' 집중 단속 제주공항의 택시승강장[사진=금용훈기자] [제주=금용훈 기자] 최근 위드 코로나의 단계적 회복으로 제주 관광객이 급증함에 따라 제주특별자치도는 한라산국립공원 등 주요 관광지 일대에서 택시 불법 영업행위를 집중 단속하고 있다. 주요 단속지역은 영실, 관음사, 성판악, 어리목, 마방목지 등 한라산 등반로 주차장 및 제주항, 성산포항 여객터미널 등이다. 2인1조로 구성된 점검반은 올해 말까지 미터기 미사용, 부당요금 요구행위, 운전업무 종사자격 증명 미게시, 승차 거부 또는 합승행위 등을 중점적으로 점검한다. 제주도는 단속에 적발된 택시 운송사업자에 대해서는 지방보조금 지급 제한을 검토하고, 과태료 부과 등 행정처분 조치를 이행할 방침이다. 과태료는 여객자동차 운수사업법 및 택시운송사업의 발전에 관한 법률에 따라 위반행위 및 횟수에 따라 10만 원에서 20만 원까지 부과된다. 김재철 도 교통항공국장은 '일상회복에 대한 기대감으로 야외활동이 증가하는 시기인 만큼 택시 불법 영업행위를 집중 단속해 여행객의 교통 불편을 적극적으로 해결해나가겠다'고 말했다. /jb007@sedaily.com [ⓒ 서울경제TV(www.sentv.co.kr), 무단 전재 및 재배포 금지] #Tag #제주 #제주도 #제주시 #위드 코로나 #한라산국립공원 #합승행위 #불법 영업행위 #서귀포시 가 가 가 가 관련뉴스 제주항공 “인천~울란바토르 평균탑승률 86%” 제주해경청, 불법조업 외국 어선 강력 대응 제주도내 유일 대학병원 간호인력 '태부족' 파르나스호텔 제주, 오픈 100일 기념, 100객실 한정 패키지 출시 제주대 수의과대-한국뇌연구원, 뇌공학·뇌질환·뇌영상 등 공동연구 송재호 "윤석열 정부, 제주 4·3 국가보상금 왜 안주나" 서울경제TV 카카오톡 페이스북 네이버 원하시는 소셜 계정으로 로그인 한 후 의견을 작성해 주세요. 0/250 등록 주요뉴스 증권 산업·IT 부동산 금융 [이번주 SEN공모]골프존커머스 수요예측·핀텔 등 공모청약 外 이엔플러스, 2차전지 양산 핵심설비 구축 골프존커머스, 10월 코스닥 입성…"플랫폼 선도 기업 발돋움" 비보존, 경구용 약물중독 치료제 임상 1상 IRB 승인 진매트릭스, 인유두종바이러스 진단키트 신제품 식약처 제조허가 코웨이, 2022 한국산업의 고객만족도 조사 '침대·정수기' 2개 부문 1위 한국필립모리스, '한국산업 고객만족도' 궐련형 전자담배 부문 2년 연속 1위 "김치통 드려요"…삼성 비스포크 김치플러스, 프로모션 실시 마켓컬리 "이른 초가을 추위에 국물요리∙난방용품 판매량 증가" LF ‘아떼 바네사브루노’, LF몰서 가을 시즌 패션·뷰티 기획전 개최 최고급 골프빌리지 ‘알펜시아 빌라쥬 700’ 분양 예정 파주운정 경남아너스빌 디원&amp;리버’, 광폭 설계로 수요자 유혹 SGC이테크건설, 화재 예방 캠페인 실시 희소성 높아지는 수도권 새 아파트 분양 ‘눈길’ ‘포항 푸르지오 마린시티’, 청약 일정 돌입 [부고] 지영흔(하나은행 홍보팀장)씨 부친상 상상인계열 저축은행, '369 회전 정기예금' 출시…"자동 최신금리 반영" 웰컴저축銀, 정기예금 최고 연 4.45% 제공 카카오페이손해보험 출발…'함께하는 금융안심보험' 출시 NH농협생명 "상품개발 프로세스 디지털 전환 박차" 주간 TOP뉴스 1KOTRA, 우리 기업 美 소·부·장 시장 진출 지원 나선다 2포스코홀딩스-LG엔솔, 이차전지 사업 MOU 체결…전 분야 협력 강화 3현대모비스, 차량용 인포테인먼트 플랫폼 공동 개발…미래차 공략 강화 4한국투자證 “셀트리온, 램시마가 주도한다…매수해야” 5현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4,000만뷰 돌파 6미투온·미투젠 공동 개발 ‘포켓배틀스 NFT War’ DAU 10만 돌파 7답십리역 초역세권 ‘르텐 바이 트리마제’ 이달 공급 계획 8대우건설 ‘시화 MTV 푸르지오 디오션’ 이달 분양 9지더블유바이텍, 이사 선임 등 임시주주총회 성료 10유안타證, 해외주식 소수점 거래 서비스 오픈 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 더보기 핫클립 최신 인기 #업싸부, #시황브리핑! 주도주 섹터 관심! 방산관련주 │#단타, #아프리카TV, #매매전략 순간포착 매매 시그널 2022-10-11 (화) 방송 필라델피아반도체지수 저점 하회, 국내 대형IT주 대응은? │#매매전략, #종목추천 GO!수익 작전타임 2022-10-11 (화) 방송 오늘의 공시 분석! #카카오뱅크│공시분석, 매매전략 GO!수익 작전타임 2022-10-11 (화) 방송 한화 ‘서울세계불꽃축제’ 3년만에 개최 SEN 경제라이브 2022-10-11 (화) 방송 지수상승하면 우량주, 혼조세면 개별주, 하락하면 관망 평택촌놈의 정석투자 2019-03-26 (화) 방송 메타버스와 교육이 합쳐진다? 웅진씽크빅 지금이 매수 타이밍!│ 매매전력(웅진씽크빅,교육주,윤석열관련주) 마감임박! 60분의 승부 2021-11-12 (금) 방송 [내일의 BOOM] 탄소감축 = 원전? 달리는 말 '세보엠이씨' 탑승 전략은? │ 매매전략 (세보엠이씨,원전주,종가베팅) 오늘장 내일장 2021-11-12 (금) 방송 2월 25일이 반등 고점은 확실, 이제는 하락 속도의 문제 평택촌놈의 정석투자 2019-03-26 (화) 방송 이 시각 이후 방송 15:00 마감임박! 60분의 승부 생방송 성예경 PD 최슬기 MC 16:00 주식 구조대 생방송 박솔아 PD 김혜연 MC 17:00 건강 정보통 &lt;재&gt; 재방송 SEN PD SEN MC 18:00 SEN 경제라이브 생방송 박수현 PD 서정덕 MC 18:30 돈워리 스탁 생방송 성예경 PD 이주현 MC 더보기 오늘의 날씨 2022-10-12(수) 09:00 구름조금 마포구 상암동11.0℃ 강수확률 0% 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 신규 프로그램(해외선물의 신 시즌3) 런칭!! 신규 프로그램(윤태진의 허니투데이) 런칭!! 신규 프로그램(민박사의 주식 훈민정음) 런칭!! 회사소개 개인보호정책 광고 및 제휴 안내 기사 구매 안내 고객센터 IR클럽 서울특별시 마포구 월드컵북로 400 서울산업진흥원 3, 4, 8, 9층 SEN 서울경제TV 서울특별시 종로구 율곡로 6, 트윈트리빌딩 비동 16층(중학동) 제호 : SEN서울경제TV 등록번호 : 서울, 아52887 등록일 : 2020년 02월 19일 발행인 및 편집인 : 이상석 고객센터 : 1577-7451 사업자등록번호 : 107-81-84028 통신판매업신고번호 : 제 2018-서울종로-0855호 대표자 성명 : 이상석 Copyright 2012 ⓒ ㈜서울경제티브이 Corp. All Rights Reserved. 서울경제TV SEN ON AIR 편성표 VOD 소개 프로그램 정보 VOD 더보기 온에어 팝업창 닫기 온에어 팝업창 넓게 펼치기 접기 서울경제TV 카카오톡 페이스북 네이버 원하시는 소셜 계정으로 로그인 한 후 의견을 작성해 주세요. 0/250 등록 주요뉴스 증권 산업·IT 부동산 금융 [이번주 SEN공모]골프존커머스 수요예측·핀텔 등 공모청약 外 이엔플러스, 2차전지 양산 핵심설비 구축 골프존커머스, 10월 코스닥 입성…"플랫폼 선도 기업 발돋움" 비보존, 경구용 약물중독 치료제 임상 1상 IRB 승인 진매트릭스, 인유두종바이러스 진단키트 신제품 식약처 제조허가 코웨이, 2022 한국산업의 고객만족도 조사 '침대·정수기' 2개 부문 1위 한국필립모리스, '한국산업 고객만족도' 궐련형 전자담배 부문 2년 연속 1위 "김치통 드려요"…삼성 비스포크 김치플러스, 프로모션 실시 마켓컬리 "이른 초가을 추위에 국물요리∙난방용품 판매량 증가" LF ‘아떼 바네사브루노’, LF몰서 가을 시즌 패션·뷰티 기획전 개최 최고급 골프빌리지 ‘알펜시아 빌라쥬 700’ 분양 예정 파주운정 경남아너스빌 디원&amp;리버’, 광폭 설계로 수요자 유혹 SGC이테크건설, 화재 예방 캠페인 실시 희소성 높아지는 수도권 새 아파트 분양 ‘눈길’ ‘포항 푸르지오 마린시티’, 청약 일정 돌입 [부고] 지영흔(하나은행 홍보팀장)씨 부친상 상상인계열 저축은행, '369 회전 정기예금' 출시…"자동 최신금리 반영" 웰컴저축銀, 정기예금 최고 연 4.45% 제공 카카오페이손해보험 출발…'함께하는 금융안심보험' 출시 NH농협생명 "상품개발 프로세스 디지털 전환 박차" 주간 TOP뉴스 1KOTRA, 우리 기업 美 소·부·장 시장 진출 지원 나선다 2포스코홀딩스-LG엔솔, 이차전지 사업 MOU 체결…전 분야 협력 강화 3현대모비스, 차량용 인포테인먼트 플랫폼 공동 개발…미래차 공략 강화 4한국투자證 “셀트리온, 램시마가 주도한다…매수해야” 5현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4,000만뷰 돌파 6미투온·미투젠 공동 개발 ‘포켓배틀스 NFT War’ DAU 10만 돌파 7답십리역 초역세권 ‘르텐 바이 트리마제’ 이달 공급 계획 8대우건설 ‘시화 MTV 푸르지오 디오션’ 이달 분양 9지더블유바이텍, 이사 선임 등 임시주주총회 성료 10유안타證, 해외주식 소수점 거래 서비스 오픈 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 더보기 핫클립 최신 인기 #업싸부, #시황브리핑! 주도주 섹터 관심! 방산관련주 │#단타, #아프리카TV, #매매전략 순간포착 매매 시그널 2022-10-11 (화) 방송 필라델피아반도체지수 저점 하회, 국내 대형IT주 대응은? │#매매전략, #종목추천 GO!수익 작전타임 2022-10-11 (화) 방송 오늘의 공시 분석! #카카오뱅크│공시분석, 매매전략 GO!수익 작전타임 2022-10-11 (화) 방송 한화 ‘서울세계불꽃축제’ 3년만에 개최 SEN 경제라이브 2022-10-11 (화) 방송 지수상승하면 우량주, 혼조세면 개별주, 하락하면 관망 평택촌놈의 정석투자 2019-03-26 (화) 방송 메타버스와 교육이 합쳐진다? 웅진씽크빅 지금이 매수 타이밍!│ 매매전력(웅진씽크빅,교육주,윤석열관련주) 마감임박! 60분의 승부 2021-11-12 (금) 방송 [내일의 BOOM] 탄소감축 = 원전? 달리는 말 '세보엠이씨' 탑승 전략은? │ 매매전략 (세보엠이씨,원전주,종가베팅) 오늘장 내일장 2021-11-12 (금) 방송 2월 25일이 반등 고점은 확실, 이제는 하락 속도의 문제 평택촌놈의 정석투자 2019-03-26 (화) 방송 이 시각 이후 방송 15:00 마감임박! 60분의 승부 생방송 성예경 PD 최슬기 MC 16:00 주식 구조대 생방송 박솔아 PD 김혜연 MC 17:00 건강 정보통 &lt;재&gt; 재방송 SEN PD SEN MC 18:00 SEN 경제라이브 생방송 박수현 PD 서정덕 MC 18:30 돈워리 스탁 생방송 성예경 PD 이주현 MC 더보기 오늘의 날씨 2022-10-12(수) 09:00 구름조금 마포구 상암동11.0℃ 강수확률 0% 주가와 시세 전일 종가 기준 톰슨로이터(Refinitiv) 해외 주가지수 국제 외환시세 국제 원자재시세 국제 금리시세 종목 가격 전일대비 DOW 25,798.42 352.40 S&amp;P 500 2,809.91 102.00 Nasdaq 7,655.48 99.00 Nikkei 22,841.12 33.00 HIS 25,462.33 33.12 종목 가격 전일대비 USD/KRW 1,115.00 5.40 USD/JPY 112.25 3.40 EUR/USD 1.1532 0.0042 GBP/USD 1.3110 0.0034 USD/CNY 6.9234 0.0119 종목 가격 전일대비 금 (Gold) 1,227.3 3.33 은 (Silver) 14.33 1.22 동 (Copper) 2.7735 0.003 원유 (WTI) 71.25 1.23 원유 (Brent) 80.94 1.23 원유 (Dubai) 70.33 1.23 종목 가격 전일대비 3개월 USD Libor 2.44456 3개월 EURIBOR 0.318 3개월 JPY Libor 0.08350 3개월 GBP Libor 0.08350</t>
   </si>
   <si>
     <t>제주도·제주관광공사, 신오쿠보에서 떠나는 제주 가상여행 이벤트 성황 TtL News 티티엘뉴스 Login | Join HOME. 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. News Category 뉴스 카테고리 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. Home 산업 | 경제 | 정책 전체보기 정부|지역 기관|협회 금융|경제 기업 항공|여행|레저 숙박|면세|유통 교역/전시/설명회 일반/단신 인바운드 목록 제주도·제주관광공사, 신오쿠보에서 떠나는 제주 가상여행 이벤트 성황 11월 한달간 진행...일본 최대 한류 집결지 신오쿠보가 제주로 변신! 공사, “일본시장 재개에 대비해 핵심 방한층을 타깃으로 한 집중 마케팅 펼친다” 2021-11-17 18:11:40							, 수정 : 2021-11-18 09:15:58							 | 이상인 선임기자 [티티엘뉴스] 한류 열풍이 불면서 일본 최대 코리아타운에 젊은 사람이 모이고 있다. 관동 지역 최대규모 한인타운인 ‘신오쿠보’에는 코로나19에도 불구하고 평일 5만명, 주말 10만명의 사람들로 북적인다. 이런 신오쿠보에서 제주가상여행이 진행되고 있어 주목을 모으고 있다. ▲돌하루방 달고나 이벤트 제주특별자치도와 제주관광공사(사장 고은숙)는 한국관광공사 도쿄지사와 함께 ‘신오쿠보에서 떠나는 제주가상여행’이벤트를 11월 한 달간 진행하고 있다고 17일 밝혔다. 이 기간 공사는 신오쿠보 내 한식당 18개 점포와 협력, 여러 분식을 한 접시에 모아서 먹는 제주만의 독특한 분식 형태인 ‘모닥치기’를 특별메뉴로 제공하고 있다. 가게 특성에 따라 분식 구성에 통닭, 쫄면이 들어가는 등 골라먹는 재미가 있어 큰 호응을 얻고 있다. ▲신오쿠보 한식당에서 특별메뉴로 판매중인 모닥치기(돈나라 1호점) 공사는 또 오는 20일부터 28일까지 제주가상여행 이벤트존을 운영한다. 제주 감귤 테마카페 분위기를 연출해 한라봉 음료를 시음할 수 있고, 제주의 사계절을 구현한 포토존이 마련돼 있다. 특히 야외공간에선 협재해수욕장을 재현하고, 제주에서 인기인 피크닉 세팅을 하는 등 힐링을 만끽할 수 있는 공간으로 구성할 예정이다. 또한 넥플릭스 인기드라마인 오징어게임에 등장한 달고나 게임을 제주식으로 변형, 특별 제작한 돌하루방 달고나 게임을 진행해 재미를 더할 계획이다. 아울러 제주경제통상진흥원과의 협력으로 제주에서 온 선물 전시 공간을 제주플리마켓 콘셉트로 마련하고, 동일 기간 한국마트 내 샵인샵 형태로 제주특산품을 특별판매한다. 행사기간 동안, 신오쿠보 메인거리도 제주로 변신한다. 제주절경 56선 배너를 걸고 광고판에서 제주 홍보 영상이 나오는 등 제주를 걷는 분위기를 조성했다. ▲모닥치기 체험 및 SNS 홍보(타카치 하루카) 일본 현지 미디어의 반응도 뜨겁다. 메이저 방송사인 TV아사히, 후지TV 보도채널 등에서 취재가 추진, 약 70개 매체를 통해 신오쿠보 이벤트가 홍보되고 있다. 모닥치기를 체험한 타카치 하루카씨(여, 도쿄 거주)는 “분식을 모아서 먹는다는 콘셉트가 재미있었다”며, “이번 이벤트를 통해 제주에 대해 많은 정보를 얻게 됐다. 코로나 상황이 좋아지면 한국의 하와이인 제주에 꼭 가보고 싶다”고 전했다. 제주관광공사는 일본 젊은 세대를 중심으로 한국에 대한 관심이 그 어느 때보다 높아진 지금, 현지 홍보를 보다 강화해 제주여행 수요를 미리 확보해 나간다는 방침이다. ▲신오쿠보 한식당에서 특별메뉴로 판매중인 모닥치기(돈나라 1호점) 일본 현지 사무소에서는 각지에서 재개되고 있는 한국여행 오프라인 행사에 참가해 소비자 접점 홍보 이벤트를 전개하고 있으며, 유명 지상파TV, 라디오, 여성지·한류매거진 등 미디어채널을 활용한 홍보도 확대하고 있다. 제주관광공사 관계자는 “이번 행사는 제주경제통상진흥원, 신주쿠한국상인연합회, 신오쿠보상가진흥조합 등 많은 기관과의 협력으로 다채로운 이벤트를 성공적으로 진행할 수 있게 됐다”며, “공사는 앞으로도 일본시장 재개에 대비해 핵심 방한층을 타깃으로 한 집중 마케팅을 펼치겠다”고 전했다. 이상인 선임기자 lagolftime@ttlnews.com 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 관련기사 제주관광공사, 2021 지역관광리더 역량강화 워크숍 개최 제주관광공사,  ‘2021 지역관광 리더 역량 강화 워크숍’ 개최 제주관광공사, 제주여행 수기 공모전…시상품 풍성 제주관광공사, 제주대학교와 협력해 지역 관광 인재 양성 교육 프로그램 운영 제주관광공사 세상에 이런(E-RUN) 트립, 환경보호 여행 지평 열어 제주관광공사, ‘문화 향유의 공간, 탐나는 원도심’ 행사 개최 제주도·제주관광공사, ‘2021 도전! J-스타트업’ 데모데이 개최 제주관광공사, ‘숲으로오라, 어린이 환경수호대’ 개최 제주관광공사·에어서울(주), 제주관광 활성화 위한 업무협약 체결 목록 엔터테인먼트 트렌드 이슈 관광항공인&amp;인터뷰 회사소개 ｜ 광고·제휴문의｜ 회원약관｜ 개인정보취급방침｜ 기사제보 | (주)여심 | 서울, 아03649 | 등록일자: 2015년 3월 25일 | 제호: 트래블투라이프(Travel to Lifestyle·티티엘뉴스) | 발행·편집인: 편성희 | 편집장: 정연비 | 청소년보호책임자: 편성희 | 발행일자: 2015년 1월 5일 편집/제작국: 02)6354-4608, ttlnews@ttlnews.com 광고/콘텐츠사업국: 02)6354-4609, ads@ttlnews.com 서울특별시 종로구 세종대로 149 광화문빌딩 20층 HJBC 2134호 티티엘뉴스는 인터넷신문위원회의 기사 및 광고부문 자율규약 준수를 동의한 서약사입니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정연비 02-6354-4608 ttlnews@ttlnews.com 티티엘뉴스의 모든 콘텐츠는 저작권법의 보호를 받은바, 무단 전재·복사·배포 등을 금합니다. Copyright by TtL news × 유투브 동영상 삽입 가이드 삽입하고자 하는 유투브 동영상의 페이지로 접속하신 후에, 동영상 밑에 있는 '공유' 버튼을 누릅니다. '공유'버튼을 누르면 나오는 탭들 중에 '소스코드'를 선택하시고 해당 소스코드를 복사하신 후 게시판에 붙여넣기 합니다. 닫기 × 뉴스 검색 닫기</t>
   </si>
   <si>
-    <t>위드 코로나에 제주 관광객 1천만명 돌파… 제주도 부동산 관심집중 - 국토일보 × 전체기사 사설 뉴스 전체 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 기업탐방 인사/동정/부고 입찰공고 입찰정보 특별좌담 논단 글로벌CEO 인터뷰 IT 금융·경제 교통/물류 문화·체육 건설인 축구동호회 탐방 국토정보 안전 오피니언 전체 기자수첩 국토논단 기고/논단 제언 時談事談 (시담사담) 칼럼 전체 의학상식 데스크 칼럼 재테크 칼럼 건설전문가 자유칼럼 국토일보 현장 25時 구인구직 전체 구인/구직 온라인건설일보 건설환경기술대상 건설문화대상 건설사진공모전 카드뉴스 UPDATED. 2022-10-04 11:21 (화) 로그인 회원가입 모바일웹 뉴스 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 안전 칼럼 데스크 칼럼 오피니언 의학상식 기고/논단 전문기자 Review 커뮤니티 공지사항 행사 건설환경기술대상 건설문화대상 건설인 축구대회 건설사진공모전 기사제보 구독신청 국토일보TV 기사검색 검색 이전 다음 위드 코로나에 제주 관광객 1천만명 돌파… 제주도 부동산 관심집중 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 부동산 위드 코로나에 제주 관광객 1천만명 돌파… 제주도 부동산 관심집중 이경운 기자 승인 2021.11.12 09:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 지난해보다 한 달 가량 빨라져… 위드 코로나로 여행 심리 되살아나 제주 드림타워 복합리조트 투시도. 단계적 일상 회복을 뜻하는 '위드 코로나'로 여행 심리가 크게 되살아나면서 올해 제주 누적 관광객 수가 1,000만명을 돌파할 예정이다. 이에 따라 이들을 대상으로 임대 수익을 얻을 수 있는 제주도 부동산에 투자자들의 관심이 모아지고 있다. 제주도관광협회에 따르면, 올해 제주를 찾은 누적 관광객은 999만4,496명(7일 기준)인 것으로 나타났다. 1,000만명까지 5,504명 남은 셈이다. 최근 위드 코로나와 함께 여행 심리가 회복되면서 관광객이 늘어나고 있는 만큼 며칠 내 1,000만명을 넘어설 것으로 보인다. 신종 코로나바이러스 감염증(코로나 19)이 발생한 지난해 1,000만명을 넘어선 시점은 12월로 올해의 경우 한달 가량 빨라졌다. 이처럼 제주도를 찾는 관광객 수가 증가하자 지자체에서도 관광 인프라 개발을 위한 투자를 아끼지 않고 있다. 제주첨단과학기술 2단지와 같은 대규모 개발 호재가 예정돼 있고, 마리나 산업과 해양레저관광산업 개발 등 관광객 유치를 위해 다방면으로 힘을 쓰고 있는 상황이다. 해외 관광객 유입도 기대된다. 현재 제주 제2국제공항이 '제6차 공항개발 종합계획(안)'에 포함되어 사업을 추진 중이다. 서귀포시 성산읍 신산리 일대에 들어설 것으로 전망되는 가운데, 해외 관광객 유입과 함께 기존 제주국제공항의 포화 문제 해결할 수 있을 것으로 보인다. 제주도가 국내를 넘어 국제적인 관광도시로 발돋움하면서, 일대 부동산에 대한 관심도 덩달아 높아지고 있다. 한국감정원 청약홈에 따르면, 지난 4월 제주시 연동에서 분양한 'e편한세상 연동 센트럴파크1, 2단지'(대한항공 사택 재건축)는 204가구 물량(일반 공급)에 2,802명이 1순위 청약을 접수하며, 최고 49대 1, 평균 13.7대 1의 경쟁률을 기록했다. 한 부동산 전문가는 "전세계적으로 코로나 19 확산세가 줄어들고, 국내에서도 위드코로나로 여행 심리가 되살아났지만, 아직까지 해외여행은 부담스러운 것이 사실"이라며 "해외여행 대신 제주도로 발길을 돌리는 관광객이 점점 늘면서 제주도 부동산 시장에 관심을 가지는 수요자들이 증가하고 있는 중"이라고 전했다. 녹지그룹은 제주시 노형동 925에 위치한 '제주 드림타워 복합리조트' 레지던스의 2차 분양을 진행 중이다. 이 리조트는 지하 6층~지상 38층, 2개 동, 전용면적 65~260㎡, 호텔·레지던스 등 총 1,600실로 구성된다. 현재 1개 동(그랜드 하얏트 제주 호텔, 750실)은 지난해 12월부터 운영 중이다. 이번 분양 물량은 1개 동, 레지던스 850실 중 2차 분인 130실로 스탠다드 스위트와 프리미어 스위트 2개 타입으로 구분된다. '제주 드림타워 복합리조트'는 기존 제주도에서 가장 높았던 롯데 시티 호텔(89m)보다 2배가량 높은 169m 규모인데다 연면적(30만3,737㎡)으로는 여의도 63빌딩의 1.8배에 이를 만큼 메머드급 규모를 자랑한다. 제주시 연동 일대에서는 '스타레지스 연동' 오피스텔이 이달 중에 분양한다. 단지는 지하 4층~지상 15층, 1개 동, 전용면적 44~84㎡, 총 140실 규모다. 반경 1㎞ 내에 노형오거리 중심상권과 신라면세점, 이마트, 롯데마트, 노형학원가, 제주한라병원 등의 편의시설이 위치하는 등 편리한 생활 인프라를 갖췄다. 테라스형 혁신설계와 게스트하우스, 호텔급 라이프 어메니티도 제공할 예정이다. 일호종합건설과 무궁화신탁은 제주시 한경면 청수리 2680-2번지 일대에 위치한 '제주에듀 루치올라'를 분양 중이다. 단지는 지상 4층, 11개 동, 전용면적 84~116㎡, 총 99가구 규모다. 단지 내에는 입주민 편의를 더해주는 각종 커뮤니티 시설과 안전을 위한 주차관제, RF카드 등 첨단 보안시스템을 갖출 예정이다. 저작권자 © 국토일보 무단전재 및 재배포 금지 이경운 기자 다른기사 보기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 뉴스레터 신청하기 이름 회사명 이메일 확인 ​ 인기기사 1롯데건설, ‘창원 롯데캐슬 하버팰리스’ 분양 2계양구에 시세보다 저렴한 아파트 ‘인천 작전 한라비발디’ 본격 분양 3구미국가산업단지 품은 핵심 배후주거지 'e편한세상 구미상모 트리베뉴' 주목 4휴스틸, 상반기 영업이익 1천억원 달성에 이어 과감한 승부수 던져 5만점입지에 낮은 분양가 'e편한세상 사천 스카이마리나' 호평 6우미건설, 10월 '음성 우미린 풀하우스' 분양 앞두고 '우미린 카페' 운영 7대우 vs 롯데, 한남2구역 재개발 한판승부 8매탄동 동남빌라 재건축지역주택조합, 창립총회 개최 9[심층취재] 건축자재 화재 안전성능 검증제도 현실성 결여 ‘문제’ 10첨단 기술력 갖춘 스마트홈 '더샵 군산프리미엘' 본격 분양개시 최신기사 10월 분양, 수도권 명품 아파트 노려라 10월 분양, 수도권 명품 아파트 노려라 전국 10월 물량 작년보다 네 배 늘어… 비규제지역 4만 가구 분양 전국 10월 물량 작년보다 네 배 늘어… 비규제지역 4만 가구 분양 에넥스, 혼수·이사철 가을 인테리어 완성 에넥스, 혼수·이사철 가을 인테리어 완성 원흥지구·창릉신도시 더블생활권 수익형 오피스텔 'GTX창릉역 힐사이드파크 더블' 관심 원흥지구·창릉신도시 더블생활권 수익형 오피스텔 'GTX창릉역 힐사이드파크 더블' 관심 한샘, ‘포시즌 매트리스’ SNS 브랜드 마케팅 전개 한샘, ‘포시즌 매트리스’ SNS 브랜드 마케팅 전개 강릉 부동산 시장 상승세 '강릉KTX역 경남아너스빌' 인기예감 강릉 부동산 시장 상승세 '강릉KTX역 경남아너스빌' 인기예감 “국토교통부 산하 공공기관 2천명 감축… 대부분 무기직으로 생색내기다” “국토교통부 산하 공공기관 2천명 감축… 대부분 무기직으로 생색내기다” 신문사소개 윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 동작구 사당로 264-1 썬빌딩 2층 대표전화 : 02-712-5678 팩스 : 02-712-6262 청소년보호책임자 : 김광년 명칭 : 주식회사 국토일보 (1994년 건설일보사로 출범) 제호 : 국토일보 인터넷신문 등록번호 : 서울 아 04947 등록일 : 2018-01-24 발행인·편집인 : 김광년 국토일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국토일보. All rights reserved. mail to kld@ikld.kr 위로</t>
+    <t>위드 코로나에 제주 관광객 1천만명 돌파… 제주도 부동산 관심집중 - 국토일보 × 전체기사 사설 뉴스 전체 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 기업탐방 인사/동정/부고 입찰공고 입찰정보 특별좌담 논단 글로벌CEO 인터뷰 IT 금융·경제 교통/물류 문화·체육 건설인 축구동호회 탐방 국토정보 안전 오피니언 전체 기자수첩 국토논단 기고/논단 제언 時談事談 (시담사담) 칼럼 전체 의학상식 데스크 칼럼 재테크 칼럼 건설전문가 자유칼럼 국토일보 현장 25時 구인구직 전체 구인/구직 온라인건설일보 건설환경기술대상 건설문화대상 건설사진공모전 카드뉴스 UPDATED. 2022-10-11 14:40 (화) 로그인 회원가입 모바일웹 뉴스 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 안전 칼럼 데스크 칼럼 오피니언 의학상식 기고/논단 전문기자 Review 커뮤니티 공지사항 행사 건설환경기술대상 건설문화대상 건설인 축구대회 건설사진공모전 기사제보 구독신청 국토일보TV 기사검색 검색 이전 다음 위드 코로나에 제주 관광객 1천만명 돌파… 제주도 부동산 관심집중 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 부동산 위드 코로나에 제주 관광객 1천만명 돌파… 제주도 부동산 관심집중 이경운 기자 승인 2021.11.12 09:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 지난해보다 한 달 가량 빨라져… 위드 코로나로 여행 심리 되살아나 제주 드림타워 복합리조트 투시도. 단계적 일상 회복을 뜻하는 '위드 코로나'로 여행 심리가 크게 되살아나면서 올해 제주 누적 관광객 수가 1,000만명을 돌파할 예정이다. 이에 따라 이들을 대상으로 임대 수익을 얻을 수 있는 제주도 부동산에 투자자들의 관심이 모아지고 있다. 제주도관광협회에 따르면, 올해 제주를 찾은 누적 관광객은 999만4,496명(7일 기준)인 것으로 나타났다. 1,000만명까지 5,504명 남은 셈이다. 최근 위드 코로나와 함께 여행 심리가 회복되면서 관광객이 늘어나고 있는 만큼 며칠 내 1,000만명을 넘어설 것으로 보인다. 신종 코로나바이러스 감염증(코로나 19)이 발생한 지난해 1,000만명을 넘어선 시점은 12월로 올해의 경우 한달 가량 빨라졌다. 이처럼 제주도를 찾는 관광객 수가 증가하자 지자체에서도 관광 인프라 개발을 위한 투자를 아끼지 않고 있다. 제주첨단과학기술 2단지와 같은 대규모 개발 호재가 예정돼 있고, 마리나 산업과 해양레저관광산업 개발 등 관광객 유치를 위해 다방면으로 힘을 쓰고 있는 상황이다. 해외 관광객 유입도 기대된다. 현재 제주 제2국제공항이 '제6차 공항개발 종합계획(안)'에 포함되어 사업을 추진 중이다. 서귀포시 성산읍 신산리 일대에 들어설 것으로 전망되는 가운데, 해외 관광객 유입과 함께 기존 제주국제공항의 포화 문제 해결할 수 있을 것으로 보인다. 제주도가 국내를 넘어 국제적인 관광도시로 발돋움하면서, 일대 부동산에 대한 관심도 덩달아 높아지고 있다. 한국감정원 청약홈에 따르면, 지난 4월 제주시 연동에서 분양한 'e편한세상 연동 센트럴파크1, 2단지'(대한항공 사택 재건축)는 204가구 물량(일반 공급)에 2,802명이 1순위 청약을 접수하며, 최고 49대 1, 평균 13.7대 1의 경쟁률을 기록했다. 한 부동산 전문가는 "전세계적으로 코로나 19 확산세가 줄어들고, 국내에서도 위드코로나로 여행 심리가 되살아났지만, 아직까지 해외여행은 부담스러운 것이 사실"이라며 "해외여행 대신 제주도로 발길을 돌리는 관광객이 점점 늘면서 제주도 부동산 시장에 관심을 가지는 수요자들이 증가하고 있는 중"이라고 전했다. 녹지그룹은 제주시 노형동 925에 위치한 '제주 드림타워 복합리조트' 레지던스의 2차 분양을 진행 중이다. 이 리조트는 지하 6층~지상 38층, 2개 동, 전용면적 65~260㎡, 호텔·레지던스 등 총 1,600실로 구성된다. 현재 1개 동(그랜드 하얏트 제주 호텔, 750실)은 지난해 12월부터 운영 중이다. 이번 분양 물량은 1개 동, 레지던스 850실 중 2차 분인 130실로 스탠다드 스위트와 프리미어 스위트 2개 타입으로 구분된다. '제주 드림타워 복합리조트'는 기존 제주도에서 가장 높았던 롯데 시티 호텔(89m)보다 2배가량 높은 169m 규모인데다 연면적(30만3,737㎡)으로는 여의도 63빌딩의 1.8배에 이를 만큼 메머드급 규모를 자랑한다. 제주시 연동 일대에서는 '스타레지스 연동' 오피스텔이 이달 중에 분양한다. 단지는 지하 4층~지상 15층, 1개 동, 전용면적 44~84㎡, 총 140실 규모다. 반경 1㎞ 내에 노형오거리 중심상권과 신라면세점, 이마트, 롯데마트, 노형학원가, 제주한라병원 등의 편의시설이 위치하는 등 편리한 생활 인프라를 갖췄다. 테라스형 혁신설계와 게스트하우스, 호텔급 라이프 어메니티도 제공할 예정이다. 일호종합건설과 무궁화신탁은 제주시 한경면 청수리 2680-2번지 일대에 위치한 '제주에듀 루치올라'를 분양 중이다. 단지는 지상 4층, 11개 동, 전용면적 84~116㎡, 총 99가구 규모다. 단지 내에는 입주민 편의를 더해주는 각종 커뮤니티 시설과 안전을 위한 주차관제, RF카드 등 첨단 보안시스템을 갖출 예정이다. 저작권자 © 국토일보 무단전재 및 재배포 금지 이경운 기자 다른기사 보기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 뉴스레터 신청하기 이름 회사명 이메일 확인 ​ 인기기사 1SM경남기업, '군산 경남아너스빌 디오션' 11일(화)부터 조건변경 청약 실시 2구미시, 전국 1호 '공항경제권 특례도시' 지정 기대감에 부동산시장 고조 3주택시장 이끄는 GS건설 '자이(Xi)', 대구 남구 대명동에 '대명자이 그랜드시티' 선보여 4대한토목학회, 아시아토목공학협의회 의장국 맡아 5똘똘한 한 채 선호현상 가속화… '힐스테이트 양주옥정 파티오포레' 비규제 프리미엄 각광 6전문건설공제조합, 이사장 선임... 논란 뜨겁다 7부동산 규제 속 틈새 투자처 ‘수익형 부동산’ 주목 8김포 주상복합 신축현장서 외벽 비계 무너져 9현대로템, 인천 자기부상열차 유지보수 수주 10“동탄 집값 급락?” 정작 시장엔 매물 없어… 현실과 통계 달라 최신기사 김민기 의원, 행안부 특별교부세 11억원 확보 김민기 의원, 행안부 특별교부세 11억원 확보 K-스마트도시 기술, 글로벌 도시 문제 해결 일익… 해외수출 ‘성과’ 이어간다 K-스마트도시 기술, 글로벌 도시 문제 해결 일익… 해외수출 ‘성과’ 이어간다 코레일유통, 역사 내 매장 임대료 매출액 50%까지 뜯어가··· 보증금도 이중 요구 코레일유통, 역사 내 매장 임대료 매출액 50%까지 뜯어가··· 보증금도 이중 요구 에이스건설, ‘안양에이스프롬’ 지식산업센터 도급계약 체결…내년 1월 착공 예정 에이스건설, ‘안양에이스프롬’ 지식산업센터 도급계약 체결…내년 1월 착공 예정 “부동산 침체기, 투자 기회로” 금융혜택 다양한 새 아파트, 투자 선점 기회로 인기 “부동산 침체기, 투자 기회로” 금융혜택 다양한 새 아파트, 투자 선점 기회로 인기 롯데건설, ‘창원 롯데캐슬 하버팰리스’ 12일 1순위 청약 진행 롯데건설, ‘창원 롯데캐슬 하버팰리스’ 12일 1순위 청약 진행 오토바이 소음기 등 불법튜닝 4년 새 10배 증가 오토바이 소음기 등 불법튜닝 4년 새 10배 증가 신문사소개 윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 동작구 사당로 264-1 썬빌딩 2층 대표전화 : 02-712-5678 팩스 : 02-712-6262 청소년보호책임자 : 김광년 명칭 : 주식회사 국토일보 (1994년 건설일보사로 출범) 제호 : 국토일보 인터넷신문 등록번호 : 서울 아 04947 등록일 : 2018-01-24 발행인·편집인 : 김광년 국토일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국토일보. All rights reserved. mail to kld@ikld.kr 위로</t>
   </si>
 </sst>
 </file>
@@ -434,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -489,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -500,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,10 +670,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,10 +692,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,10 +703,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,10 +714,334 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
